--- a/initializationData/GliderMission.xlsx
+++ b/initializationData/GliderMission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ent.dfo-mpo.ca\atlshares\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954AA9EB-6955-4FD7-A002-97BF65537901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069B768F-339B-4439-9DD9-F6E283AB5CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="18060" windowHeight="11796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="549">
   <si>
     <t>Deployment date</t>
   </si>
@@ -665,9 +665,6 @@
   </si>
   <si>
     <t>Deploy lon</t>
-  </si>
-  <si>
-    <t>Dave Hebert</t>
   </si>
   <si>
     <t>Melany Belzile</t>
@@ -1628,6 +1625,81 @@
   </si>
   <si>
     <t>BBn1.5-BBn2-BBn3-BBn4-BBn5-BBn6-BBn5-BBn4-BBn3-BBn2-BBn1-Tri3-Tri2.5-Tri2-Tri0.5-DR</t>
+  </si>
+  <si>
+    <t>2.20.0</t>
+  </si>
+  <si>
+    <t>20220210</t>
+  </si>
+  <si>
+    <t>210185</t>
+  </si>
+  <si>
+    <t>20230109</t>
+  </si>
+  <si>
+    <t>21u1787</t>
+  </si>
+  <si>
+    <t>20230223</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA021_69</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA024_75</t>
+  </si>
+  <si>
+    <t>5-Mar-17</t>
+  </si>
+  <si>
+    <t>20230314</t>
+  </si>
+  <si>
+    <t>DR-GL1-GL2-GL3- GL2-GL1-NSC-North-DR-DR25mContour</t>
+  </si>
+  <si>
+    <t>Laura on deployment with Dal, Chris land pilot.</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA022_91</t>
+  </si>
+  <si>
+    <t>19-Dec-16</t>
+  </si>
+  <si>
+    <t>20221221</t>
+  </si>
+  <si>
+    <t>20230411</t>
+  </si>
+  <si>
+    <t>Tri-GL1-GL2-GL3-GL7-GL3-GL2-GL1-NSC-DR</t>
+  </si>
+  <si>
+    <t>20230317</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA032_</t>
+  </si>
+  <si>
+    <t>satelite??</t>
+  </si>
+  <si>
+    <t>20320508</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA021_71</t>
+  </si>
+  <si>
+    <t>GL1-GL2-GL3-GL7-GL3-GL2-GL1-TRI-HL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4.0-r  </t>
+  </si>
+  <si>
+    <t>2.20.0-r</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1781,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1752,12 +1824,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1926,7 +1992,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2045,20 +2111,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2212,43 +2266,42 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -2597,90 +2650,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO74"/>
+  <dimension ref="A1:BO85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="BK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P66" sqref="P66"/>
+      <selection pane="bottomRight" activeCell="BM20" sqref="BM20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" customWidth="1"/>
+    <col min="2" max="3" width="15.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="4" customWidth="1"/>
     <col min="5" max="6" width="14" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.81640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="7.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.81640625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="10.08984375" style="7" customWidth="1"/>
-    <col min="17" max="17" width="78.90625" customWidth="1"/>
-    <col min="18" max="18" width="8.08984375" customWidth="1"/>
-    <col min="19" max="19" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.77734375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="7" style="7" customWidth="1"/>
+    <col min="14" max="14" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.77734375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="10.21875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="78.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.21875" customWidth="1"/>
+    <col min="19" max="19" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" customWidth="1"/>
-    <col min="22" max="22" width="11.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.77734375" customWidth="1"/>
+    <col min="22" max="22" width="11.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.54296875" style="86" customWidth="1"/>
-    <col min="28" max="28" width="20.54296875" style="86" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.54296875" style="86" customWidth="1"/>
-    <col min="30" max="30" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.5546875" style="82" customWidth="1"/>
+    <col min="28" max="28" width="20.5546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.5546875" style="82" customWidth="1"/>
+    <col min="30" max="30" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.6328125" style="7" customWidth="1"/>
-    <col min="37" max="37" width="7.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.36328125" style="87" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.81640625" style="87" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.81640625" style="87" customWidth="1"/>
-    <col min="45" max="45" width="12.81640625" style="87" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.81640625" style="87" customWidth="1"/>
-    <col min="47" max="47" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.90625" style="6" customWidth="1"/>
-    <col min="50" max="51" width="12.81640625" style="87" customWidth="1"/>
-    <col min="52" max="52" width="11.81640625" style="87" customWidth="1"/>
-    <col min="53" max="53" width="14.81640625" style="87" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.1796875" style="87" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="15.1796875" style="87" customWidth="1"/>
-    <col min="58" max="58" width="11.81640625" style="5" customWidth="1"/>
-    <col min="59" max="59" width="11.81640625" style="1" customWidth="1"/>
-    <col min="60" max="60" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.81640625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.5546875" style="7" customWidth="1"/>
+    <col min="37" max="37" width="7.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.44140625" style="83" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.77734375" style="83" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.77734375" style="83" customWidth="1"/>
+    <col min="45" max="45" width="12.77734375" style="83" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.77734375" style="83" customWidth="1"/>
+    <col min="47" max="47" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.77734375" style="6" customWidth="1"/>
+    <col min="50" max="51" width="12.77734375" style="83" customWidth="1"/>
+    <col min="52" max="52" width="11.77734375" style="83" customWidth="1"/>
+    <col min="53" max="53" width="14.77734375" style="83" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.21875" style="83" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="15.21875" style="83" customWidth="1"/>
+    <col min="58" max="58" width="11.77734375" style="5" customWidth="1"/>
+    <col min="59" max="59" width="11.77734375" style="1" customWidth="1"/>
+    <col min="60" max="60" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.77734375" style="6" customWidth="1"/>
     <col min="62" max="62" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="28.90625" style="4" customWidth="1"/>
-    <col min="66" max="66" width="24.90625" style="7" customWidth="1"/>
-    <col min="67" max="67" width="116.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="7.90625" customWidth="1"/>
+    <col min="63" max="63" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="28.77734375" style="4" customWidth="1"/>
+    <col min="66" max="66" width="24.77734375" style="7" customWidth="1"/>
+    <col min="67" max="67" width="116.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
-      <c r="D1" s="107" t="s">
-        <v>499</v>
-      </c>
-      <c r="E1" s="100" t="s">
-        <v>438</v>
+      <c r="D1" s="103" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1" s="96" t="s">
+        <v>437</v>
       </c>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
@@ -2733,27 +2785,27 @@
       <c r="BN1" s="25"/>
       <c r="BO1" s="30"/>
     </row>
-    <row r="2" spans="1:67" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="73" t="s">
+    <row r="2" spans="1:67" s="68" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="74" t="s">
-        <v>239</v>
-      </c>
-      <c r="G2" s="74" t="s">
+      <c r="F2" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="75" t="s">
-        <v>244</v>
+      <c r="H2" s="71" t="s">
+        <v>243</v>
       </c>
       <c r="I2" s="31" t="s">
         <v>4</v>
@@ -2761,22 +2813,22 @@
       <c r="J2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="76" t="s">
+      <c r="K2" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="L2" s="76" t="s">
+      <c r="L2" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="75" t="s">
+      <c r="N2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="75" t="s">
+      <c r="P2" s="71" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="31" t="s">
@@ -2794,29 +2846,29 @@
       <c r="U2" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="V2" s="77" t="s">
+      <c r="V2" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="77" t="s">
+      <c r="W2" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="77" t="s">
-        <v>359</v>
-      </c>
-      <c r="Y2" s="77" t="s">
+      <c r="X2" s="73" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y2" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="Z2" s="77" t="s">
+      <c r="Z2" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="AA2" s="77" t="s">
-        <v>391</v>
-      </c>
-      <c r="AB2" s="77" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC2" s="77" t="s">
-        <v>410</v>
+      <c r="AA2" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB2" s="73" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC2" s="73" t="s">
+        <v>409</v>
       </c>
       <c r="AD2" s="32" t="s">
         <v>55</v>
@@ -2830,110 +2882,110 @@
       <c r="AG2" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="AH2" s="77" t="s">
+      <c r="AH2" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="AI2" s="77" t="s">
+      <c r="AI2" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="AJ2" s="77" t="s">
+      <c r="AJ2" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="AK2" s="78" t="s">
+      <c r="AK2" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AL2" s="80" t="s">
+      <c r="AL2" s="76" t="s">
+        <v>348</v>
+      </c>
+      <c r="AM2" s="75" t="s">
+        <v>359</v>
+      </c>
+      <c r="AN2" s="75" t="s">
+        <v>352</v>
+      </c>
+      <c r="AO2" s="76" t="s">
         <v>349</v>
       </c>
-      <c r="AM2" s="79" t="s">
+      <c r="AP2" s="76" t="s">
+        <v>351</v>
+      </c>
+      <c r="AQ2" s="75" t="s">
+        <v>350</v>
+      </c>
+      <c r="AR2" s="75" t="s">
+        <v>354</v>
+      </c>
+      <c r="AS2" s="75" t="s">
+        <v>355</v>
+      </c>
+      <c r="AT2" s="75" t="s">
+        <v>357</v>
+      </c>
+      <c r="AU2" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV2" s="75" t="s">
+        <v>274</v>
+      </c>
+      <c r="AW2" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="AX2" s="75" t="s">
+        <v>362</v>
+      </c>
+      <c r="AY2" s="75" t="s">
+        <v>361</v>
+      </c>
+      <c r="AZ2" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="BA2" s="75" t="s">
         <v>360</v>
       </c>
-      <c r="AN2" s="79" t="s">
-        <v>353</v>
-      </c>
-      <c r="AO2" s="80" t="s">
-        <v>350</v>
-      </c>
-      <c r="AP2" s="80" t="s">
-        <v>352</v>
-      </c>
-      <c r="AQ2" s="79" t="s">
-        <v>351</v>
-      </c>
-      <c r="AR2" s="79" t="s">
-        <v>355</v>
-      </c>
-      <c r="AS2" s="79" t="s">
+      <c r="BB2" s="75" t="s">
         <v>356</v>
       </c>
-      <c r="AT2" s="79" t="s">
-        <v>358</v>
-      </c>
-      <c r="AU2" s="80" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV2" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW2" s="81" t="s">
-        <v>167</v>
-      </c>
-      <c r="AX2" s="79" t="s">
-        <v>363</v>
-      </c>
-      <c r="AY2" s="79" t="s">
-        <v>362</v>
-      </c>
-      <c r="AZ2" s="79" t="s">
-        <v>354</v>
-      </c>
-      <c r="BA2" s="79" t="s">
-        <v>361</v>
-      </c>
-      <c r="BB2" s="79" t="s">
-        <v>357</v>
-      </c>
-      <c r="BC2" s="79" t="s">
+      <c r="BC2" s="75" t="s">
+        <v>412</v>
+      </c>
+      <c r="BD2" s="75" t="s">
         <v>413</v>
       </c>
-      <c r="BD2" s="79" t="s">
+      <c r="BE2" s="75" t="s">
         <v>414</v>
       </c>
-      <c r="BE2" s="79" t="s">
-        <v>415</v>
-      </c>
-      <c r="BF2" s="82" t="s">
+      <c r="BF2" s="78" t="s">
         <v>171</v>
       </c>
       <c r="BG2" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="BH2" s="79" t="s">
+      <c r="BH2" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="BI2" s="79" t="s">
+      <c r="BI2" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="BJ2" s="79" t="s">
-        <v>229</v>
+      <c r="BJ2" s="75" t="s">
+        <v>228</v>
       </c>
       <c r="BK2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="BL2" s="83" t="s">
+      <c r="BL2" s="79" t="s">
         <v>198</v>
       </c>
-      <c r="BM2" s="83" t="s">
+      <c r="BM2" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="BN2" s="84" t="s">
+      <c r="BN2" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="BO2" s="85" t="s">
+      <c r="BO2" s="81" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -2946,7 +2998,7 @@
       <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="98">
+      <c r="E3" s="94">
         <v>36</v>
       </c>
       <c r="F3" s="11">
@@ -2956,7 +3008,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I3" s="13">
         <v>29.2</v>
@@ -3042,7 +3094,7 @@
         <v>69</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AN3" s="15" t="s">
         <v>169</v>
@@ -3054,7 +3106,7 @@
         <v>71</v>
       </c>
       <c r="AQ3" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AR3" s="15"/>
       <c r="AS3" s="15"/>
@@ -3077,7 +3129,7 @@
       <c r="BD3" s="15"/>
       <c r="BE3" s="15"/>
       <c r="BF3" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG3" s="17" t="s">
         <v>173</v>
@@ -3091,23 +3143,23 @@
       <c r="BJ3" s="15"/>
       <c r="BK3" s="13"/>
       <c r="BL3" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM3" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM3" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN3" s="18" t="s">
         <v>203</v>
       </c>
       <c r="BO3" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="91">
+    <row r="4" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="87">
         <v>2</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="86" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -3116,7 +3168,7 @@
       <c r="D4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="99">
+      <c r="E4" s="95">
         <v>43</v>
       </c>
       <c r="F4" s="11">
@@ -3126,7 +3178,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I4" s="2">
         <v>29.2</v>
@@ -3212,7 +3264,7 @@
         <v>69</v>
       </c>
       <c r="AM4" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AN4" s="15" t="s">
         <v>169</v>
@@ -3224,7 +3276,7 @@
         <v>71</v>
       </c>
       <c r="AQ4" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AR4" s="15"/>
       <c r="AS4" s="15"/>
@@ -3247,7 +3299,7 @@
       <c r="BD4" s="15"/>
       <c r="BE4" s="15"/>
       <c r="BF4" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG4" s="17" t="s">
         <v>173</v>
@@ -3261,10 +3313,10 @@
       <c r="BJ4" s="15"/>
       <c r="BK4" s="2"/>
       <c r="BL4" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM4" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM4" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN4" s="18" t="s">
         <v>204</v>
@@ -3273,7 +3325,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>1</v>
       </c>
@@ -3286,7 +3338,7 @@
       <c r="D5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="99">
+      <c r="E5" s="95">
         <v>30</v>
       </c>
       <c r="F5" s="35">
@@ -3296,7 +3348,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I5" s="3">
         <v>29.2</v>
@@ -3382,7 +3434,7 @@
         <v>75</v>
       </c>
       <c r="AM5" s="40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AN5" s="40" t="s">
         <v>169</v>
@@ -3394,7 +3446,7 @@
         <v>72</v>
       </c>
       <c r="AQ5" s="40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AR5" s="40"/>
       <c r="AS5" s="40"/>
@@ -3417,10 +3469,10 @@
       <c r="BD5" s="40"/>
       <c r="BE5" s="40"/>
       <c r="BF5" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG5" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH5" s="40" t="s">
         <v>95</v>
@@ -3433,10 +3485,10 @@
         <v>42</v>
       </c>
       <c r="BL5" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM5" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM5" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN5" s="37" t="s">
         <v>203</v>
@@ -3445,7 +3497,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>2</v>
       </c>
@@ -3458,7 +3510,7 @@
       <c r="D6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="99">
+      <c r="E6" s="95">
         <v>49</v>
       </c>
       <c r="F6" s="45">
@@ -3468,7 +3520,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I6" s="3">
         <v>29.2</v>
@@ -3555,7 +3607,7 @@
         <v>69</v>
       </c>
       <c r="AM6" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AN6" s="40" t="s">
         <v>169</v>
@@ -3567,7 +3619,7 @@
         <v>71</v>
       </c>
       <c r="AQ6" s="40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AR6" s="40"/>
       <c r="AS6" s="40"/>
@@ -3590,10 +3642,10 @@
       <c r="BD6" s="40"/>
       <c r="BE6" s="40"/>
       <c r="BF6" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG6" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH6" s="40" t="s">
         <v>95</v>
@@ -3604,19 +3656,19 @@
       <c r="BJ6" s="40"/>
       <c r="BK6" s="3"/>
       <c r="BL6" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM6" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM6" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN6" s="37" t="s">
         <v>203</v>
       </c>
       <c r="BO6" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>3</v>
       </c>
@@ -3629,7 +3681,7 @@
       <c r="D7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="99">
+      <c r="E7" s="95">
         <v>33</v>
       </c>
       <c r="F7" s="35">
@@ -3639,7 +3691,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I7" s="3">
         <v>29.2</v>
@@ -3725,7 +3777,7 @@
         <v>75</v>
       </c>
       <c r="AM7" s="40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AN7" s="40" t="s">
         <v>169</v>
@@ -3737,7 +3789,7 @@
         <v>72</v>
       </c>
       <c r="AQ7" s="40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AR7" s="40"/>
       <c r="AS7" s="40"/>
@@ -3760,10 +3812,10 @@
       <c r="BD7" s="40"/>
       <c r="BE7" s="40"/>
       <c r="BF7" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG7" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH7" s="40" t="s">
         <v>95</v>
@@ -3776,19 +3828,19 @@
         <v>43</v>
       </c>
       <c r="BL7" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM7" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM7" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN7" s="37" t="s">
         <v>203</v>
       </c>
       <c r="BO7" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>4</v>
       </c>
@@ -3801,7 +3853,7 @@
       <c r="D8" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="99">
+      <c r="E8" s="95">
         <v>25</v>
       </c>
       <c r="F8" s="35">
@@ -3811,7 +3863,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I8" s="3">
         <v>29.2</v>
@@ -3897,7 +3949,7 @@
         <v>76</v>
       </c>
       <c r="AM8" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AN8" s="40" t="s">
         <v>169</v>
@@ -3909,7 +3961,7 @@
         <v>78</v>
       </c>
       <c r="AQ8" s="40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AR8" s="40"/>
       <c r="AS8" s="40"/>
@@ -3932,10 +3984,10 @@
       <c r="BD8" s="40"/>
       <c r="BE8" s="40"/>
       <c r="BF8" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG8" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH8" s="40" t="s">
         <v>96</v>
@@ -3946,19 +3998,19 @@
       <c r="BJ8" s="40"/>
       <c r="BK8" s="3"/>
       <c r="BL8" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM8" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM8" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN8" s="37" t="s">
         <v>203</v>
       </c>
       <c r="BO8" s="43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>5</v>
       </c>
@@ -3971,7 +4023,7 @@
       <c r="D9" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="99">
+      <c r="E9" s="95">
         <v>32</v>
       </c>
       <c r="F9" s="35">
@@ -3981,7 +4033,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I9" s="3">
         <v>29.3</v>
@@ -4067,7 +4119,7 @@
         <v>81</v>
       </c>
       <c r="AM9" s="38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AN9" s="38" t="s">
         <v>169</v>
@@ -4079,7 +4131,7 @@
         <v>83</v>
       </c>
       <c r="AQ9" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AR9" s="38"/>
       <c r="AS9" s="38"/>
@@ -4102,10 +4154,10 @@
       <c r="BD9" s="40"/>
       <c r="BE9" s="40"/>
       <c r="BF9" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG9" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH9" s="40" t="s">
         <v>95</v>
@@ -4116,10 +4168,10 @@
       <c r="BJ9" s="40"/>
       <c r="BK9" s="3"/>
       <c r="BL9" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM9" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM9" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN9" s="37" t="s">
         <v>203</v>
@@ -4128,7 +4180,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>6</v>
       </c>
@@ -4141,7 +4193,7 @@
       <c r="D10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="99">
+      <c r="E10" s="95">
         <v>54</v>
       </c>
       <c r="F10" s="35">
@@ -4151,7 +4203,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I10" s="3">
         <v>29.2</v>
@@ -4237,7 +4289,7 @@
         <v>69</v>
       </c>
       <c r="AM10" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AN10" s="40" t="s">
         <v>169</v>
@@ -4249,7 +4301,7 @@
         <v>71</v>
       </c>
       <c r="AQ10" s="40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AR10" s="40"/>
       <c r="AS10" s="40"/>
@@ -4272,10 +4324,10 @@
       <c r="BD10" s="40"/>
       <c r="BE10" s="40"/>
       <c r="BF10" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG10" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH10" s="40" t="s">
         <v>96</v>
@@ -4286,19 +4338,19 @@
       <c r="BJ10" s="40"/>
       <c r="BK10" s="3"/>
       <c r="BL10" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM10" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM10" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN10" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="BO10" s="56" t="s">
-        <v>226</v>
+      <c r="BO10" s="52" t="s">
+        <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>7</v>
       </c>
@@ -4311,7 +4363,7 @@
       <c r="D11" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="99">
+      <c r="E11" s="95">
         <v>32</v>
       </c>
       <c r="F11" s="35">
@@ -4321,7 +4373,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>62</v>
@@ -4407,7 +4459,7 @@
         <v>76</v>
       </c>
       <c r="AM11" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AN11" s="38" t="s">
         <v>169</v>
@@ -4442,10 +4494,10 @@
       <c r="BD11" s="40"/>
       <c r="BE11" s="40"/>
       <c r="BF11" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG11" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH11" s="40" t="s">
         <v>96</v>
@@ -4456,19 +4508,19 @@
       <c r="BJ11" s="40"/>
       <c r="BK11" s="3"/>
       <c r="BL11" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM11" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM11" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN11" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BO11" s="56" t="s">
+      <c r="BO11" s="52" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>8</v>
       </c>
@@ -4481,7 +4533,7 @@
       <c r="D12" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="99">
+      <c r="E12" s="95">
         <v>26</v>
       </c>
       <c r="F12" s="35">
@@ -4491,7 +4543,7 @@
         <v>15</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>62</v>
@@ -4579,7 +4631,7 @@
         <v>84</v>
       </c>
       <c r="AM12" s="38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AN12" s="38" t="s">
         <v>169</v>
@@ -4593,10 +4645,10 @@
         <v>87</v>
       </c>
       <c r="AS12" s="38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AT12" s="38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AU12" s="34" t="s">
         <v>86</v>
@@ -4616,10 +4668,10 @@
       <c r="BD12" s="40"/>
       <c r="BE12" s="40"/>
       <c r="BF12" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG12" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH12" s="40" t="s">
         <v>95</v>
@@ -4630,19 +4682,19 @@
       <c r="BJ12" s="40"/>
       <c r="BK12" s="3"/>
       <c r="BL12" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM12" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM12" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN12" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BO12" s="56" t="s">
+      <c r="BO12" s="52" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>9</v>
       </c>
@@ -4655,7 +4707,7 @@
       <c r="D13" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="99">
+      <c r="E13" s="95">
         <v>34</v>
       </c>
       <c r="F13" s="35">
@@ -4665,7 +4717,7 @@
         <v>130</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I13" s="3">
         <v>29.2</v>
@@ -4751,7 +4803,7 @@
         <v>81</v>
       </c>
       <c r="AM13" s="38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AN13" s="38" t="s">
         <v>169</v>
@@ -4763,7 +4815,7 @@
         <v>83</v>
       </c>
       <c r="AQ13" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AR13" s="38"/>
       <c r="AS13" s="38"/>
@@ -4786,10 +4838,10 @@
       <c r="BD13" s="40"/>
       <c r="BE13" s="40"/>
       <c r="BF13" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG13" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH13" s="38" t="s">
         <v>98</v>
@@ -4802,19 +4854,19 @@
         <v>67</v>
       </c>
       <c r="BL13" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BM13" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN13" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="BO13" s="57" t="s">
-        <v>279</v>
+      <c r="BO13" s="53" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>10</v>
       </c>
@@ -4827,7 +4879,7 @@
       <c r="D14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="99">
+      <c r="E14" s="95">
         <v>39</v>
       </c>
       <c r="F14" s="35">
@@ -4837,7 +4889,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I14" s="3">
         <v>29.1</v>
@@ -4923,7 +4975,7 @@
         <v>75</v>
       </c>
       <c r="AM14" s="38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AN14" s="38" t="s">
         <v>169</v>
@@ -4935,7 +4987,7 @@
         <v>72</v>
       </c>
       <c r="AQ14" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AR14" s="38"/>
       <c r="AS14" s="38"/>
@@ -4958,10 +5010,10 @@
       <c r="BD14" s="40"/>
       <c r="BE14" s="40"/>
       <c r="BF14" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG14" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH14" s="40" t="s">
         <v>96</v>
@@ -4972,10 +5024,10 @@
       <c r="BJ14" s="40"/>
       <c r="BK14" s="3"/>
       <c r="BL14" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM14" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM14" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN14" s="37" t="s">
         <v>203</v>
@@ -4984,7 +5036,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>11</v>
       </c>
@@ -4997,7 +5049,7 @@
       <c r="D15" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="99">
+      <c r="E15" s="95">
         <v>30</v>
       </c>
       <c r="F15" s="35">
@@ -5007,7 +5059,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I15" s="3">
         <v>29.2</v>
@@ -5095,7 +5147,7 @@
         <v>84</v>
       </c>
       <c r="AM15" s="38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AN15" s="38" t="s">
         <v>169</v>
@@ -5109,10 +5161,10 @@
         <v>87</v>
       </c>
       <c r="AS15" s="38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AT15" s="38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AU15" s="34" t="s">
         <v>86</v>
@@ -5132,10 +5184,10 @@
       <c r="BD15" s="40"/>
       <c r="BE15" s="40"/>
       <c r="BF15" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG15" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH15" s="40" t="s">
         <v>96</v>
@@ -5146,19 +5198,19 @@
       <c r="BJ15" s="40"/>
       <c r="BK15" s="3"/>
       <c r="BL15" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM15" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM15" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN15" s="37" t="s">
         <v>203</v>
       </c>
       <c r="BO15" s="43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23">
         <v>12</v>
       </c>
@@ -5171,7 +5223,7 @@
       <c r="D16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="99">
+      <c r="E16" s="95">
         <v>49</v>
       </c>
       <c r="F16" s="35">
@@ -5181,7 +5233,7 @@
         <v>15</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I16" s="3">
         <v>29.2</v>
@@ -5267,7 +5319,7 @@
         <v>75</v>
       </c>
       <c r="AM16" s="38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AN16" s="38" t="s">
         <v>169</v>
@@ -5279,7 +5331,7 @@
         <v>72</v>
       </c>
       <c r="AQ16" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AR16" s="38"/>
       <c r="AS16" s="38"/>
@@ -5302,10 +5354,10 @@
       <c r="BD16" s="40"/>
       <c r="BE16" s="40"/>
       <c r="BF16" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG16" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH16" s="38" t="s">
         <v>98</v>
@@ -5313,28 +5365,28 @@
       <c r="BI16" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BJ16" s="101" t="s">
+      <c r="BJ16" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK16" s="3"/>
       <c r="BL16" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM16" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM16" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN16" s="37" t="s">
         <v>203</v>
       </c>
       <c r="BO16" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="93">
+    <row r="17" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="89">
         <v>13</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="88" t="s">
         <v>111</v>
       </c>
       <c r="C17" s="34" t="s">
@@ -5343,7 +5395,7 @@
       <c r="D17" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="99">
+      <c r="E17" s="95">
         <v>58</v>
       </c>
       <c r="F17" s="35">
@@ -5353,7 +5405,7 @@
         <v>15</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I17" s="3">
         <v>29.2</v>
@@ -5438,7 +5490,7 @@
         <v>69</v>
       </c>
       <c r="AM17" s="40" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AN17" s="40" t="s">
         <v>169</v>
@@ -5450,7 +5502,7 @@
         <v>71</v>
       </c>
       <c r="AQ17" s="40" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AR17" s="40"/>
       <c r="AS17" s="40"/>
@@ -5473,10 +5525,10 @@
       <c r="BD17" s="40"/>
       <c r="BE17" s="40"/>
       <c r="BF17" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG17" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH17" s="40" t="s">
         <v>95</v>
@@ -5484,15 +5536,15 @@
       <c r="BI17" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="BJ17" s="101" t="s">
+      <c r="BJ17" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK17" s="3"/>
       <c r="BL17" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM17" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM17" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN17" s="37" t="s">
         <v>203</v>
@@ -5501,7 +5553,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>1</v>
       </c>
@@ -5514,7 +5566,7 @@
       <c r="D18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="99">
+      <c r="E18" s="95">
         <v>51</v>
       </c>
       <c r="F18" s="14">
@@ -5524,7 +5576,7 @@
         <v>15</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I18" s="2">
         <v>29.2</v>
@@ -5609,7 +5661,7 @@
         <v>75</v>
       </c>
       <c r="AM18" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AN18" s="22" t="s">
         <v>169</v>
@@ -5621,7 +5673,7 @@
         <v>72</v>
       </c>
       <c r="AQ18" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AR18" s="22"/>
       <c r="AS18" s="22"/>
@@ -5644,10 +5696,10 @@
       <c r="BD18" s="15"/>
       <c r="BE18" s="15"/>
       <c r="BF18" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG18" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH18" s="22" t="s">
         <v>98</v>
@@ -5660,10 +5712,10 @@
         <v>121</v>
       </c>
       <c r="BL18" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM18" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM18" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN18" s="18" t="s">
         <v>203</v>
@@ -5672,7 +5724,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
@@ -5685,7 +5737,7 @@
       <c r="D19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="99">
+      <c r="E19" s="95">
         <v>60</v>
       </c>
       <c r="F19" s="14">
@@ -5695,7 +5747,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I19" s="2">
         <v>29.1</v>
@@ -5776,7 +5828,7 @@
         <v>69</v>
       </c>
       <c r="AM19" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AN19" s="15" t="s">
         <v>168</v>
@@ -5788,7 +5840,7 @@
         <v>71</v>
       </c>
       <c r="AQ19" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AR19" s="15"/>
       <c r="AS19" s="15"/>
@@ -5799,7 +5851,7 @@
       <c r="AV19" s="16">
         <v>42691</v>
       </c>
-      <c r="AW19" s="58" t="s">
+      <c r="AW19" s="54" t="s">
         <v>168</v>
       </c>
       <c r="AX19" s="15"/>
@@ -5811,24 +5863,24 @@
       <c r="BD19" s="15"/>
       <c r="BE19" s="15"/>
       <c r="BF19" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG19" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="BH19" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="BH19" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="BI19" s="59" t="s">
+      <c r="BI19" s="55" t="s">
         <v>119</v>
       </c>
       <c r="BJ19" s="22"/>
       <c r="BK19" s="2"/>
       <c r="BL19" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="BM19" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BN19" s="18" t="s">
         <v>203</v>
@@ -5837,8 +5889,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="53" t="s">
+    <row r="20" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="49" t="s">
         <v>135</v>
       </c>
       <c r="C20" s="20"/>
@@ -5901,7 +5953,7 @@
       <c r="BD20" s="22"/>
       <c r="BE20" s="22"/>
       <c r="BF20" s="20"/>
-      <c r="BG20" s="54"/>
+      <c r="BG20" s="50"/>
       <c r="BH20" s="22"/>
       <c r="BI20" s="22"/>
       <c r="BJ20" s="22"/>
@@ -5913,8 +5965,8 @@
       </c>
       <c r="BO20" s="21"/>
     </row>
-    <row r="21" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="89">
+    <row r="21" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="85">
         <v>3</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -5926,7 +5978,7 @@
       <c r="D21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="99">
+      <c r="E21" s="95">
         <v>38</v>
       </c>
       <c r="F21" s="14">
@@ -5936,7 +5988,7 @@
         <v>15</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I21" s="2">
         <v>29.3</v>
@@ -6021,7 +6073,7 @@
         <v>81</v>
       </c>
       <c r="AM21" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AN21" s="22" t="s">
         <v>168</v>
@@ -6033,7 +6085,7 @@
         <v>83</v>
       </c>
       <c r="AQ21" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AR21" s="22"/>
       <c r="AS21" s="22"/>
@@ -6056,10 +6108,10 @@
       <c r="BD21" s="15"/>
       <c r="BE21" s="15"/>
       <c r="BF21" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG21" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH21" s="22" t="s">
         <v>98</v>
@@ -6067,25 +6119,25 @@
       <c r="BI21" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ21" s="101" t="s">
+      <c r="BJ21" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK21" s="2"/>
       <c r="BL21" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BM21" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN21" s="18" t="s">
         <v>203</v>
       </c>
       <c r="BO21" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="89">
+    <row r="22" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="85">
         <v>3</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -6097,7 +6149,7 @@
       <c r="D22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="99">
+      <c r="E22" s="95">
         <v>35</v>
       </c>
       <c r="F22" s="14">
@@ -6107,7 +6159,7 @@
         <v>15</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I22" s="2">
         <v>29.2</v>
@@ -6193,7 +6245,7 @@
         <v>76</v>
       </c>
       <c r="AM22" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AN22" s="22" t="s">
         <v>169</v>
@@ -6228,10 +6280,10 @@
       <c r="BD22" s="15"/>
       <c r="BE22" s="15"/>
       <c r="BF22" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG22" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH22" s="22" t="s">
         <v>98</v>
@@ -6239,15 +6291,15 @@
       <c r="BI22" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ22" s="101" t="s">
+      <c r="BJ22" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK22" s="2"/>
       <c r="BL22" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM22" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM22" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN22" s="18" t="s">
         <v>203</v>
@@ -6256,7 +6308,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>4</v>
       </c>
@@ -6269,7 +6321,7 @@
       <c r="D23" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="99">
+      <c r="E23" s="95">
         <v>44</v>
       </c>
       <c r="F23" s="14">
@@ -6279,7 +6331,7 @@
         <v>15</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I23" s="2">
         <v>29.2</v>
@@ -6365,7 +6417,7 @@
         <v>81</v>
       </c>
       <c r="AM23" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AN23" s="22" t="s">
         <v>168</v>
@@ -6377,7 +6429,7 @@
         <v>83</v>
       </c>
       <c r="AQ23" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AR23" s="22"/>
       <c r="AS23" s="22"/>
@@ -6400,10 +6452,10 @@
       <c r="BD23" s="15"/>
       <c r="BE23" s="15"/>
       <c r="BF23" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG23" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH23" s="22" t="s">
         <v>98</v>
@@ -6411,15 +6463,15 @@
       <c r="BI23" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ23" s="101" t="s">
+      <c r="BJ23" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK23" s="2"/>
       <c r="BL23" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM23" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM23" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN23" s="18" t="s">
         <v>203</v>
@@ -6428,7 +6480,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>5</v>
       </c>
@@ -6441,7 +6493,7 @@
       <c r="D24" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="99">
+      <c r="E24" s="95">
         <v>46</v>
       </c>
       <c r="F24" s="14">
@@ -6451,7 +6503,7 @@
         <v>15</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I24" s="2">
         <v>29.2</v>
@@ -6537,7 +6589,7 @@
         <v>81</v>
       </c>
       <c r="AM24" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AN24" s="22" t="s">
         <v>168</v>
@@ -6549,7 +6601,7 @@
         <v>83</v>
       </c>
       <c r="AQ24" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AR24" s="22"/>
       <c r="AS24" s="22"/>
@@ -6572,10 +6624,10 @@
       <c r="BD24" s="15"/>
       <c r="BE24" s="15"/>
       <c r="BF24" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG24" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH24" s="22" t="s">
         <v>98</v>
@@ -6583,15 +6635,15 @@
       <c r="BI24" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ24" s="101" t="s">
+      <c r="BJ24" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK24" s="2"/>
       <c r="BL24" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BM24" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN24" s="18" t="s">
         <v>208</v>
@@ -6600,7 +6652,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>6</v>
       </c>
@@ -6613,7 +6665,7 @@
       <c r="D25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="99">
+      <c r="E25" s="95">
         <v>40</v>
       </c>
       <c r="F25" s="14">
@@ -6623,12 +6675,12 @@
         <v>159</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="I25" s="60">
+        <v>267</v>
+      </c>
+      <c r="I25" s="56">
         <v>29</v>
       </c>
-      <c r="J25" s="60">
+      <c r="J25" s="56">
         <v>26</v>
       </c>
       <c r="K25" s="14">
@@ -6709,7 +6761,7 @@
         <v>75</v>
       </c>
       <c r="AM25" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AN25" s="22" t="s">
         <v>169</v>
@@ -6721,7 +6773,7 @@
         <v>72</v>
       </c>
       <c r="AQ25" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AR25" s="22"/>
       <c r="AS25" s="22"/>
@@ -6744,10 +6796,10 @@
       <c r="BD25" s="15"/>
       <c r="BE25" s="15"/>
       <c r="BF25" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG25" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH25" s="15" t="s">
         <v>95</v>
@@ -6758,19 +6810,19 @@
       <c r="BJ25" s="22"/>
       <c r="BK25" s="2"/>
       <c r="BL25" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="BM25" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BN25" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="BO25" s="55" t="s">
-        <v>280</v>
+        <v>215</v>
+      </c>
+      <c r="BO25" s="51" t="s">
+        <v>279</v>
       </c>
     </row>
-    <row r="26" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>7</v>
       </c>
@@ -6783,7 +6835,7 @@
       <c r="D26" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="99">
+      <c r="E26" s="95">
         <v>54</v>
       </c>
       <c r="F26" s="14">
@@ -6793,7 +6845,7 @@
         <v>15</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I26" s="2">
         <v>29.2</v>
@@ -6880,7 +6932,7 @@
         <v>84</v>
       </c>
       <c r="AM26" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AN26" s="22" t="s">
         <v>168</v>
@@ -6911,26 +6963,26 @@
       <c r="BD26" s="15"/>
       <c r="BE26" s="15"/>
       <c r="BF26" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG26" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="BH26" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="BH26" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="BI26" s="59" t="s">
+      <c r="BI26" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="BJ26" s="101" t="s">
+      <c r="BJ26" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK26" s="2"/>
       <c r="BL26" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM26" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM26" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN26" s="18" t="s">
         <v>206</v>
@@ -6939,7 +6991,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>8</v>
       </c>
@@ -6952,7 +7004,7 @@
       <c r="D27" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="99">
+      <c r="E27" s="95">
         <v>48</v>
       </c>
       <c r="F27" s="14">
@@ -6962,7 +7014,7 @@
         <v>15</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I27" s="2">
         <v>29.2</v>
@@ -7049,7 +7101,7 @@
         <v>81</v>
       </c>
       <c r="AM27" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AN27" s="22" t="s">
         <v>168</v>
@@ -7061,7 +7113,7 @@
         <v>83</v>
       </c>
       <c r="AQ27" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AR27" s="22"/>
       <c r="AS27" s="22"/>
@@ -7084,10 +7136,10 @@
       <c r="BD27" s="15"/>
       <c r="BE27" s="15"/>
       <c r="BF27" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG27" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH27" s="22" t="s">
         <v>98</v>
@@ -7095,15 +7147,15 @@
       <c r="BI27" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ27" s="101" t="s">
+      <c r="BJ27" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK27" s="2"/>
       <c r="BL27" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM27" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM27" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN27" s="18" t="s">
         <v>206</v>
@@ -7112,7 +7164,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>9</v>
       </c>
@@ -7125,7 +7177,7 @@
       <c r="D28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="99">
+      <c r="E28" s="95">
         <v>43</v>
       </c>
       <c r="F28" s="14">
@@ -7135,7 +7187,7 @@
         <v>130</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I28" s="2">
         <v>29.2</v>
@@ -7220,7 +7272,7 @@
         <v>75</v>
       </c>
       <c r="AM28" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AN28" s="22" t="s">
         <v>169</v>
@@ -7232,7 +7284,7 @@
         <v>72</v>
       </c>
       <c r="AQ28" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AR28" s="22"/>
       <c r="AS28" s="22"/>
@@ -7255,10 +7307,10 @@
       <c r="BD28" s="15"/>
       <c r="BE28" s="15"/>
       <c r="BF28" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG28" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH28" s="15" t="s">
         <v>95</v>
@@ -7269,19 +7321,19 @@
       <c r="BJ28" s="22"/>
       <c r="BK28" s="2"/>
       <c r="BL28" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="BM28" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BN28" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="BO28" s="55" t="s">
-        <v>281</v>
+        <v>214</v>
+      </c>
+      <c r="BO28" s="51" t="s">
+        <v>280</v>
       </c>
     </row>
-    <row r="29" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>10</v>
       </c>
@@ -7294,7 +7346,7 @@
       <c r="D29" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="99">
+      <c r="E29" s="95">
         <v>72</v>
       </c>
       <c r="F29" s="14">
@@ -7304,7 +7356,7 @@
         <v>15</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I29" s="2">
         <v>29.2</v>
@@ -7390,7 +7442,7 @@
         <v>69</v>
       </c>
       <c r="AM29" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AN29" s="22" t="s">
         <v>168</v>
@@ -7402,7 +7454,7 @@
         <v>71</v>
       </c>
       <c r="AQ29" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AR29" s="15"/>
       <c r="AS29" s="15"/>
@@ -7425,9 +7477,9 @@
       <c r="BD29" s="15"/>
       <c r="BE29" s="15"/>
       <c r="BF29" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG29" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG29" s="50" t="s">
         <v>174</v>
       </c>
       <c r="BH29" s="15" t="s">
@@ -7436,15 +7488,15 @@
       <c r="BI29" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ29" s="101" t="s">
+      <c r="BJ29" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK29" s="2"/>
       <c r="BL29" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM29" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM29" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN29" s="18" t="s">
         <v>203</v>
@@ -7453,7 +7505,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>11</v>
       </c>
@@ -7466,17 +7518,17 @@
       <c r="D30" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="99">
+      <c r="E30" s="95">
         <v>43</v>
       </c>
       <c r="F30" s="14">
         <v>4800937</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I30" s="2">
         <v>29.2</v>
@@ -7515,7 +7567,7 @@
         <v>949</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V30" s="18" t="s">
         <v>36</v>
@@ -7572,7 +7624,7 @@
       <c r="AV30" s="16"/>
       <c r="AW30" s="15"/>
       <c r="AX30" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AY30" s="22" t="s">
         <v>169</v>
@@ -7584,9 +7636,9 @@
       <c r="BD30" s="15"/>
       <c r="BE30" s="15"/>
       <c r="BF30" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG30" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG30" s="50" t="s">
         <v>174</v>
       </c>
       <c r="BH30" s="22" t="s">
@@ -7598,10 +7650,10 @@
       <c r="BJ30" s="22"/>
       <c r="BK30" s="2"/>
       <c r="BL30" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM30" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM30" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN30" s="18" t="s">
         <v>203</v>
@@ -7610,7 +7662,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>12</v>
       </c>
@@ -7623,7 +7675,7 @@
       <c r="D31" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="99">
+      <c r="E31" s="95">
         <v>45</v>
       </c>
       <c r="F31" s="14">
@@ -7633,7 +7685,7 @@
         <v>15</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I31" s="2">
         <v>29.1</v>
@@ -7719,7 +7771,7 @@
         <v>76</v>
       </c>
       <c r="AM31" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN31" s="22" t="s">
         <v>168</v>
@@ -7731,7 +7783,7 @@
         <v>78</v>
       </c>
       <c r="AQ31" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AR31" s="22"/>
       <c r="AS31" s="22"/>
@@ -7754,10 +7806,10 @@
       <c r="BD31" s="15"/>
       <c r="BE31" s="15"/>
       <c r="BF31" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG31" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH31" s="15" t="s">
         <v>95</v>
@@ -7765,15 +7817,15 @@
       <c r="BI31" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="BJ31" s="101" t="s">
+      <c r="BJ31" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK31" s="2"/>
       <c r="BL31" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM31" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM31" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN31" s="18" t="s">
         <v>203</v>
@@ -7782,20 +7834,20 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>13</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="99">
+      <c r="E32" s="95">
         <v>76</v>
       </c>
       <c r="F32" s="14">
@@ -7805,7 +7857,7 @@
         <v>15</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I32" s="2">
         <v>29.2</v>
@@ -7832,7 +7884,7 @@
         <v>-61.53</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R32" s="2">
         <v>21</v>
@@ -7847,10 +7899,10 @@
         <v>725</v>
       </c>
       <c r="V32" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W32" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X32" s="18" t="s">
         <v>188</v>
@@ -7878,10 +7930,10 @@
         <v>20190906</v>
       </c>
       <c r="AI32" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AJ32" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK32" s="14">
         <v>33</v>
@@ -7890,10 +7942,10 @@
         <v>69</v>
       </c>
       <c r="AM32" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AN32" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO32" s="10" t="s">
         <v>70</v>
@@ -7902,7 +7954,7 @@
         <v>71</v>
       </c>
       <c r="AQ32" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AR32" s="15"/>
       <c r="AS32" s="15"/>
@@ -7925,10 +7977,10 @@
       <c r="BD32" s="15"/>
       <c r="BE32" s="15"/>
       <c r="BF32" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG32" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH32" s="22" t="s">
         <v>118</v>
@@ -7936,37 +7988,37 @@
       <c r="BI32" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="BJ32" s="101" t="s">
+      <c r="BJ32" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK32" s="2"/>
       <c r="BL32" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM32" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM32" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN32" s="18" t="s">
         <v>203</v>
       </c>
       <c r="BO32" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="91">
+    <row r="33" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="87">
         <v>14</v>
       </c>
-      <c r="B33" s="90" t="s">
-        <v>232</v>
+      <c r="B33" s="86" t="s">
+        <v>231</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="99">
+      <c r="E33" s="95">
         <v>53</v>
       </c>
       <c r="F33" s="14">
@@ -7976,7 +8028,7 @@
         <v>15</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I33" s="2">
         <v>29</v>
@@ -8003,7 +8055,7 @@
         <v>-61.93</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R33" s="2">
         <v>16</v>
@@ -8037,7 +8089,7 @@
       <c r="AB33" s="18"/>
       <c r="AC33" s="18"/>
       <c r="AD33" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AE33" s="2">
         <v>5</v>
@@ -8052,10 +8104,10 @@
         <v>20200227</v>
       </c>
       <c r="AI33" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ33" s="18" t="s">
         <v>220</v>
-      </c>
-      <c r="AJ33" s="18" t="s">
-        <v>221</v>
       </c>
       <c r="AK33" s="14">
         <v>42</v>
@@ -8064,7 +8116,7 @@
         <v>84</v>
       </c>
       <c r="AM33" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN33" s="22" t="s">
         <v>168</v>
@@ -8078,10 +8130,10 @@
         <v>87</v>
       </c>
       <c r="AS33" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AT33" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AU33" s="20" t="s">
         <v>86</v>
@@ -8101,10 +8153,10 @@
       <c r="BD33" s="15"/>
       <c r="BE33" s="15"/>
       <c r="BF33" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG33" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH33" s="15" t="s">
         <v>95</v>
@@ -8112,26 +8164,26 @@
       <c r="BI33" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="BJ33" s="101" t="s">
+      <c r="BJ33" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK33" s="2"/>
       <c r="BL33" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM33" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BM33" s="14" t="s">
-        <v>212</v>
-      </c>
       <c r="BN33" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="BO33" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="BO33" s="21" t="s">
-        <v>241</v>
-      </c>
     </row>
-    <row r="34" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
@@ -8201,9 +8253,9 @@
       <c r="BN34" s="37"/>
       <c r="BO34" s="43"/>
     </row>
-    <row r="35" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C35" s="34"/>
       <c r="D35" s="35"/>
@@ -8273,20 +8325,20 @@
       <c r="BN35" s="37"/>
       <c r="BO35" s="43"/>
     </row>
-    <row r="36" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>1</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="99">
+      <c r="E36" s="95">
         <v>78</v>
       </c>
       <c r="F36" s="35">
@@ -8296,7 +8348,7 @@
         <v>15</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I36" s="3">
         <v>29.1</v>
@@ -8323,7 +8375,7 @@
         <v>-61.84</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R36" s="3">
         <v>18</v>
@@ -8339,10 +8391,10 @@
         <v>1186</v>
       </c>
       <c r="V36" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="W36" s="37" t="s">
         <v>296</v>
-      </c>
-      <c r="W36" s="37" t="s">
-        <v>297</v>
       </c>
       <c r="X36" s="37" t="s">
         <v>188</v>
@@ -8355,7 +8407,7 @@
       <c r="AB36" s="37"/>
       <c r="AC36" s="37"/>
       <c r="AD36" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AE36" s="3">
         <v>7</v>
@@ -8370,10 +8422,10 @@
         <v>20190906</v>
       </c>
       <c r="AI36" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ36" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="AJ36" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="AK36" s="35">
         <v>33</v>
@@ -8382,7 +8434,7 @@
         <v>69</v>
       </c>
       <c r="AM36" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AN36" s="38" t="s">
         <v>168</v>
@@ -8394,7 +8446,7 @@
         <v>71</v>
       </c>
       <c r="AQ36" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AR36" s="40"/>
       <c r="AS36" s="40"/>
@@ -8417,10 +8469,10 @@
       <c r="BD36" s="40"/>
       <c r="BE36" s="40"/>
       <c r="BF36" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG36" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH36" s="38" t="s">
         <v>98</v>
@@ -8428,37 +8480,37 @@
       <c r="BI36" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BJ36" s="101" t="s">
+      <c r="BJ36" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK36" s="3"/>
       <c r="BL36" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM36" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BM36" s="35" t="s">
-        <v>212</v>
-      </c>
       <c r="BN36" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="BO36" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="BO36" s="43" t="s">
-        <v>303</v>
-      </c>
     </row>
-    <row r="37" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>2</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="99">
+      <c r="E37" s="95">
         <v>50</v>
       </c>
       <c r="F37" s="35">
@@ -8468,7 +8520,7 @@
         <v>15</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I37" s="3">
         <v>29.3</v>
@@ -8476,10 +8528,10 @@
       <c r="J37" s="3">
         <v>26.1</v>
       </c>
-      <c r="K37" s="61">
+      <c r="K37" s="57">
         <v>44.4803</v>
       </c>
-      <c r="L37" s="61">
+      <c r="L37" s="57">
         <v>-63.425199999999997</v>
       </c>
       <c r="M37" s="37">
@@ -8495,7 +8547,7 @@
         <v>-61.43</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R37" s="3">
         <v>21</v>
@@ -8510,10 +8562,10 @@
         <v>924</v>
       </c>
       <c r="V37" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W37" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X37" s="37" t="s">
         <v>188</v>
@@ -8526,7 +8578,7 @@
       <c r="AB37" s="37"/>
       <c r="AC37" s="37"/>
       <c r="AD37" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AE37" s="3">
         <v>5</v>
@@ -8541,10 +8593,10 @@
         <v>20190509</v>
       </c>
       <c r="AI37" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AJ37" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AK37" s="35">
         <v>32</v>
@@ -8553,10 +8605,10 @@
         <v>76</v>
       </c>
       <c r="AM37" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN37" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO37" s="34" t="s">
         <v>77</v>
@@ -8565,7 +8617,7 @@
         <v>78</v>
       </c>
       <c r="AQ37" s="38" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AR37" s="38"/>
       <c r="AS37" s="38"/>
@@ -8588,10 +8640,10 @@
       <c r="BD37" s="40"/>
       <c r="BE37" s="40"/>
       <c r="BF37" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG37" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH37" s="38" t="s">
         <v>98</v>
@@ -8599,49 +8651,49 @@
       <c r="BI37" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BJ37" s="101" t="s">
+      <c r="BJ37" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK37" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BL37" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM37" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM37" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN37" s="37" t="s">
         <v>203</v>
       </c>
       <c r="BO37" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
-    <row r="38" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <v>3</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D38" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="99">
+      <c r="E38" s="95">
         <v>46</v>
       </c>
       <c r="F38" s="35">
         <v>4800937</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I38" s="3">
         <v>29.2</v>
@@ -8649,10 +8701,10 @@
       <c r="J38" s="3">
         <v>26.3</v>
       </c>
-      <c r="K38" s="62">
+      <c r="K38" s="58">
         <v>44.477899999999998</v>
       </c>
-      <c r="L38" s="62">
+      <c r="L38" s="58">
         <v>-63.423400000000001</v>
       </c>
       <c r="M38" s="37">
@@ -8668,7 +8720,7 @@
         <v>-62.81</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R38" s="3">
         <v>21</v>
@@ -8680,7 +8732,7 @@
         <v>1035</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="V38" s="37" t="s">
         <v>36</v>
@@ -8701,7 +8753,7 @@
       <c r="AB38" s="37"/>
       <c r="AC38" s="37"/>
       <c r="AD38" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AE38" s="3">
         <v>3</v>
@@ -8716,10 +8768,10 @@
         <v>20190906</v>
       </c>
       <c r="AI38" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AJ38" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AK38" s="35">
         <v>58</v>
@@ -8737,7 +8789,7 @@
       <c r="AV38" s="39"/>
       <c r="AW38" s="38"/>
       <c r="AX38" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AY38" s="40" t="s">
         <v>169</v>
@@ -8749,50 +8801,50 @@
       <c r="BD38" s="40"/>
       <c r="BE38" s="40"/>
       <c r="BF38" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG38" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH38" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BI38" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="BJ38" s="101" t="s">
+        <v>290</v>
+      </c>
+      <c r="BJ38" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK38" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BL38" s="35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BM38" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN38" s="37" t="s">
         <v>203</v>
       </c>
       <c r="BO38" s="43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>4</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D39" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="99">
+      <c r="E39" s="95">
         <v>58</v>
       </c>
       <c r="F39" s="35">
@@ -8802,7 +8854,7 @@
         <v>130</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I39" s="3">
         <v>28.5</v>
@@ -8829,7 +8881,7 @@
         <v>-50.08</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="R39" s="3">
         <v>25</v>
@@ -8863,7 +8915,7 @@
       <c r="AB39" s="37"/>
       <c r="AC39" s="37"/>
       <c r="AD39" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AE39" s="3">
         <v>4</v>
@@ -8878,10 +8930,10 @@
         <v>20200227</v>
       </c>
       <c r="AI39" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ39" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="AJ39" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="AK39" s="35">
         <v>42</v>
@@ -8890,7 +8942,7 @@
         <v>84</v>
       </c>
       <c r="AM39" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN39" s="38" t="s">
         <v>168</v>
@@ -8904,10 +8956,10 @@
         <v>87</v>
       </c>
       <c r="AS39" s="38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AT39" s="38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AU39" s="34" t="s">
         <v>86</v>
@@ -8927,46 +8979,46 @@
       <c r="BD39" s="40"/>
       <c r="BE39" s="40"/>
       <c r="BF39" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG39" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH39" s="40" t="s">
         <v>96</v>
       </c>
       <c r="BI39" s="40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BJ39" s="38"/>
       <c r="BK39" s="3"/>
       <c r="BL39" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BM39" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN39" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BO39" s="43" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
-    <row r="40" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <v>5</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D40" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="99">
+      <c r="E40" s="95">
         <v>60</v>
       </c>
       <c r="F40" s="35">
@@ -8976,7 +9028,7 @@
         <v>130</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I40" s="3">
         <v>29.1</v>
@@ -9003,7 +9055,7 @@
         <v>-49.29</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R40" s="3">
         <v>26</v>
@@ -9037,7 +9089,7 @@
       <c r="AB40" s="37"/>
       <c r="AC40" s="37"/>
       <c r="AD40" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AE40" s="3">
         <v>8</v>
@@ -9052,10 +9104,10 @@
         <v>20200227</v>
       </c>
       <c r="AI40" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ40" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="AJ40" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="AK40" s="35">
         <v>42</v>
@@ -9064,7 +9116,7 @@
         <v>84</v>
       </c>
       <c r="AM40" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN40" s="38" t="s">
         <v>168</v>
@@ -9078,10 +9130,10 @@
         <v>87</v>
       </c>
       <c r="AS40" s="38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AT40" s="38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AU40" s="34" t="s">
         <v>86</v>
@@ -9101,46 +9153,46 @@
       <c r="BD40" s="40"/>
       <c r="BE40" s="40"/>
       <c r="BF40" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG40" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH40" s="40" t="s">
         <v>96</v>
       </c>
       <c r="BI40" s="40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BJ40" s="38"/>
       <c r="BK40" s="3"/>
       <c r="BL40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BM40" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN40" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BO40" s="43" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
-    <row r="41" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <v>6</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D41" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="99">
+      <c r="E41" s="95">
         <v>61</v>
       </c>
       <c r="F41" s="35">
@@ -9150,7 +9202,7 @@
         <v>130</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I41" s="3">
         <v>29.1</v>
@@ -9158,10 +9210,10 @@
       <c r="J41" s="3">
         <v>25.3</v>
       </c>
-      <c r="K41" s="61">
+      <c r="K41" s="57">
         <v>48.7239</v>
       </c>
-      <c r="L41" s="61">
+      <c r="L41" s="57">
         <v>-52.982300000000002</v>
       </c>
       <c r="M41" s="37">
@@ -9177,7 +9229,7 @@
         <v>-49.75</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="R41" s="3">
         <v>21</v>
@@ -9193,7 +9245,7 @@
         <v>858</v>
       </c>
       <c r="V41" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W41" s="37">
         <v>1</v>
@@ -9211,7 +9263,7 @@
       <c r="AB41" s="37"/>
       <c r="AC41" s="37"/>
       <c r="AD41" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AE41" s="3">
         <v>7</v>
@@ -9226,10 +9278,10 @@
         <v>20200227</v>
       </c>
       <c r="AI41" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ41" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="AJ41" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="AK41" s="35">
         <v>42</v>
@@ -9238,7 +9290,7 @@
         <v>84</v>
       </c>
       <c r="AM41" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN41" s="38" t="s">
         <v>168</v>
@@ -9252,10 +9304,10 @@
         <v>87</v>
       </c>
       <c r="AS41" s="38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AT41" s="38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AU41" s="34" t="s">
         <v>86</v>
@@ -9275,46 +9327,46 @@
       <c r="BD41" s="40"/>
       <c r="BE41" s="40"/>
       <c r="BF41" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG41" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH41" s="40" t="s">
         <v>96</v>
       </c>
       <c r="BI41" s="40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BJ41" s="38"/>
       <c r="BK41" s="3"/>
       <c r="BL41" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BM41" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN41" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BO41" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
-    <row r="42" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <v>7</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D42" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="99">
+      <c r="E42" s="95">
         <v>84</v>
       </c>
       <c r="F42" s="35">
@@ -9324,7 +9376,7 @@
         <v>15</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I42" s="3">
         <v>29.1</v>
@@ -9351,7 +9403,7 @@
         <v>-61.69</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R42" s="3">
         <v>18</v>
@@ -9366,10 +9418,10 @@
         <v>742</v>
       </c>
       <c r="V42" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W42" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X42" s="37" t="s">
         <v>188</v>
@@ -9380,7 +9432,7 @@
       <c r="Z42" s="37"/>
       <c r="AA42" s="37"/>
       <c r="AB42" s="37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AC42" s="37"/>
       <c r="AD42" s="3">
@@ -9399,10 +9451,10 @@
         <v>20200914</v>
       </c>
       <c r="AI42" s="37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AJ42" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AK42" s="35">
         <v>33</v>
@@ -9411,10 +9463,10 @@
         <v>75</v>
       </c>
       <c r="AM42" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN42" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO42" s="34" t="s">
         <v>73</v>
@@ -9423,7 +9475,7 @@
         <v>72</v>
       </c>
       <c r="AQ42" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AR42" s="40"/>
       <c r="AS42" s="40"/>
@@ -9440,10 +9492,10 @@
       <c r="AX42" s="40"/>
       <c r="AY42" s="40"/>
       <c r="AZ42" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="BA42" s="40" t="s">
         <v>388</v>
-      </c>
-      <c r="BA42" s="40" t="s">
-        <v>389</v>
       </c>
       <c r="BB42" s="40" t="s">
         <v>168</v>
@@ -9452,50 +9504,50 @@
       <c r="BD42" s="40"/>
       <c r="BE42" s="40"/>
       <c r="BF42" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG42" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH42" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BI42" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="BJ42" s="101" t="s">
+        <v>290</v>
+      </c>
+      <c r="BJ42" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK42" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BL42" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM42" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM42" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN42" s="37" t="s">
         <v>203</v>
       </c>
       <c r="BO42" s="43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
-    <row r="43" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <v>8</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D43" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="99">
+      <c r="E43" s="95">
         <v>51</v>
       </c>
       <c r="F43" s="35">
@@ -9505,7 +9557,7 @@
         <v>15</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I43" s="3">
         <v>29.2</v>
@@ -9532,13 +9584,13 @@
         <v>-61.64</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R43" s="3">
         <v>20</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="T43" s="3">
         <v>1080</v>
@@ -9547,10 +9599,10 @@
         <v>819</v>
       </c>
       <c r="V43" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W43" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X43" s="37" t="s">
         <v>188</v>
@@ -9569,7 +9621,7 @@
         <v>2</v>
       </c>
       <c r="AF43" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG43" s="3">
         <v>1023.5</v>
@@ -9578,22 +9630,22 @@
         <v>20200914</v>
       </c>
       <c r="AI43" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AJ43" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="AK43" s="71">
+        <v>288</v>
+      </c>
+      <c r="AK43" s="67">
         <v>30</v>
       </c>
       <c r="AL43" s="34" t="s">
         <v>75</v>
       </c>
       <c r="AM43" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN43" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO43" s="34" t="s">
         <v>73</v>
@@ -9602,18 +9654,18 @@
         <v>72</v>
       </c>
       <c r="AQ43" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AR43" s="38"/>
       <c r="AS43" s="38"/>
       <c r="AT43" s="38"/>
-      <c r="AU43" s="68" t="s">
+      <c r="AU43" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="AV43" s="69">
+      <c r="AV43" s="65">
         <v>42723</v>
       </c>
-      <c r="AW43" s="70" t="s">
+      <c r="AW43" s="66" t="s">
         <v>168</v>
       </c>
       <c r="AX43" s="38"/>
@@ -9625,48 +9677,48 @@
       <c r="BD43" s="40"/>
       <c r="BE43" s="40"/>
       <c r="BF43" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG43" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="BH43" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="BH43" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="BI43" s="67" t="s">
-        <v>329</v>
-      </c>
-      <c r="BJ43" s="101" t="s">
+      <c r="BI43" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="BJ43" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK43" s="3"/>
       <c r="BL43" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM43" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM43" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN43" s="37" t="s">
         <v>203</v>
       </c>
       <c r="BO43" s="43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
-    <row r="44" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23">
         <v>9</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D44" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="99">
+      <c r="E44" s="95">
         <v>57</v>
       </c>
       <c r="F44" s="35">
@@ -9676,7 +9728,7 @@
         <v>15</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I44" s="3">
         <v>29.1</v>
@@ -9703,7 +9755,7 @@
         <v>-61.53</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R44" s="3">
         <v>23</v>
@@ -9721,7 +9773,7 @@
         <v>36</v>
       </c>
       <c r="W44" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X44" s="37" t="s">
         <v>188</v>
@@ -9734,7 +9786,7 @@
       <c r="AB44" s="37"/>
       <c r="AC44" s="37"/>
       <c r="AD44" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AE44" s="3">
         <v>6</v>
@@ -9749,10 +9801,10 @@
         <v>20210112</v>
       </c>
       <c r="AI44" s="37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AJ44" s="37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK44" s="35">
         <v>29</v>
@@ -9761,10 +9813,10 @@
         <v>75</v>
       </c>
       <c r="AM44" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN44" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO44" s="34" t="s">
         <v>73</v>
@@ -9773,7 +9825,7 @@
         <v>72</v>
       </c>
       <c r="AQ44" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AR44" s="38"/>
       <c r="AS44" s="38"/>
@@ -9796,46 +9848,46 @@
       <c r="BD44" s="40"/>
       <c r="BE44" s="40"/>
       <c r="BF44" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG44" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH44" s="40" t="s">
         <v>96</v>
       </c>
       <c r="BI44" s="40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BJ44" s="38"/>
       <c r="BK44" s="3"/>
       <c r="BL44" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM44" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BM44" s="35" t="s">
-        <v>212</v>
-      </c>
       <c r="BN44" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="BO44" s="43" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="89">
+        <v>10</v>
+      </c>
+      <c r="B45" s="88" t="s">
+        <v>395</v>
+      </c>
+      <c r="C45" s="34" t="s">
         <v>400</v>
-      </c>
-      <c r="BO44" s="43" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="45" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="93">
-        <v>10</v>
-      </c>
-      <c r="B45" s="92" t="s">
-        <v>396</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>401</v>
       </c>
       <c r="D45" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="99">
+      <c r="E45" s="95">
         <v>64</v>
       </c>
       <c r="F45" s="35">
@@ -9845,7 +9897,7 @@
         <v>15</v>
       </c>
       <c r="H45" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I45" s="3">
         <v>29.1</v>
@@ -9872,7 +9924,7 @@
         <v>-61.52</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R45" s="3">
         <v>21</v>
@@ -9890,7 +9942,7 @@
         <v>36</v>
       </c>
       <c r="W45" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X45" s="37" t="s">
         <v>188</v>
@@ -9905,7 +9957,7 @@
       <c r="AB45" s="37"/>
       <c r="AC45" s="37"/>
       <c r="AD45" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AE45" s="3">
         <v>1</v>
@@ -9920,19 +9972,19 @@
         <v>20210302</v>
       </c>
       <c r="AI45" s="37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AJ45" s="37" t="s">
-        <v>398</v>
-      </c>
-      <c r="AK45" s="71">
+        <v>397</v>
+      </c>
+      <c r="AK45" s="67">
         <v>42</v>
       </c>
       <c r="AL45" s="34" t="s">
         <v>84</v>
       </c>
       <c r="AM45" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN45" s="38" t="s">
         <v>168</v>
@@ -9946,7 +9998,7 @@
         <v>87</v>
       </c>
       <c r="AS45" s="38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AT45" s="38" t="s">
         <v>168</v>
@@ -9957,7 +10009,7 @@
       <c r="AV45" s="39">
         <v>42859</v>
       </c>
-      <c r="AW45" s="94" t="s">
+      <c r="AW45" s="90" t="s">
         <v>168</v>
       </c>
       <c r="AX45" s="38"/>
@@ -9969,46 +10021,46 @@
       <c r="BD45" s="40"/>
       <c r="BE45" s="40"/>
       <c r="BF45" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG45" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH45" s="40" t="s">
         <v>95</v>
       </c>
       <c r="BI45" s="38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BJ45" s="38"/>
       <c r="BK45" s="3"/>
       <c r="BL45" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM45" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BM45" s="35" t="s">
-        <v>212</v>
-      </c>
       <c r="BN45" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="BO45" s="43" t="s">
         <v>404</v>
       </c>
-      <c r="BO45" s="43" t="s">
-        <v>405</v>
-      </c>
     </row>
-    <row r="46" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>1</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="99">
+      <c r="E46" s="95">
         <v>59</v>
       </c>
       <c r="F46" s="14">
@@ -10018,7 +10070,7 @@
         <v>15</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I46" s="2">
         <v>29.1</v>
@@ -10045,7 +10097,7 @@
         <v>-61.49</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R46" s="2">
         <v>22</v>
@@ -10063,7 +10115,7 @@
         <v>36</v>
       </c>
       <c r="W46" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X46" s="18" t="s">
         <v>188</v>
@@ -10091,10 +10143,10 @@
         <v>20210112</v>
       </c>
       <c r="AI46" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AJ46" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK46" s="14">
         <v>29</v>
@@ -10103,10 +10155,10 @@
         <v>75</v>
       </c>
       <c r="AM46" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN46" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO46" s="20" t="s">
         <v>73</v>
@@ -10115,11 +10167,11 @@
         <v>72</v>
       </c>
       <c r="AQ46" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="AR46" s="88"/>
-      <c r="AS46" s="88"/>
-      <c r="AT46" s="88"/>
+        <v>374</v>
+      </c>
+      <c r="AR46" s="84"/>
+      <c r="AS46" s="84"/>
+      <c r="AT46" s="84"/>
       <c r="AU46" s="20" t="s">
         <v>74</v>
       </c>
@@ -10129,57 +10181,57 @@
       <c r="AW46" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AX46" s="88"/>
-      <c r="AY46" s="88"/>
-      <c r="AZ46" s="88"/>
-      <c r="BA46" s="88"/>
-      <c r="BB46" s="88"/>
-      <c r="BC46" s="95"/>
-      <c r="BD46" s="95"/>
-      <c r="BE46" s="95"/>
+      <c r="AX46" s="84"/>
+      <c r="AY46" s="84"/>
+      <c r="AZ46" s="84"/>
+      <c r="BA46" s="84"/>
+      <c r="BB46" s="84"/>
+      <c r="BC46" s="91"/>
+      <c r="BD46" s="91"/>
+      <c r="BE46" s="91"/>
       <c r="BF46" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG46" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH46" s="15" t="s">
         <v>96</v>
       </c>
       <c r="BI46" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="BJ46" s="101" t="s">
+        <v>281</v>
+      </c>
+      <c r="BJ46" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK46" s="2"/>
       <c r="BL46" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM46" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM46" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN46" s="18" t="s">
         <v>203</v>
       </c>
       <c r="BO46" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="47" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>2</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="99">
+      <c r="E47" s="95">
         <v>94</v>
       </c>
       <c r="F47" s="14">
@@ -10189,7 +10241,7 @@
         <v>15</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I47" s="2">
         <v>29.1</v>
@@ -10216,7 +10268,7 @@
         <v>-62.67</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="R47" s="2">
         <v>4</v>
@@ -10235,7 +10287,7 @@
         <v>36</v>
       </c>
       <c r="W47" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X47" s="18" t="s">
         <v>188</v>
@@ -10263,10 +10315,10 @@
         <v>20210420</v>
       </c>
       <c r="AI47" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ47" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK47" s="14">
         <v>33</v>
@@ -10275,10 +10327,10 @@
         <v>69</v>
       </c>
       <c r="AM47" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN47" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO47" s="10" t="s">
         <v>70</v>
@@ -10287,7 +10339,7 @@
         <v>71</v>
       </c>
       <c r="AQ47" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AR47" s="22"/>
       <c r="AS47" s="22"/>
@@ -10301,57 +10353,57 @@
       <c r="AW47" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AX47" s="88"/>
-      <c r="AY47" s="88"/>
-      <c r="AZ47" s="88"/>
-      <c r="BA47" s="88"/>
-      <c r="BB47" s="88"/>
+      <c r="AX47" s="84"/>
+      <c r="AY47" s="84"/>
+      <c r="AZ47" s="84"/>
+      <c r="BA47" s="84"/>
+      <c r="BB47" s="84"/>
       <c r="BC47" s="15"/>
       <c r="BD47" s="15"/>
       <c r="BE47" s="15"/>
       <c r="BF47" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG47" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="BH47" s="59" t="s">
-        <v>283</v>
+      <c r="BH47" s="55" t="s">
+        <v>282</v>
       </c>
       <c r="BI47" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="BJ47" s="101" t="s">
+        <v>290</v>
+      </c>
+      <c r="BJ47" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK47" s="2"/>
       <c r="BL47" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM47" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BM47" s="14" t="s">
-        <v>212</v>
-      </c>
       <c r="BN47" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="BO47" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="BO47" s="21" t="s">
-        <v>427</v>
-      </c>
     </row>
-    <row r="48" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>3</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="99">
+      <c r="E48" s="95">
         <v>66</v>
       </c>
       <c r="F48" s="14">
@@ -10361,7 +10413,7 @@
         <v>15</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I48" s="2">
         <v>29</v>
@@ -10388,7 +10440,7 @@
         <v>-61.41</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="R48" s="2">
         <v>21</v>
@@ -10406,7 +10458,7 @@
         <v>36</v>
       </c>
       <c r="W48" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X48" s="18" t="s">
         <v>188</v>
@@ -10434,10 +10486,10 @@
         <v>20210420</v>
       </c>
       <c r="AI48" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ48" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK48" s="14">
         <v>32</v>
@@ -10446,10 +10498,10 @@
         <v>76</v>
       </c>
       <c r="AM48" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN48" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO48" s="20" t="s">
         <v>77</v>
@@ -10457,7 +10509,7 @@
       <c r="AP48" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AQ48" s="97">
+      <c r="AQ48" s="93">
         <v>20210105</v>
       </c>
       <c r="AR48" s="22"/>
@@ -10472,67 +10524,67 @@
       <c r="AW48" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AX48" s="88"/>
-      <c r="AY48" s="88"/>
-      <c r="AZ48" s="88"/>
-      <c r="BA48" s="88"/>
-      <c r="BB48" s="88"/>
+      <c r="AX48" s="84"/>
+      <c r="AY48" s="84"/>
+      <c r="AZ48" s="84"/>
+      <c r="BA48" s="84"/>
+      <c r="BB48" s="84"/>
       <c r="BC48" s="15"/>
       <c r="BD48" s="15"/>
       <c r="BE48" s="15"/>
       <c r="BF48" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG48" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH48" s="15" t="s">
         <v>95</v>
       </c>
       <c r="BI48" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="BJ48" s="101" t="s">
+        <v>329</v>
+      </c>
+      <c r="BJ48" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK48" s="2"/>
       <c r="BL48" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM48" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM48" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN48" s="18" t="s">
         <v>203</v>
       </c>
       <c r="BO48" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
-    <row r="49" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>4</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="99">
+      <c r="E49" s="95">
         <v>60</v>
       </c>
       <c r="F49" s="14">
         <v>4800937</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I49" s="2">
         <v>29.2</v>
@@ -10559,7 +10611,7 @@
         <v>-62.85</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R49" s="2">
         <v>14</v>
@@ -10571,13 +10623,13 @@
         <v>486</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="V49" s="18" t="s">
         <v>36</v>
       </c>
       <c r="W49" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="X49" s="18"/>
       <c r="Y49" s="18" t="s">
@@ -10607,10 +10659,10 @@
         <v>20210527</v>
       </c>
       <c r="AI49" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ49" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK49" s="14">
         <v>58</v>
@@ -10634,16 +10686,16 @@
         <v>168</v>
       </c>
       <c r="AX49" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AY49" s="15" t="s">
         <v>169</v>
       </c>
       <c r="AZ49" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="BA49" s="15" t="s">
         <v>388</v>
-      </c>
-      <c r="BA49" s="15" t="s">
-        <v>389</v>
       </c>
       <c r="BB49" s="15" t="s">
         <v>168</v>
@@ -10652,48 +10704,48 @@
       <c r="BD49" s="15"/>
       <c r="BE49" s="15"/>
       <c r="BF49" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG49" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH49" s="15" t="s">
         <v>96</v>
       </c>
       <c r="BI49" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="BJ49" s="101" t="s">
+        <v>281</v>
+      </c>
+      <c r="BJ49" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK49" s="2"/>
       <c r="BL49" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BM49" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN49" s="18" t="s">
         <v>203</v>
       </c>
       <c r="BO49" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
-    <row r="50" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>5</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="99">
+      <c r="E50" s="95">
         <v>63</v>
       </c>
       <c r="F50" s="14">
@@ -10703,7 +10755,7 @@
         <v>130</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I50" s="2">
         <v>28.9</v>
@@ -10730,7 +10782,7 @@
         <v>-52.69</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R50" s="2">
         <v>9</v>
@@ -10763,7 +10815,7 @@
       <c r="AA50" s="18"/>
       <c r="AB50" s="18"/>
       <c r="AC50" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AD50" s="2">
         <v>0</v>
@@ -10781,10 +10833,10 @@
         <v>20210421</v>
       </c>
       <c r="AI50" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ50" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK50" s="14">
         <v>42</v>
@@ -10793,7 +10845,7 @@
         <v>84</v>
       </c>
       <c r="AM50" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN50" s="22" t="s">
         <v>168</v>
@@ -10807,7 +10859,7 @@
         <v>87</v>
       </c>
       <c r="AS50" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AT50" s="22" t="s">
         <v>168</v>
@@ -10818,25 +10870,25 @@
       <c r="AV50" s="16">
         <v>42859</v>
       </c>
-      <c r="AW50" s="96" t="s">
+      <c r="AW50" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="AX50" s="88"/>
-      <c r="AY50" s="88"/>
-      <c r="AZ50" s="88"/>
-      <c r="BA50" s="88"/>
-      <c r="BB50" s="88"/>
+      <c r="AX50" s="84"/>
+      <c r="AY50" s="84"/>
+      <c r="AZ50" s="84"/>
+      <c r="BA50" s="84"/>
+      <c r="BB50" s="84"/>
       <c r="BC50" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="BD50" s="15" t="s">
         <v>416</v>
-      </c>
-      <c r="BD50" s="15" t="s">
-        <v>417</v>
       </c>
       <c r="BE50" s="15" t="s">
         <v>168</v>
       </c>
       <c r="BF50" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG50" s="17" t="s">
         <v>174</v>
@@ -10845,37 +10897,37 @@
         <v>98</v>
       </c>
       <c r="BI50" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BJ50" s="22"/>
       <c r="BK50" s="2"/>
       <c r="BL50" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BM50" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN50" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="BO50" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="51" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>6</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="99">
+      <c r="E51" s="95">
         <v>68</v>
       </c>
       <c r="F51" s="14">
@@ -10885,7 +10937,7 @@
         <v>15</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I51" s="2">
         <v>29.1</v>
@@ -10912,7 +10964,7 @@
         <v>-61.4</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="R51" s="2">
         <v>22</v>
@@ -10930,7 +10982,7 @@
         <v>36</v>
       </c>
       <c r="W51" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X51" s="18" t="s">
         <v>188</v>
@@ -10952,16 +11004,16 @@
         <v>2</v>
       </c>
       <c r="AG51" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AH51" s="18">
         <v>20210420</v>
       </c>
       <c r="AI51" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ51" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK51" s="14">
         <v>32</v>
@@ -10970,10 +11022,10 @@
         <v>76</v>
       </c>
       <c r="AM51" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN51" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO51" s="20" t="s">
         <v>77</v>
@@ -10981,7 +11033,7 @@
       <c r="AP51" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AQ51" s="97">
+      <c r="AQ51" s="93">
         <v>20210105</v>
       </c>
       <c r="AR51" s="22"/>
@@ -10996,67 +11048,67 @@
       <c r="AW51" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AX51" s="88"/>
-      <c r="AY51" s="88"/>
-      <c r="AZ51" s="88"/>
-      <c r="BA51" s="88"/>
-      <c r="BB51" s="88"/>
+      <c r="AX51" s="84"/>
+      <c r="AY51" s="84"/>
+      <c r="AZ51" s="84"/>
+      <c r="BA51" s="84"/>
+      <c r="BB51" s="84"/>
       <c r="BC51" s="15"/>
       <c r="BD51" s="15"/>
       <c r="BE51" s="15"/>
       <c r="BF51" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG51" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH51" s="15" t="s">
         <v>95</v>
       </c>
       <c r="BI51" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="BJ51" s="101" t="s">
+        <v>329</v>
+      </c>
+      <c r="BJ51" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK51" s="2"/>
       <c r="BL51" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM51" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BM51" s="14" t="s">
-        <v>212</v>
-      </c>
       <c r="BN51" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BO51" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="52" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>7</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="99">
+      <c r="E52" s="95">
         <v>62</v>
       </c>
       <c r="F52" s="14">
         <v>4800937</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I52" s="2">
         <v>29.2</v>
@@ -11083,7 +11135,7 @@
         <v>-62.68</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="R52" s="2">
         <v>22</v>
@@ -11095,13 +11147,13 @@
         <v>808</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="V52" s="18" t="s">
         <v>36</v>
       </c>
       <c r="W52" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="X52" s="18"/>
       <c r="Y52" s="18" t="s">
@@ -11125,16 +11177,16 @@
         <v>2</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AH52" s="18">
         <v>20210527</v>
       </c>
       <c r="AI52" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ52" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AK52" s="14">
         <v>58</v>
@@ -11158,16 +11210,16 @@
         <v>168</v>
       </c>
       <c r="AX52" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AY52" s="15" t="s">
         <v>169</v>
       </c>
       <c r="AZ52" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="BA52" s="15" t="s">
         <v>388</v>
-      </c>
-      <c r="BA52" s="15" t="s">
-        <v>389</v>
       </c>
       <c r="BB52" s="15" t="s">
         <v>168</v>
@@ -11176,48 +11228,48 @@
       <c r="BD52" s="15"/>
       <c r="BE52" s="15"/>
       <c r="BF52" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG52" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH52" s="15" t="s">
         <v>96</v>
       </c>
       <c r="BI52" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="BJ52" s="101" t="s">
+        <v>281</v>
+      </c>
+      <c r="BJ52" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK52" s="2"/>
       <c r="BL52" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BM52" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN52" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BO52" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="53" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>8</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E53" s="99">
+      <c r="E53" s="95">
         <v>65</v>
       </c>
       <c r="F53" s="14">
@@ -11227,7 +11279,7 @@
         <v>130</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I53" s="2">
         <v>28.8</v>
@@ -11254,7 +11306,7 @@
         <v>-50.2</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="R53" s="2">
         <v>20</v>
@@ -11287,7 +11339,7 @@
       <c r="AA53" s="18"/>
       <c r="AB53" s="18"/>
       <c r="AC53" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AD53" s="2">
         <v>0</v>
@@ -11305,10 +11357,10 @@
         <v>20210421</v>
       </c>
       <c r="AI53" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ53" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK53" s="14">
         <v>42</v>
@@ -11317,7 +11369,7 @@
         <v>84</v>
       </c>
       <c r="AM53" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN53" s="22" t="s">
         <v>168</v>
@@ -11331,7 +11383,7 @@
         <v>87</v>
       </c>
       <c r="AS53" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AT53" s="22" t="s">
         <v>168</v>
@@ -11342,7 +11394,7 @@
       <c r="AV53" s="16">
         <v>42859</v>
       </c>
-      <c r="AW53" s="96" t="s">
+      <c r="AW53" s="92" t="s">
         <v>168</v>
       </c>
       <c r="AX53" s="15"/>
@@ -11351,16 +11403,16 @@
       <c r="BA53" s="15"/>
       <c r="BB53" s="15"/>
       <c r="BC53" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="BD53" s="15" t="s">
         <v>416</v>
-      </c>
-      <c r="BD53" s="15" t="s">
-        <v>417</v>
       </c>
       <c r="BE53" s="15" t="s">
         <v>168</v>
       </c>
       <c r="BF53" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG53" s="17" t="s">
         <v>174</v>
@@ -11369,37 +11421,37 @@
         <v>98</v>
       </c>
       <c r="BI53" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BJ53" s="22"/>
       <c r="BK53" s="2"/>
       <c r="BL53" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BM53" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN53" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BO53" s="21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
-    <row r="54" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>9</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="99">
+      <c r="E54" s="95">
         <v>67</v>
       </c>
       <c r="F54" s="14">
@@ -11409,7 +11461,7 @@
         <v>130</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I54" s="2">
         <v>28.9</v>
@@ -11436,7 +11488,7 @@
         <v>-49.41</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="R54" s="2">
         <v>27</v>
@@ -11454,7 +11506,7 @@
         <v>37</v>
       </c>
       <c r="W54" s="18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="X54" s="18" t="s">
         <v>188</v>
@@ -11468,7 +11520,7 @@
       <c r="AA54" s="18"/>
       <c r="AB54" s="18"/>
       <c r="AC54" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AD54" s="2">
         <v>1</v>
@@ -11486,10 +11538,10 @@
         <v>20210421</v>
       </c>
       <c r="AI54" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ54" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK54" s="14">
         <v>42</v>
@@ -11498,7 +11550,7 @@
         <v>84</v>
       </c>
       <c r="AM54" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN54" s="22" t="s">
         <v>168</v>
@@ -11512,7 +11564,7 @@
         <v>87</v>
       </c>
       <c r="AS54" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AT54" s="22" t="s">
         <v>168</v>
@@ -11523,7 +11575,7 @@
       <c r="AV54" s="16">
         <v>42859</v>
       </c>
-      <c r="AW54" s="96" t="s">
+      <c r="AW54" s="92" t="s">
         <v>168</v>
       </c>
       <c r="AX54" s="15"/>
@@ -11532,16 +11584,16 @@
       <c r="BA54" s="15"/>
       <c r="BB54" s="15"/>
       <c r="BC54" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="BD54" s="15" t="s">
         <v>416</v>
-      </c>
-      <c r="BD54" s="15" t="s">
-        <v>417</v>
       </c>
       <c r="BE54" s="15" t="s">
         <v>168</v>
       </c>
       <c r="BF54" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG54" s="17" t="s">
         <v>174</v>
@@ -11550,37 +11602,37 @@
         <v>98</v>
       </c>
       <c r="BI54" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BJ54" s="22"/>
       <c r="BK54" s="2"/>
       <c r="BL54" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BM54" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN54" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BO54" s="21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
-    <row r="55" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>10</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="99">
+      <c r="E55" s="95">
         <v>70</v>
       </c>
       <c r="F55" s="14">
@@ -11590,7 +11642,7 @@
         <v>15</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I55" s="2">
         <v>29.1</v>
@@ -11617,7 +11669,7 @@
         <v>-61.53</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="R55" s="2">
         <v>21</v>
@@ -11635,7 +11687,7 @@
         <v>36</v>
       </c>
       <c r="W55" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X55" s="18" t="s">
         <v>188</v>
@@ -11657,16 +11709,16 @@
         <v>3</v>
       </c>
       <c r="AG55" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AH55" s="18">
         <v>20210420</v>
       </c>
       <c r="AI55" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="AJ55" s="18" t="s">
         <v>465</v>
-      </c>
-      <c r="AJ55" s="18" t="s">
-        <v>466</v>
       </c>
       <c r="AK55" s="14">
         <v>32</v>
@@ -11675,10 +11727,10 @@
         <v>76</v>
       </c>
       <c r="AM55" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN55" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO55" s="20" t="s">
         <v>77</v>
@@ -11686,7 +11738,7 @@
       <c r="AP55" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AQ55" s="97">
+      <c r="AQ55" s="93">
         <v>20210105</v>
       </c>
       <c r="AR55" s="22"/>
@@ -11701,69 +11753,69 @@
       <c r="AW55" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AX55" s="88"/>
-      <c r="AY55" s="88"/>
-      <c r="AZ55" s="88"/>
-      <c r="BA55" s="88"/>
-      <c r="BB55" s="88"/>
+      <c r="AX55" s="84"/>
+      <c r="AY55" s="84"/>
+      <c r="AZ55" s="84"/>
+      <c r="BA55" s="84"/>
+      <c r="BB55" s="84"/>
       <c r="BC55" s="15"/>
       <c r="BD55" s="15"/>
       <c r="BE55" s="15"/>
       <c r="BF55" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG55" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH55" s="15" t="s">
         <v>95</v>
       </c>
       <c r="BI55" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="BJ55" s="101" t="s">
+        <v>329</v>
+      </c>
+      <c r="BJ55" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK55" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="BL55" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM55" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM55" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN55" s="18" t="s">
         <v>203</v>
       </c>
       <c r="BO55" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
-    <row r="56" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>11</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="99">
+      <c r="E56" s="95">
         <v>65</v>
       </c>
       <c r="F56" s="14">
         <v>4800937</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I56" s="2">
         <v>29.2</v>
@@ -11790,7 +11842,7 @@
         <v>-62.65</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R56" s="2">
         <v>21</v>
@@ -11802,13 +11854,13 @@
         <v>700</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="V56" s="18" t="s">
         <v>36</v>
       </c>
       <c r="W56" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="X56" s="18"/>
       <c r="Y56" s="18" t="s">
@@ -11832,16 +11884,16 @@
         <v>2</v>
       </c>
       <c r="AG56" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AH56" s="18">
         <v>20210527</v>
       </c>
       <c r="AI56" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="AJ56" s="18" t="s">
         <v>465</v>
-      </c>
-      <c r="AJ56" s="18" t="s">
-        <v>466</v>
       </c>
       <c r="AK56" s="14">
         <v>58</v>
@@ -11865,16 +11917,16 @@
         <v>168</v>
       </c>
       <c r="AX56" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AY56" s="15" t="s">
         <v>169</v>
       </c>
       <c r="AZ56" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="BA56" s="15" t="s">
         <v>388</v>
-      </c>
-      <c r="BA56" s="15" t="s">
-        <v>389</v>
       </c>
       <c r="BB56" s="15" t="s">
         <v>168</v>
@@ -11883,50 +11935,50 @@
       <c r="BD56" s="15"/>
       <c r="BE56" s="15"/>
       <c r="BF56" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG56" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH56" s="15" t="s">
         <v>96</v>
       </c>
       <c r="BI56" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="BJ56" s="101" t="s">
+        <v>281</v>
+      </c>
+      <c r="BJ56" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK56" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="BL56" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BM56" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN56" s="18" t="s">
         <v>203</v>
       </c>
       <c r="BO56" s="21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
-    <row r="57" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>12</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E57" s="99">
+      <c r="E57" s="95">
         <v>69</v>
       </c>
       <c r="F57" s="14">
@@ -11936,7 +11988,7 @@
         <v>130</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I57" s="2">
         <v>28.9</v>
@@ -11963,7 +12015,7 @@
         <v>-50.21</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="R57" s="2">
         <v>28</v>
@@ -11996,7 +12048,7 @@
       <c r="AA57" s="18"/>
       <c r="AB57" s="18"/>
       <c r="AC57" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AD57" s="2">
         <v>0</v>
@@ -12008,16 +12060,16 @@
         <v>0</v>
       </c>
       <c r="AG57" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AH57" s="18">
         <v>20210421</v>
       </c>
       <c r="AI57" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ57" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK57" s="14">
         <v>42</v>
@@ -12026,7 +12078,7 @@
         <v>75</v>
       </c>
       <c r="AM57" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN57" s="22" t="s">
         <v>168</v>
@@ -12038,13 +12090,13 @@
         <v>72</v>
       </c>
       <c r="AQ57" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AR57" s="22" t="s">
         <v>87</v>
       </c>
       <c r="AS57" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AT57" s="22" t="s">
         <v>168</v>
@@ -12055,7 +12107,7 @@
       <c r="AV57" s="16">
         <v>42859</v>
       </c>
-      <c r="AW57" s="96" t="s">
+      <c r="AW57" s="92" t="s">
         <v>168</v>
       </c>
       <c r="AX57" s="22"/>
@@ -12064,16 +12116,16 @@
       <c r="BA57" s="22"/>
       <c r="BB57" s="22"/>
       <c r="BC57" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="BD57" s="15" t="s">
         <v>416</v>
-      </c>
-      <c r="BD57" s="15" t="s">
-        <v>417</v>
       </c>
       <c r="BE57" s="15" t="s">
         <v>168</v>
       </c>
       <c r="BF57" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG57" s="17" t="s">
         <v>174</v>
@@ -12082,37 +12134,37 @@
         <v>98</v>
       </c>
       <c r="BI57" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BJ57" s="22"/>
       <c r="BK57" s="2"/>
       <c r="BL57" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BM57" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN57" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="BO57" s="21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
-    <row r="58" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>13</v>
       </c>
       <c r="B58" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="C58" s="20" t="s">
         <v>484</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>485</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="99">
+      <c r="E58" s="95">
         <v>97</v>
       </c>
       <c r="F58" s="14">
@@ -12122,7 +12174,7 @@
         <v>15</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I58" s="2">
         <v>29.1</v>
@@ -12149,7 +12201,7 @@
         <v>-63.05</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="R58" s="2">
         <v>5</v>
@@ -12168,7 +12220,7 @@
         <v>36</v>
       </c>
       <c r="W58" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X58" s="18" t="s">
         <v>188</v>
@@ -12196,10 +12248,10 @@
         <v>20210922</v>
       </c>
       <c r="AI58" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AJ58" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AK58" s="14">
         <v>33</v>
@@ -12208,10 +12260,10 @@
         <v>69</v>
       </c>
       <c r="AM58" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN58" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO58" s="10" t="s">
         <v>70</v>
@@ -12220,7 +12272,7 @@
         <v>71</v>
       </c>
       <c r="AQ58" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AR58" s="22"/>
       <c r="AS58" s="22"/>
@@ -12243,7 +12295,7 @@
       <c r="BD58" s="15"/>
       <c r="BE58" s="15"/>
       <c r="BF58" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG58" s="17" t="s">
         <v>174</v>
@@ -12252,34 +12304,34 @@
         <v>118</v>
       </c>
       <c r="BI58" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="BJ58" s="101" t="s">
+        <v>328</v>
+      </c>
+      <c r="BJ58" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK58" s="2"/>
       <c r="BL58" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM58" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM58" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN58" s="18" t="s">
         <v>203</v>
       </c>
       <c r="BO58" s="21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
-    <row r="59" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>14</v>
       </c>
       <c r="B59" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="C59" s="20" t="s">
         <v>502</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>503</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>13</v>
@@ -12294,7 +12346,7 @@
         <v>15</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I59" s="2">
         <v>29.1</v>
@@ -12321,7 +12373,7 @@
         <v>-62.45</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R59" s="2">
         <v>13</v>
@@ -12339,7 +12391,7 @@
         <v>36</v>
       </c>
       <c r="W59" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X59" s="18" t="s">
         <v>188</v>
@@ -12367,10 +12419,10 @@
         <v>20220117</v>
       </c>
       <c r="AI59" s="18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AJ59" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK59" s="14">
         <v>29</v>
@@ -12379,10 +12431,10 @@
         <v>69</v>
       </c>
       <c r="AM59" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN59" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO59" s="10" t="s">
         <v>70</v>
@@ -12391,7 +12443,7 @@
         <v>71</v>
       </c>
       <c r="AQ59" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AR59" s="22"/>
       <c r="AS59" s="22"/>
@@ -12414,7 +12466,7 @@
       <c r="BD59" s="22"/>
       <c r="BE59" s="22"/>
       <c r="BF59" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG59" s="17" t="s">
         <v>174</v>
@@ -12423,34 +12475,34 @@
         <v>95</v>
       </c>
       <c r="BI59" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BJ59" s="22" t="s">
         <v>140</v>
       </c>
       <c r="BK59" s="2"/>
       <c r="BL59" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM59" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BM59" s="14" t="s">
-        <v>212</v>
-      </c>
       <c r="BN59" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BO59" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="89">
+    <row r="60" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="85">
         <v>15</v>
       </c>
       <c r="B60" s="2">
         <v>20220303</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>35</v>
@@ -12465,7 +12517,7 @@
         <v>15</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I60" s="2">
         <v>29.1</v>
@@ -12492,7 +12544,7 @@
         <v>-61.72</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="R60" s="2">
         <v>21</v>
@@ -12510,7 +12562,7 @@
         <v>36</v>
       </c>
       <c r="W60" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X60" s="18" t="s">
         <v>188</v>
@@ -12524,7 +12576,7 @@
       <c r="AA60" s="18"/>
       <c r="AB60" s="18"/>
       <c r="AC60" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AD60" s="2">
         <v>2</v>
@@ -12542,10 +12594,10 @@
         <v>20220224</v>
       </c>
       <c r="AI60" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AJ60" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK60" s="14">
         <v>42</v>
@@ -12554,7 +12606,7 @@
         <v>84</v>
       </c>
       <c r="AM60" s="22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AN60" s="22" t="s">
         <v>168</v>
@@ -12568,7 +12620,7 @@
         <v>87</v>
       </c>
       <c r="AS60" s="22" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AT60" s="22" t="s">
         <v>168</v>
@@ -12588,16 +12640,16 @@
       <c r="BA60" s="22"/>
       <c r="BB60" s="22"/>
       <c r="BC60" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="BD60" s="15" t="s">
         <v>416</v>
-      </c>
-      <c r="BD60" s="15" t="s">
-        <v>417</v>
       </c>
       <c r="BE60" s="22" t="s">
         <v>168</v>
       </c>
       <c r="BF60" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG60" s="17" t="s">
         <v>174</v>
@@ -12606,28 +12658,28 @@
         <v>95</v>
       </c>
       <c r="BI60" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BJ60" s="22" t="s">
         <v>139</v>
       </c>
       <c r="BK60" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="BL60" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM60" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM60" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN60" s="18" t="s">
         <v>208</v>
       </c>
       <c r="BO60" s="21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
-    <row r="61" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <v>1</v>
       </c>
@@ -12635,7 +12687,7 @@
         <v>20220406</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D61" s="35" t="s">
         <v>44</v>
@@ -12650,7 +12702,7 @@
         <v>15</v>
       </c>
       <c r="H61" s="37" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I61" s="3">
         <v>29.1</v>
@@ -12677,7 +12729,7 @@
         <v>-61.44</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="R61" s="3">
         <v>23</v>
@@ -12695,7 +12747,7 @@
         <v>36</v>
       </c>
       <c r="W61" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X61" s="37" t="s">
         <v>188</v>
@@ -12723,22 +12775,22 @@
         <v>20220331</v>
       </c>
       <c r="AI61" s="37" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AJ61" s="37" t="s">
-        <v>497</v>
-      </c>
-      <c r="AK61" s="71">
+        <v>496</v>
+      </c>
+      <c r="AK61" s="67">
         <v>30</v>
       </c>
       <c r="AL61" s="34" t="s">
         <v>76</v>
       </c>
       <c r="AM61" s="38" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN61" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO61" s="34" t="s">
         <v>77</v>
@@ -12746,7 +12798,7 @@
       <c r="AP61" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="AQ61" s="49">
+      <c r="AQ61" s="48">
         <v>20210105</v>
       </c>
       <c r="AR61" s="38"/>
@@ -12770,7 +12822,7 @@
       <c r="BD61" s="40"/>
       <c r="BE61" s="38"/>
       <c r="BF61" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG61" s="42" t="s">
         <v>174</v>
@@ -12779,32 +12831,32 @@
         <v>95</v>
       </c>
       <c r="BI61" s="38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BJ61" s="38"/>
       <c r="BK61" s="3"/>
       <c r="BL61" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM61" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM61" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN61" s="37" t="s">
         <v>203</v>
       </c>
       <c r="BO61" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
-    <row r="62" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <v>2</v>
       </c>
-      <c r="B62" s="49">
+      <c r="B62" s="48">
         <v>20220908</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D62" s="35" t="s">
         <v>44</v>
@@ -12819,9 +12871,9 @@
         <v>15</v>
       </c>
       <c r="H62" s="37" t="s">
-        <v>523</v>
-      </c>
-      <c r="I62" s="109">
+        <v>522</v>
+      </c>
+      <c r="I62" s="3">
         <v>29.2</v>
       </c>
       <c r="J62" s="3">
@@ -12846,7 +12898,7 @@
         <v>-61.44</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="R62" s="3">
         <v>21</v>
@@ -12860,10 +12912,18 @@
       <c r="U62" s="3">
         <v>1091</v>
       </c>
-      <c r="V62" s="37"/>
-      <c r="W62" s="37"/>
-      <c r="X62" s="37"/>
-      <c r="Y62" s="37"/>
+      <c r="V62" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="W62" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="X62" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y62" s="37" t="s">
+        <v>188</v>
+      </c>
       <c r="Z62" s="37"/>
       <c r="AA62" s="37"/>
       <c r="AB62" s="37"/>
@@ -12884,10 +12944,10 @@
         <v>20220902</v>
       </c>
       <c r="AI62" s="37" t="s">
-        <v>513</v>
-      </c>
-      <c r="AJ62" s="110" t="s">
-        <v>517</v>
+        <v>512</v>
+      </c>
+      <c r="AJ62" s="37" t="s">
+        <v>516</v>
       </c>
       <c r="AK62" s="35">
         <v>30</v>
@@ -12896,10 +12956,10 @@
         <v>76</v>
       </c>
       <c r="AM62" s="38" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN62" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO62" s="34" t="s">
         <v>77</v>
@@ -12907,7 +12967,7 @@
       <c r="AP62" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="AQ62" s="49">
+      <c r="AQ62" s="48">
         <v>20210105</v>
       </c>
       <c r="AR62" s="38"/>
@@ -12931,7 +12991,7 @@
       <c r="BD62" s="38"/>
       <c r="BE62" s="38"/>
       <c r="BF62" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG62" s="42" t="s">
         <v>174</v>
@@ -12940,524 +13000,964 @@
         <v>95</v>
       </c>
       <c r="BI62" s="38" t="s">
-        <v>330</v>
-      </c>
-      <c r="BJ62" s="108">
+        <v>329</v>
+      </c>
+      <c r="BJ62" s="104">
         <v>200206</v>
       </c>
-      <c r="BK62" s="108"/>
-      <c r="BL62" s="3" t="s">
-        <v>211</v>
+      <c r="BK62" s="104"/>
+      <c r="BL62" s="35" t="s">
+        <v>212</v>
       </c>
       <c r="BM62" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BN62" s="37" t="s">
         <v>203</v>
       </c>
       <c r="BO62" s="43"/>
     </row>
-    <row r="63" spans="1:67" s="111" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="111">
+    <row r="63" spans="1:67" s="107" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="107">
         <v>3</v>
       </c>
-      <c r="B63" s="112">
+      <c r="B63" s="105">
         <v>20220915</v>
       </c>
-      <c r="C63" s="113" t="s">
-        <v>522</v>
-      </c>
-      <c r="D63" s="114" t="s">
+      <c r="C63" s="108" t="s">
+        <v>521</v>
+      </c>
+      <c r="D63" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="E63" s="114">
+      <c r="E63" s="109">
         <v>73</v>
       </c>
-      <c r="F63" s="114"/>
-      <c r="G63" s="114" t="s">
+      <c r="F63" s="35">
+        <v>4800937</v>
+      </c>
+      <c r="G63" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="115" t="s">
-        <v>519</v>
-      </c>
-      <c r="I63" s="116">
+      <c r="H63" s="106" t="s">
+        <v>518</v>
+      </c>
+      <c r="I63" s="110">
         <v>29.2</v>
       </c>
-      <c r="J63" s="112">
+      <c r="J63" s="105">
         <v>25.5</v>
       </c>
-      <c r="K63" s="114">
+      <c r="K63" s="109">
         <v>48.731299999999997</v>
       </c>
-      <c r="L63" s="114">
+      <c r="L63" s="109">
         <v>-52.952100000000002</v>
       </c>
-      <c r="M63" s="115">
+      <c r="M63" s="106">
         <v>47.76</v>
       </c>
-      <c r="N63" s="115">
+      <c r="N63" s="106">
         <v>-53.68</v>
       </c>
-      <c r="O63" s="115">
+      <c r="O63" s="106">
         <v>49.97</v>
       </c>
-      <c r="P63" s="115">
+      <c r="P63" s="106">
         <v>-50.68</v>
       </c>
-      <c r="Q63" s="112" t="s">
+      <c r="Q63" s="105" t="s">
+        <v>523</v>
+      </c>
+      <c r="R63" s="105">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="S63" s="105">
+        <v>599.05999999999995</v>
+      </c>
+      <c r="T63" s="105">
+        <v>528</v>
+      </c>
+      <c r="U63" s="105">
+        <v>1056</v>
+      </c>
+      <c r="V63" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="W63" s="106">
+        <v>1</v>
+      </c>
+      <c r="X63" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y63" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z63" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA63" s="106"/>
+      <c r="AB63" s="106"/>
+      <c r="AC63" s="106"/>
+      <c r="AD63" s="105">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="105">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="105">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="105">
+        <v>1024</v>
+      </c>
+      <c r="AH63" s="106">
+        <v>20220506</v>
+      </c>
+      <c r="AI63" s="106" t="s">
+        <v>512</v>
+      </c>
+      <c r="AJ63" s="106" t="s">
+        <v>516</v>
+      </c>
+      <c r="AK63" s="109">
+        <v>42</v>
+      </c>
+      <c r="AL63" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM63" s="111" t="s">
+        <v>505</v>
+      </c>
+      <c r="AN63" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO63" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP63" s="108"/>
+      <c r="AQ63" s="111"/>
+      <c r="AR63" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS63" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="AT63" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU63" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV63" s="112">
+        <v>42723</v>
+      </c>
+      <c r="AW63" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX63" s="111"/>
+      <c r="AY63" s="111"/>
+      <c r="AZ63" s="111"/>
+      <c r="BA63" s="111"/>
+      <c r="BB63" s="111"/>
+      <c r="BC63" s="111" t="s">
+        <v>415</v>
+      </c>
+      <c r="BD63" s="113" t="s">
+        <v>416</v>
+      </c>
+      <c r="BE63" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF63" s="114" t="s">
+        <v>235</v>
+      </c>
+      <c r="BG63" s="115" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH63" s="113" t="s">
+        <v>282</v>
+      </c>
+      <c r="BI63" s="111" t="s">
+        <v>290</v>
+      </c>
+      <c r="BJ63" s="111"/>
+      <c r="BK63" s="105"/>
+      <c r="BL63" s="109" t="s">
+        <v>216</v>
+      </c>
+      <c r="BM63" s="109" t="s">
+        <v>517</v>
+      </c>
+      <c r="BN63" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="BO63" s="116"/>
+    </row>
+    <row r="64" spans="1:67" s="107" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="107">
+        <v>4</v>
+      </c>
+      <c r="B64" s="108" t="s">
+        <v>529</v>
+      </c>
+      <c r="C64" s="108" t="s">
+        <v>533</v>
+      </c>
+      <c r="D64" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="109">
+        <v>69</v>
+      </c>
+      <c r="F64" s="109">
+        <v>4800926</v>
+      </c>
+      <c r="G64" s="109" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="106" t="s">
+        <v>530</v>
+      </c>
+      <c r="I64" s="105">
+        <v>29.2</v>
+      </c>
+      <c r="J64" s="105">
+        <v>25.1</v>
+      </c>
+      <c r="K64" s="109">
+        <v>44.519300000000001</v>
+      </c>
+      <c r="L64" s="109">
+        <v>-63.410800000000002</v>
+      </c>
+      <c r="M64" s="106">
+        <v>43.039700000000003</v>
+      </c>
+      <c r="N64" s="106">
+        <v>-63.24</v>
+      </c>
+      <c r="O64" s="106">
+        <v>44.546199999999999</v>
+      </c>
+      <c r="P64" s="106">
+        <v>-62.02</v>
+      </c>
+      <c r="Q64" s="105" t="s">
+        <v>534</v>
+      </c>
+      <c r="R64" s="105">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="S64" s="105">
+        <v>452.05</v>
+      </c>
+      <c r="T64" s="105">
+        <v>1239</v>
+      </c>
+      <c r="U64" s="105">
+        <v>2478</v>
+      </c>
+      <c r="V64" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="W64" s="106" t="s">
+        <v>234</v>
+      </c>
+      <c r="X64" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y64" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z64" s="106"/>
+      <c r="AA64" s="106"/>
+      <c r="AB64" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="106"/>
+      <c r="AD64" s="105">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="105">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="105">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="105">
+        <v>1024.9000000000001</v>
+      </c>
+      <c r="AH64" s="106">
+        <v>20230208</v>
+      </c>
+      <c r="AI64" s="106" t="s">
+        <v>512</v>
+      </c>
+      <c r="AJ64" s="106" t="s">
         <v>524</v>
       </c>
-      <c r="R63" s="112">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="S63" s="112">
-        <v>599.05999999999995</v>
-      </c>
-      <c r="T63" s="112"/>
-      <c r="U63" s="117"/>
-      <c r="V63" s="115"/>
-      <c r="W63" s="115"/>
-      <c r="X63" s="115"/>
-      <c r="Y63" s="115"/>
-      <c r="Z63" s="115"/>
-      <c r="AA63" s="115"/>
-      <c r="AB63" s="115"/>
-      <c r="AC63" s="115"/>
-      <c r="AD63" s="112">
+      <c r="AK64" s="109">
+        <v>29</v>
+      </c>
+      <c r="AL64" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM64" s="111" t="s">
+        <v>525</v>
+      </c>
+      <c r="AN64" s="111" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO64" s="108" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP64" s="108" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ64" s="111" t="s">
+        <v>501</v>
+      </c>
+      <c r="AR64" s="111"/>
+      <c r="AS64" s="111"/>
+      <c r="AT64" s="111"/>
+      <c r="AU64" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV64" s="112">
+        <v>42711</v>
+      </c>
+      <c r="AW64" s="113" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX64" s="111"/>
+      <c r="AY64" s="111"/>
+      <c r="AZ64" s="111" t="s">
+        <v>526</v>
+      </c>
+      <c r="BA64" s="111" t="s">
+        <v>527</v>
+      </c>
+      <c r="BB64" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC64" s="113"/>
+      <c r="BD64" s="113"/>
+      <c r="BE64" s="113"/>
+      <c r="BF64" s="114" t="s">
+        <v>235</v>
+      </c>
+      <c r="BG64" s="115" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH64" s="105">
+        <v>201383</v>
+      </c>
+      <c r="BI64" s="105" t="s">
+        <v>528</v>
+      </c>
+      <c r="BJ64" s="119">
+        <v>200206</v>
+      </c>
+      <c r="BK64" s="119"/>
+      <c r="BL64" s="105" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM64" s="105" t="s">
+        <v>517</v>
+      </c>
+      <c r="BN64" s="106" t="s">
+        <v>203</v>
+      </c>
+      <c r="BO64" s="116"/>
+    </row>
+    <row r="65" spans="1:67" s="107" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="107">
+        <v>5</v>
+      </c>
+      <c r="B65" s="108" t="s">
+        <v>541</v>
+      </c>
+      <c r="C65" s="108" t="s">
+        <v>539</v>
+      </c>
+      <c r="D65" s="109" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="109">
+        <v>91</v>
+      </c>
+      <c r="F65" s="109">
+        <v>4800993</v>
+      </c>
+      <c r="G65" s="109" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="106" t="s">
+        <v>536</v>
+      </c>
+      <c r="I65" s="105">
+        <v>29.2</v>
+      </c>
+      <c r="J65" s="105">
+        <v>24.6</v>
+      </c>
+      <c r="K65" s="109">
+        <v>44.3795</v>
+      </c>
+      <c r="L65" s="109">
+        <v>-63.360300000000002</v>
+      </c>
+      <c r="M65" s="106">
+        <v>42.45</v>
+      </c>
+      <c r="N65" s="106">
+        <v>-63.36</v>
+      </c>
+      <c r="O65" s="106">
+        <v>44.52</v>
+      </c>
+      <c r="P65" s="106">
+        <v>-61.41</v>
+      </c>
+      <c r="Q65" s="105" t="s">
+        <v>540</v>
+      </c>
+      <c r="R65" s="105">
+        <v>24.9</v>
+      </c>
+      <c r="S65" s="105">
+        <v>666.07</v>
+      </c>
+      <c r="T65" s="105">
+        <v>1182</v>
+      </c>
+      <c r="U65" s="105">
+        <v>1872</v>
+      </c>
+      <c r="V65" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="W65" s="106" t="s">
+        <v>234</v>
+      </c>
+      <c r="X65" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y65" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z65" s="106"/>
+      <c r="AA65" s="106"/>
+      <c r="AB65" s="106"/>
+      <c r="AC65" s="106"/>
+      <c r="AD65" s="105">
+        <v>2</v>
+      </c>
+      <c r="AE65" s="105">
         <v>0</v>
       </c>
-      <c r="AE63" s="112">
+      <c r="AF65" s="105">
         <v>0</v>
       </c>
-      <c r="AF63" s="112">
+      <c r="AG65" s="105">
+        <v>1024.9000000000001</v>
+      </c>
+      <c r="AH65" s="106">
+        <v>20230308</v>
+      </c>
+      <c r="AI65" s="106" t="s">
+        <v>512</v>
+      </c>
+      <c r="AJ65" s="106" t="s">
+        <v>524</v>
+      </c>
+      <c r="AK65" s="109">
+        <v>30</v>
+      </c>
+      <c r="AL65" s="108" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM65" s="111" t="s">
+        <v>525</v>
+      </c>
+      <c r="AN65" s="111" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO65" s="108" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP65" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ65" s="111" t="s">
+        <v>538</v>
+      </c>
+      <c r="AR65" s="111"/>
+      <c r="AS65" s="111"/>
+      <c r="AT65" s="111"/>
+      <c r="AU65" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV65" s="111" t="s">
+        <v>537</v>
+      </c>
+      <c r="AW65" s="113" t="s">
+        <v>481</v>
+      </c>
+      <c r="AX65" s="111"/>
+      <c r="AY65" s="111"/>
+      <c r="AZ65" s="111"/>
+      <c r="BA65" s="111"/>
+      <c r="BB65" s="111"/>
+      <c r="BC65" s="113"/>
+      <c r="BD65" s="113"/>
+      <c r="BE65" s="113"/>
+      <c r="BF65" s="114" t="s">
+        <v>235</v>
+      </c>
+      <c r="BG65" s="115" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH65" s="105">
+        <v>162640</v>
+      </c>
+      <c r="BI65" s="105" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ65" s="105">
+        <v>201189</v>
+      </c>
+      <c r="BK65" s="119"/>
+      <c r="BL65" s="105" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM65" s="105" t="s">
+        <v>517</v>
+      </c>
+      <c r="BN65" s="106" t="s">
+        <v>208</v>
+      </c>
+      <c r="BO65" s="116" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="66" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
+        <v>1</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="14">
+        <v>71</v>
+      </c>
+      <c r="F66" s="14">
+        <v>4800926</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="I66" s="2">
+        <v>29.2</v>
+      </c>
+      <c r="J66" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="K66" s="14">
+        <v>44.492899999999999</v>
+      </c>
+      <c r="L66" s="14">
+        <v>-63.385300000000001</v>
+      </c>
+      <c r="M66" s="18">
+        <v>42.5</v>
+      </c>
+      <c r="N66" s="18">
+        <v>-63.39</v>
+      </c>
+      <c r="O66" s="18">
+        <v>44.5</v>
+      </c>
+      <c r="P66" s="18">
+        <v>-61.43</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="R66" s="2">
+        <v>27</v>
+      </c>
+      <c r="S66" s="2">
+        <v>629</v>
+      </c>
+      <c r="T66" s="2">
+        <v>1235</v>
+      </c>
+      <c r="U66" s="2">
+        <f>1181*2+1</f>
+        <v>2363</v>
+      </c>
+      <c r="V66" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W66" s="18">
+        <v>1</v>
+      </c>
+      <c r="X66" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y66" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z66" s="18"/>
+      <c r="AA66" s="18"/>
+      <c r="AB66" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC66" s="18"/>
+      <c r="AD66" s="2">
         <v>0</v>
       </c>
-      <c r="AG63" s="112">
+      <c r="AE66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="2">
+        <v>1024.9000000000001</v>
+      </c>
+      <c r="AH66" s="18">
+        <v>20230330</v>
+      </c>
+      <c r="AI66" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="AJ66" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="AK66" s="14">
+        <v>29</v>
+      </c>
+      <c r="AL66" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM66" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="AN66" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO66" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP66" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ66" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="AR66" s="22"/>
+      <c r="AS66" s="22"/>
+      <c r="AT66" s="22"/>
+      <c r="AU66" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV66" s="16">
+        <v>42711</v>
+      </c>
+      <c r="AW66" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="AX66" s="22"/>
+      <c r="AY66" s="22"/>
+      <c r="AZ66" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="BA66" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="BB66" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="BC66" s="22"/>
+      <c r="BD66" s="22"/>
+      <c r="BE66" s="22"/>
+      <c r="BF66" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="BG66" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH66" s="2">
+        <v>201383</v>
+      </c>
+      <c r="BI66" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="BJ66" s="120">
+        <v>200206</v>
+      </c>
+      <c r="BK66" s="120"/>
+      <c r="BL66" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM66" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="BN66" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="BO66" s="21"/>
+    </row>
+    <row r="67" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="14">
+        <v>75</v>
+      </c>
+      <c r="F67" s="14">
+        <v>4800994</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="18"/>
+      <c r="W67" s="18">
+        <v>1</v>
+      </c>
+      <c r="X67" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y67" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z67" s="18"/>
+      <c r="AA67" s="18"/>
+      <c r="AB67" s="18"/>
+      <c r="AC67" s="18"/>
+      <c r="AD67" s="2"/>
+      <c r="AE67" s="2"/>
+      <c r="AF67" s="2"/>
+      <c r="AG67" s="2">
         <v>1024</v>
       </c>
-      <c r="AH63" s="115">
-        <v>20220506</v>
-      </c>
-      <c r="AI63" s="115" t="s">
-        <v>513</v>
-      </c>
-      <c r="AJ63" s="115" t="s">
+      <c r="AH67" s="18">
+        <v>20230228</v>
+      </c>
+      <c r="AI67" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="AJ67" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="AK67" s="14">
+        <v>42</v>
+      </c>
+      <c r="AL67" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM67" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="AN67" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO67" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP67" s="20"/>
+      <c r="AQ67" s="22"/>
+      <c r="AR67" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS67" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="AT67" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU67" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV67" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="AW67" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX67" s="22"/>
+      <c r="AY67" s="22"/>
+      <c r="AZ67" s="22"/>
+      <c r="BA67" s="22"/>
+      <c r="BB67" s="22"/>
+      <c r="BC67" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="BD67" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="BE67" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF67" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="BG67" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH67" s="2">
+        <v>162642</v>
+      </c>
+      <c r="BI67" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="BJ67" s="120"/>
+      <c r="BK67" s="120" t="s">
+        <v>543</v>
+      </c>
+      <c r="BL67" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="BM67" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="AK63" s="114">
-        <v>42</v>
-      </c>
-      <c r="AL63" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM63" s="118" t="s">
-        <v>506</v>
-      </c>
-      <c r="AN63" s="118" t="s">
-        <v>168</v>
-      </c>
-      <c r="AO63" s="113" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP63" s="113"/>
-      <c r="AQ63" s="118"/>
-      <c r="AR63" s="118"/>
-      <c r="AS63" s="118"/>
-      <c r="AT63" s="118"/>
-      <c r="AU63" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV63" s="119">
-        <v>42799</v>
-      </c>
-      <c r="AW63" s="118" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX63" s="118"/>
-      <c r="AY63" s="118"/>
-      <c r="AZ63" s="118"/>
-      <c r="BA63" s="118"/>
-      <c r="BB63" s="118"/>
-      <c r="BC63" s="118" t="s">
-        <v>416</v>
-      </c>
-      <c r="BD63" s="120" t="s">
-        <v>417</v>
-      </c>
-      <c r="BE63" s="118" t="s">
-        <v>168</v>
-      </c>
-      <c r="BF63" s="121" t="s">
-        <v>236</v>
-      </c>
-      <c r="BG63" s="122" t="s">
+      <c r="BN67" s="18"/>
+      <c r="BO67" s="21"/>
+    </row>
+    <row r="68" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14">
+        <v>4800937</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W68" s="18"/>
+      <c r="X68" s="18"/>
+      <c r="Y68" s="18"/>
+      <c r="Z68" s="18"/>
+      <c r="AA68" s="18"/>
+      <c r="AB68" s="18"/>
+      <c r="AC68" s="18"/>
+      <c r="AD68" s="2"/>
+      <c r="AE68" s="2"/>
+      <c r="AF68" s="2"/>
+      <c r="AG68" s="2">
+        <v>1024.25</v>
+      </c>
+      <c r="AH68" s="18"/>
+      <c r="AI68" s="18"/>
+      <c r="AJ68" s="18"/>
+      <c r="AK68" s="14">
+        <v>32</v>
+      </c>
+      <c r="AL68" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM68" s="22"/>
+      <c r="AN68" s="22"/>
+      <c r="AO68" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP68" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ68" s="22"/>
+      <c r="AR68" s="22"/>
+      <c r="AS68" s="22"/>
+      <c r="AT68" s="22"/>
+      <c r="AU68" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV68" s="16">
+        <v>42711</v>
+      </c>
+      <c r="AW68" s="22"/>
+      <c r="AX68" s="22"/>
+      <c r="AY68" s="22"/>
+      <c r="AZ68" s="22"/>
+      <c r="BA68" s="22"/>
+      <c r="BB68" s="22"/>
+      <c r="BC68" s="22"/>
+      <c r="BD68" s="22"/>
+      <c r="BE68" s="22"/>
+      <c r="BF68" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="BG68" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="BH63" s="120"/>
-      <c r="BI63" s="118"/>
-      <c r="BJ63" s="118"/>
-      <c r="BK63" s="112"/>
-      <c r="BL63" s="114" t="s">
-        <v>217</v>
-      </c>
-      <c r="BM63" s="114" t="s">
-        <v>518</v>
-      </c>
-      <c r="BN63" s="115" t="s">
-        <v>215</v>
-      </c>
-      <c r="BO63" s="123"/>
+      <c r="BH68" s="120"/>
+      <c r="BI68" s="120"/>
+      <c r="BJ68" s="120"/>
+      <c r="BK68" s="120"/>
+      <c r="BL68" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM68" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="BN68" s="18"/>
+      <c r="BO68" s="21"/>
     </row>
-    <row r="64" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="37"/>
-      <c r="X64" s="37"/>
-      <c r="Y64" s="37"/>
-      <c r="Z64" s="37"/>
-      <c r="AA64" s="37"/>
-      <c r="AB64" s="37"/>
-      <c r="AC64" s="37"/>
-      <c r="AD64" s="3"/>
-      <c r="AE64" s="3"/>
-      <c r="AF64" s="3"/>
-      <c r="AG64" s="3"/>
-      <c r="AH64" s="37"/>
-      <c r="AI64" s="37"/>
-      <c r="AJ64" s="37"/>
-      <c r="AK64" s="35"/>
-      <c r="AL64" s="34"/>
-      <c r="AM64" s="38"/>
-      <c r="AN64" s="38"/>
-      <c r="AO64" s="34"/>
-      <c r="AP64" s="34"/>
-      <c r="AQ64" s="38"/>
-      <c r="AR64" s="38"/>
-      <c r="AS64" s="38"/>
-      <c r="AT64" s="38"/>
-      <c r="AU64" s="34"/>
-      <c r="AV64" s="38"/>
-      <c r="AW64" s="40"/>
-      <c r="AX64" s="38"/>
-      <c r="AY64" s="38"/>
-      <c r="AZ64" s="38"/>
-      <c r="BA64" s="38"/>
-      <c r="BB64" s="38"/>
-      <c r="BC64" s="40"/>
-      <c r="BD64" s="40"/>
-      <c r="BE64" s="40"/>
-      <c r="BF64" s="41"/>
-      <c r="BG64" s="42"/>
-      <c r="BH64" s="108"/>
-      <c r="BI64" s="108"/>
-      <c r="BJ64" s="108"/>
-      <c r="BK64" s="108"/>
-      <c r="BL64" s="108"/>
-      <c r="BM64" s="108"/>
-      <c r="BN64" s="37"/>
-      <c r="BO64" s="43"/>
-    </row>
-    <row r="65" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="37"/>
-      <c r="W65" s="37"/>
-      <c r="X65" s="37"/>
-      <c r="Y65" s="37"/>
-      <c r="Z65" s="37"/>
-      <c r="AA65" s="37"/>
-      <c r="AB65" s="37"/>
-      <c r="AC65" s="37"/>
-      <c r="AD65" s="3"/>
-      <c r="AE65" s="3"/>
-      <c r="AF65" s="3"/>
-      <c r="AG65" s="3"/>
-      <c r="AH65" s="37"/>
-      <c r="AI65" s="37"/>
-      <c r="AJ65" s="37"/>
-      <c r="AK65" s="35"/>
-      <c r="AL65" s="34"/>
-      <c r="AM65" s="38"/>
-      <c r="AN65" s="38"/>
-      <c r="AO65" s="34"/>
-      <c r="AP65" s="34"/>
-      <c r="AQ65" s="38"/>
-      <c r="AR65" s="38"/>
-      <c r="AS65" s="38"/>
-      <c r="AT65" s="38"/>
-      <c r="AU65" s="34"/>
-      <c r="AV65" s="38"/>
-      <c r="AW65" s="40"/>
-      <c r="AX65" s="38"/>
-      <c r="AY65" s="38"/>
-      <c r="AZ65" s="38"/>
-      <c r="BA65" s="38"/>
-      <c r="BB65" s="38"/>
-      <c r="BC65" s="40"/>
-      <c r="BD65" s="40"/>
-      <c r="BE65" s="40"/>
-      <c r="BF65" s="41"/>
-      <c r="BG65" s="42"/>
-      <c r="BH65" s="108"/>
-      <c r="BI65" s="108"/>
-      <c r="BJ65" s="108"/>
-      <c r="BK65" s="108"/>
-      <c r="BL65" s="108"/>
-      <c r="BM65" s="108"/>
-      <c r="BN65" s="37"/>
-      <c r="BO65" s="43"/>
-    </row>
-    <row r="66" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="52" t="s">
+    <row r="69" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="C66" s="34"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-      <c r="V66" s="48"/>
-      <c r="W66" s="48"/>
-      <c r="X66" s="48"/>
-      <c r="Y66" s="48"/>
-      <c r="Z66" s="48"/>
-      <c r="AA66" s="48"/>
-      <c r="AB66" s="48"/>
-      <c r="AC66" s="48"/>
-      <c r="AD66" s="3"/>
-      <c r="AE66" s="3"/>
-      <c r="AF66" s="3"/>
-      <c r="AG66" s="49"/>
-      <c r="AH66" s="48"/>
-      <c r="AI66" s="48"/>
-      <c r="AJ66" s="48"/>
-      <c r="AK66" s="29"/>
-      <c r="AL66" s="50"/>
-      <c r="AM66" s="46"/>
-      <c r="AN66" s="46"/>
-      <c r="AO66" s="50"/>
-      <c r="AP66" s="50"/>
-      <c r="AQ66" s="46"/>
-      <c r="AR66" s="46"/>
-      <c r="AS66" s="46"/>
-      <c r="AT66" s="46"/>
-      <c r="AU66" s="50"/>
-      <c r="AV66" s="46"/>
-      <c r="AW66" s="46"/>
-      <c r="AX66" s="46"/>
-      <c r="AY66" s="46"/>
-      <c r="AZ66" s="46"/>
-      <c r="BA66" s="46"/>
-      <c r="BB66" s="46"/>
-      <c r="BC66" s="46"/>
-      <c r="BD66" s="46"/>
-      <c r="BE66" s="46"/>
-      <c r="BF66" s="50"/>
-      <c r="BG66" s="51"/>
-      <c r="BN66" s="48"/>
-      <c r="BO66" s="30"/>
-    </row>
-    <row r="67" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="48"/>
-      <c r="W67" s="48"/>
-      <c r="X67" s="48"/>
-      <c r="Y67" s="48"/>
-      <c r="Z67" s="48"/>
-      <c r="AA67" s="48"/>
-      <c r="AB67" s="48"/>
-      <c r="AC67" s="48"/>
-      <c r="AD67" s="3"/>
-      <c r="AE67" s="3"/>
-      <c r="AF67" s="3"/>
-      <c r="AG67" s="49"/>
-      <c r="AH67" s="48"/>
-      <c r="AI67" s="48"/>
-      <c r="AJ67" s="48"/>
-      <c r="AK67" s="29"/>
-      <c r="AL67" s="50"/>
-      <c r="AM67" s="46"/>
-      <c r="AN67" s="46"/>
-      <c r="AO67" s="50"/>
-      <c r="AP67" s="50"/>
-      <c r="AQ67" s="46"/>
-      <c r="AR67" s="46"/>
-      <c r="AS67" s="46"/>
-      <c r="AT67" s="46"/>
-      <c r="AU67" s="50"/>
-      <c r="AV67" s="46"/>
-      <c r="AW67" s="46"/>
-      <c r="AX67" s="46"/>
-      <c r="AY67" s="46"/>
-      <c r="AZ67" s="46"/>
-      <c r="BA67" s="46"/>
-      <c r="BB67" s="46"/>
-      <c r="BC67" s="46"/>
-      <c r="BD67" s="46"/>
-      <c r="BE67" s="46"/>
-      <c r="BF67" s="50"/>
-      <c r="BG67" s="51"/>
-      <c r="BH67" s="104" t="s">
-        <v>493</v>
-      </c>
-      <c r="BI67" s="38"/>
-      <c r="BJ67" s="38"/>
-      <c r="BK67" s="3"/>
-      <c r="BL67" s="35"/>
-      <c r="BM67" s="35"/>
-      <c r="BN67" s="48"/>
-      <c r="BO67" s="30"/>
-    </row>
-    <row r="68" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="48"/>
-      <c r="W68" s="48"/>
-      <c r="X68" s="48"/>
-      <c r="Y68" s="48"/>
-      <c r="Z68" s="48"/>
-      <c r="AA68" s="48"/>
-      <c r="AB68" s="48"/>
-      <c r="AC68" s="48"/>
-      <c r="AD68" s="3"/>
-      <c r="AE68" s="3"/>
-      <c r="AF68" s="3"/>
-      <c r="AG68" s="49"/>
-      <c r="AH68" s="48"/>
-      <c r="AI68" s="48"/>
-      <c r="AJ68" s="48"/>
-      <c r="AK68" s="29"/>
-      <c r="AL68" s="50"/>
-      <c r="AM68" s="46"/>
-      <c r="AN68" s="46"/>
-      <c r="AO68" s="50"/>
-      <c r="AP68" s="50"/>
-      <c r="AQ68" s="46"/>
-      <c r="AR68" s="46"/>
-      <c r="AS68" s="46"/>
-      <c r="AT68" s="46"/>
-      <c r="AU68" s="50"/>
-      <c r="AV68" s="46"/>
-      <c r="AW68" s="46"/>
-      <c r="AX68" s="46"/>
-      <c r="AY68" s="46"/>
-      <c r="AZ68" s="46"/>
-      <c r="BA68" s="46"/>
-      <c r="BB68" s="46"/>
-      <c r="BC68" s="46"/>
-      <c r="BD68" s="46"/>
-      <c r="BE68" s="46"/>
-      <c r="BF68" s="50"/>
-      <c r="BG68" s="51"/>
-      <c r="BH68" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI68" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="BJ68" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="BK68" s="3">
-        <v>3.53</v>
-      </c>
-      <c r="BL68" s="35">
-        <v>84</v>
-      </c>
-      <c r="BM68" s="35"/>
-      <c r="BN68" s="48"/>
-      <c r="BO68" s="30"/>
-    </row>
-    <row r="69" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="34"/>
       <c r="C69" s="34"/>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -13477,64 +13977,54 @@
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
       <c r="U69" s="3"/>
-      <c r="V69" s="48"/>
-      <c r="W69" s="48"/>
-      <c r="X69" s="48"/>
-      <c r="Y69" s="48"/>
-      <c r="Z69" s="48"/>
-      <c r="AA69" s="48"/>
-      <c r="AB69" s="48"/>
-      <c r="AC69" s="48"/>
+      <c r="V69" s="37"/>
+      <c r="W69" s="37"/>
+      <c r="X69" s="37"/>
+      <c r="Y69" s="37"/>
+      <c r="Z69" s="37"/>
+      <c r="AA69" s="37"/>
+      <c r="AB69" s="37"/>
+      <c r="AC69" s="37"/>
       <c r="AD69" s="3"/>
       <c r="AE69" s="3"/>
       <c r="AF69" s="3"/>
-      <c r="AG69" s="49"/>
-      <c r="AH69" s="48"/>
-      <c r="AI69" s="48"/>
-      <c r="AJ69" s="48"/>
-      <c r="AK69" s="29"/>
-      <c r="AL69" s="50"/>
-      <c r="AM69" s="46"/>
-      <c r="AN69" s="46"/>
-      <c r="AO69" s="50"/>
-      <c r="AP69" s="50"/>
-      <c r="AQ69" s="46"/>
-      <c r="AR69" s="46"/>
-      <c r="AS69" s="46"/>
-      <c r="AT69" s="46"/>
-      <c r="AU69" s="50"/>
-      <c r="AV69" s="46"/>
-      <c r="AW69" s="46"/>
-      <c r="AX69" s="46"/>
-      <c r="AY69" s="46"/>
-      <c r="AZ69" s="46"/>
-      <c r="BA69" s="46"/>
-      <c r="BB69" s="46"/>
-      <c r="BC69" s="46"/>
-      <c r="BD69" s="46"/>
-      <c r="BE69" s="46"/>
-      <c r="BF69" s="50"/>
-      <c r="BG69" s="51"/>
-      <c r="BH69" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="BI69" s="106" t="s">
-        <v>282</v>
-      </c>
-      <c r="BJ69" s="40" t="s">
-        <v>483</v>
-      </c>
-      <c r="BK69" s="3">
-        <v>3.28</v>
-      </c>
-      <c r="BL69" s="35">
-        <v>174</v>
-      </c>
-      <c r="BM69" s="35"/>
-      <c r="BN69" s="48"/>
-      <c r="BO69" s="30"/>
+      <c r="AG69" s="3"/>
+      <c r="AH69" s="37"/>
+      <c r="AI69" s="37"/>
+      <c r="AJ69" s="37"/>
+      <c r="AK69" s="35"/>
+      <c r="AL69" s="34"/>
+      <c r="AM69" s="38"/>
+      <c r="AN69" s="38"/>
+      <c r="AO69" s="34"/>
+      <c r="AP69" s="34"/>
+      <c r="AQ69" s="38"/>
+      <c r="AR69" s="38"/>
+      <c r="AS69" s="38"/>
+      <c r="AT69" s="38"/>
+      <c r="AU69" s="34"/>
+      <c r="AV69" s="38"/>
+      <c r="AW69" s="38"/>
+      <c r="AX69" s="38"/>
+      <c r="AY69" s="38"/>
+      <c r="AZ69" s="38"/>
+      <c r="BA69" s="38"/>
+      <c r="BB69" s="38"/>
+      <c r="BC69" s="38"/>
+      <c r="BD69" s="38"/>
+      <c r="BE69" s="38"/>
+      <c r="BF69" s="34"/>
+      <c r="BG69" s="118"/>
+      <c r="BH69" s="104"/>
+      <c r="BI69" s="104"/>
+      <c r="BJ69" s="104"/>
+      <c r="BK69" s="104"/>
+      <c r="BL69" s="104"/>
+      <c r="BM69" s="104"/>
+      <c r="BN69" s="37"/>
+      <c r="BO69" s="43"/>
     </row>
-    <row r="70" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="34"/>
       <c r="C70" s="34"/>
       <c r="D70" s="35"/>
@@ -13555,66 +14045,54 @@
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
-      <c r="V70" s="48"/>
-      <c r="W70" s="48"/>
-      <c r="X70" s="48"/>
-      <c r="Y70" s="48"/>
-      <c r="Z70" s="48"/>
-      <c r="AA70" s="48"/>
-      <c r="AB70" s="48"/>
-      <c r="AC70" s="48"/>
+      <c r="V70" s="37"/>
+      <c r="W70" s="37"/>
+      <c r="X70" s="37"/>
+      <c r="Y70" s="37"/>
+      <c r="Z70" s="37"/>
+      <c r="AA70" s="37"/>
+      <c r="AB70" s="37"/>
+      <c r="AC70" s="37"/>
       <c r="AD70" s="3"/>
       <c r="AE70" s="3"/>
       <c r="AF70" s="3"/>
-      <c r="AG70" s="49"/>
-      <c r="AH70" s="48"/>
-      <c r="AI70" s="48"/>
-      <c r="AJ70" s="48"/>
-      <c r="AK70" s="29"/>
-      <c r="AL70" s="50"/>
-      <c r="AM70" s="46"/>
-      <c r="AN70" s="46"/>
-      <c r="AO70" s="50"/>
-      <c r="AP70" s="50"/>
-      <c r="AQ70" s="46"/>
-      <c r="AR70" s="46"/>
-      <c r="AS70" s="46"/>
-      <c r="AT70" s="46"/>
-      <c r="AU70" s="50"/>
-      <c r="AV70" s="46"/>
-      <c r="AW70" s="46"/>
-      <c r="AX70" s="46"/>
-      <c r="AY70" s="46"/>
-      <c r="AZ70" s="46"/>
-      <c r="BA70" s="46"/>
-      <c r="BB70" s="46"/>
-      <c r="BC70" s="46"/>
-      <c r="BD70" s="46"/>
-      <c r="BE70" s="46"/>
-      <c r="BF70" s="50"/>
-      <c r="BG70" s="51"/>
-      <c r="BH70" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="BI70" s="66" t="s">
-        <v>330</v>
-      </c>
-      <c r="BJ70" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="BK70" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="BL70" s="35">
-        <v>85</v>
-      </c>
-      <c r="BM70" s="35" t="s">
-        <v>494</v>
-      </c>
-      <c r="BN70" s="48"/>
-      <c r="BO70" s="30"/>
+      <c r="AG70" s="3"/>
+      <c r="AH70" s="37"/>
+      <c r="AI70" s="37"/>
+      <c r="AJ70" s="37"/>
+      <c r="AK70" s="35"/>
+      <c r="AL70" s="34"/>
+      <c r="AM70" s="38"/>
+      <c r="AN70" s="38"/>
+      <c r="AO70" s="34"/>
+      <c r="AP70" s="34"/>
+      <c r="AQ70" s="38"/>
+      <c r="AR70" s="38"/>
+      <c r="AS70" s="38"/>
+      <c r="AT70" s="38"/>
+      <c r="AU70" s="34"/>
+      <c r="AV70" s="38"/>
+      <c r="AW70" s="38"/>
+      <c r="AX70" s="38"/>
+      <c r="AY70" s="38"/>
+      <c r="AZ70" s="38"/>
+      <c r="BA70" s="38"/>
+      <c r="BB70" s="38"/>
+      <c r="BC70" s="38"/>
+      <c r="BD70" s="38"/>
+      <c r="BE70" s="38"/>
+      <c r="BF70" s="34"/>
+      <c r="BG70" s="118"/>
+      <c r="BH70" s="104"/>
+      <c r="BI70" s="104"/>
+      <c r="BJ70" s="104"/>
+      <c r="BK70" s="104"/>
+      <c r="BL70" s="104"/>
+      <c r="BM70" s="104"/>
+      <c r="BN70" s="37"/>
+      <c r="BO70" s="43"/>
     </row>
-    <row r="71" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
       <c r="D71" s="35"/>
@@ -13635,102 +14113,176 @@
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
-      <c r="V71" s="48"/>
-      <c r="W71" s="48"/>
-      <c r="X71" s="48"/>
-      <c r="Y71" s="48"/>
-      <c r="Z71" s="48"/>
-      <c r="AA71" s="48"/>
-      <c r="AB71" s="48"/>
-      <c r="AC71" s="48"/>
+      <c r="V71" s="37"/>
+      <c r="W71" s="37"/>
+      <c r="X71" s="37"/>
+      <c r="Y71" s="37"/>
+      <c r="Z71" s="37"/>
+      <c r="AA71" s="37"/>
+      <c r="AB71" s="37"/>
+      <c r="AC71" s="37"/>
       <c r="AD71" s="3"/>
       <c r="AE71" s="3"/>
       <c r="AF71" s="3"/>
-      <c r="AG71" s="49"/>
-      <c r="AH71" s="48"/>
-      <c r="AI71" s="48"/>
-      <c r="AJ71" s="48"/>
-      <c r="AK71" s="29"/>
-      <c r="AL71" s="50"/>
-      <c r="AM71" s="46"/>
-      <c r="AN71" s="46"/>
-      <c r="AO71" s="50"/>
-      <c r="AP71" s="50"/>
-      <c r="AQ71" s="46"/>
-      <c r="AR71" s="46"/>
-      <c r="AS71" s="46"/>
-      <c r="AT71" s="46"/>
-      <c r="AU71" s="50"/>
-      <c r="AV71" s="46"/>
-      <c r="AW71" s="46"/>
-      <c r="AX71" s="46"/>
-      <c r="AY71" s="46"/>
-      <c r="AZ71" s="46"/>
-      <c r="BA71" s="46"/>
-      <c r="BB71" s="46"/>
-      <c r="BC71" s="46"/>
-      <c r="BD71" s="46"/>
-      <c r="BE71" s="46"/>
-      <c r="BF71" s="50"/>
-      <c r="BG71" s="51"/>
-      <c r="BH71" s="64" t="s">
+      <c r="AG71" s="3"/>
+      <c r="AH71" s="37"/>
+      <c r="AI71" s="37"/>
+      <c r="AJ71" s="37"/>
+      <c r="AK71" s="35"/>
+      <c r="AL71" s="34"/>
+      <c r="AM71" s="38"/>
+      <c r="AN71" s="38"/>
+      <c r="AO71" s="34"/>
+      <c r="AP71" s="34"/>
+      <c r="AQ71" s="38"/>
+      <c r="AR71" s="38"/>
+      <c r="AS71" s="38"/>
+      <c r="AT71" s="38"/>
+      <c r="AU71" s="34"/>
+      <c r="AV71" s="38"/>
+      <c r="AW71" s="38"/>
+      <c r="AX71" s="38"/>
+      <c r="AY71" s="38"/>
+      <c r="AZ71" s="38"/>
+      <c r="BA71" s="38"/>
+      <c r="BB71" s="38"/>
+      <c r="BC71" s="38"/>
+      <c r="BD71" s="38"/>
+      <c r="BE71" s="38"/>
+      <c r="BF71" s="34"/>
+      <c r="BG71" s="118"/>
+      <c r="BH71" s="104"/>
+      <c r="BI71" s="104"/>
+      <c r="BJ71" s="104"/>
+      <c r="BK71" s="104"/>
+      <c r="BL71" s="104"/>
+      <c r="BM71" s="104"/>
+      <c r="BN71" s="37"/>
+      <c r="BO71" s="43"/>
+    </row>
+    <row r="78" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="BH78" s="100" t="s">
+        <v>492</v>
+      </c>
+      <c r="BI78" s="38"/>
+      <c r="BJ78" s="38"/>
+      <c r="BK78" s="3"/>
+      <c r="BL78" s="35"/>
+      <c r="BM78" s="35"/>
+    </row>
+    <row r="79" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="BH79" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI79" s="62" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ79" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="BK79" s="3">
+        <v>3.53</v>
+      </c>
+      <c r="BL79" s="35">
+        <v>84</v>
+      </c>
+      <c r="BM79" s="35"/>
+    </row>
+    <row r="80" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="BH80" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI80" s="102" t="s">
+        <v>281</v>
+      </c>
+      <c r="BJ80" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="BK80" s="3">
+        <v>3.28</v>
+      </c>
+      <c r="BL80" s="35">
+        <v>174</v>
+      </c>
+      <c r="BM80" s="35"/>
+    </row>
+    <row r="81" spans="60:65" x14ac:dyDescent="0.3">
+      <c r="BH81" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI81" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="BJ81" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="BK81" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="BL81" s="35">
+        <v>85</v>
+      </c>
+      <c r="BM81" s="35" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="82" spans="60:65" x14ac:dyDescent="0.3">
+      <c r="BH82" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="BI71" s="64" t="s">
-        <v>329</v>
-      </c>
-      <c r="BJ71" s="46" t="s">
-        <v>492</v>
-      </c>
-      <c r="BK71" s="49">
+      <c r="BI82" s="60" t="s">
+        <v>328</v>
+      </c>
+      <c r="BJ82" s="46" t="s">
+        <v>491</v>
+      </c>
+      <c r="BK82" s="48">
         <v>3.16</v>
       </c>
-      <c r="BL71" s="29">
+      <c r="BL82" s="29">
         <v>25</v>
       </c>
-      <c r="BM71" s="29"/>
-      <c r="BN71" s="48"/>
-      <c r="BO71" s="30"/>
+      <c r="BM82" s="29"/>
     </row>
-    <row r="72" spans="2:67" x14ac:dyDescent="0.35">
-      <c r="BH72" s="102" t="s">
-        <v>283</v>
-      </c>
-      <c r="BI72" s="103" t="s">
-        <v>291</v>
-      </c>
-      <c r="BJ72" s="46" t="s">
-        <v>458</v>
-      </c>
-      <c r="BK72" s="49">
+    <row r="83" spans="60:65" x14ac:dyDescent="0.3">
+      <c r="BH83" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="BI83" s="99" t="s">
+        <v>290</v>
+      </c>
+      <c r="BJ83" s="46" t="s">
+        <v>457</v>
+      </c>
+      <c r="BK83" s="48">
         <v>2.64</v>
       </c>
-      <c r="BL72" s="29">
+      <c r="BL83" s="29">
         <v>43</v>
       </c>
-      <c r="BM72" s="105" t="s">
-        <v>495</v>
+      <c r="BM83" s="101" t="s">
+        <v>494</v>
       </c>
     </row>
-    <row r="73" spans="2:67" x14ac:dyDescent="0.35">
-      <c r="BH73" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="BI73" s="63" t="s">
+    <row r="84" spans="60:65" x14ac:dyDescent="0.3">
+      <c r="BH84" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="BI84" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="BJ73" s="46"/>
-      <c r="BK73" s="49"/>
-      <c r="BL73" s="29"/>
-      <c r="BM73" s="29"/>
+      <c r="BJ84" s="46"/>
+      <c r="BK84" s="48"/>
+      <c r="BL84" s="29"/>
+      <c r="BM84" s="29"/>
     </row>
-    <row r="74" spans="2:67" x14ac:dyDescent="0.35">
-      <c r="BH74" s="46"/>
-      <c r="BI74" s="46"/>
-      <c r="BJ74" s="46"/>
-      <c r="BK74" s="49"/>
-      <c r="BL74" s="29"/>
-      <c r="BM74" s="29"/>
+    <row r="85" spans="60:65" x14ac:dyDescent="0.3">
+      <c r="BH85" s="46"/>
+      <c r="BI85" s="46"/>
+      <c r="BJ85" s="46"/>
+      <c r="BK85" s="48"/>
+      <c r="BL85" s="29"/>
+      <c r="BM85" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13744,7 +14296,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13757,7 +14309,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/initializationData/GliderMission.xlsx
+++ b/initializationData/GliderMission.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laytonc\Documents\GitHub\gliderMetadata\initializationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069B768F-339B-4439-9DD9-F6E283AB5CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958B208C-C305-47D3-B6ED-39D9A97E052A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="18060" windowHeight="11796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="564" windowWidth="18060" windowHeight="11796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="547">
   <si>
     <t>Deployment date</t>
   </si>
@@ -1651,9 +1651,6 @@
     <t>GLI2023_SEA024_75</t>
   </si>
   <si>
-    <t>5-Mar-17</t>
-  </si>
-  <si>
     <t>20230314</t>
   </si>
   <si>
@@ -1664,9 +1661,6 @@
   </si>
   <si>
     <t>GLI2023_SEA022_91</t>
-  </si>
-  <si>
-    <t>19-Dec-16</t>
   </si>
   <si>
     <t>20221221</t>
@@ -2653,10 +2647,10 @@
   <dimension ref="A1:BO85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="BK3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AS54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BM20" sqref="BM20"/>
+      <selection pane="bottomRight" activeCell="AV68" sqref="AV68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13202,7 +13196,7 @@
         <v>529</v>
       </c>
       <c r="C64" s="108" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D64" s="109" t="s">
         <v>24</v>
@@ -13244,7 +13238,7 @@
         <v>-62.02</v>
       </c>
       <c r="Q64" s="105" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="R64" s="105">
         <v>18.899999999999999</v>
@@ -13376,10 +13370,10 @@
         <v>5</v>
       </c>
       <c r="B65" s="108" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C65" s="108" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D65" s="109" t="s">
         <v>44</v>
@@ -13394,7 +13388,7 @@
         <v>15</v>
       </c>
       <c r="H65" s="106" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I65" s="105">
         <v>29.2</v>
@@ -13421,7 +13415,7 @@
         <v>-61.41</v>
       </c>
       <c r="Q65" s="105" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="R65" s="105">
         <v>24.9</v>
@@ -13491,7 +13485,7 @@
         <v>83</v>
       </c>
       <c r="AQ65" s="111" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AR65" s="111"/>
       <c r="AS65" s="111"/>
@@ -13499,8 +13493,8 @@
       <c r="AU65" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="AV65" s="111" t="s">
-        <v>537</v>
+      <c r="AV65" s="112">
+        <v>42723</v>
       </c>
       <c r="AW65" s="113" t="s">
         <v>481</v>
@@ -13539,7 +13533,7 @@
         <v>208</v>
       </c>
       <c r="BO65" s="116" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="66" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13547,10 +13541,10 @@
         <v>1</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>24</v>
@@ -13565,7 +13559,7 @@
         <v>15</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I66" s="2">
         <v>29.2</v>
@@ -13592,7 +13586,7 @@
         <v>-61.43</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="R66" s="2">
         <v>27</v>
@@ -13641,10 +13635,10 @@
         <v>20230330</v>
       </c>
       <c r="AI66" s="18" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AJ66" s="18" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AK66" s="14">
         <v>29</v>
@@ -13809,8 +13803,8 @@
       <c r="AU67" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="AV67" s="22" t="s">
-        <v>532</v>
+      <c r="AV67" s="16">
+        <v>42799</v>
       </c>
       <c r="AW67" s="22" t="s">
         <v>168</v>
@@ -13843,7 +13837,7 @@
       </c>
       <c r="BJ67" s="120"/>
       <c r="BK67" s="120" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="BL67" s="2" t="s">
         <v>216</v>
@@ -13868,7 +13862,7 @@
         <v>15</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>

--- a/initializationData/GliderMission.xlsx
+++ b/initializationData/GliderMission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laytonc\Documents\GitHub\gliderMetadata\initializationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB2942B-53DA-4BC6-8308-AC4429F7C472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71DD7517-61B5-4DF9-8DB2-1A18297228CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2863,10 +2863,10 @@
   <dimension ref="A1:BP83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AS48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AJ48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BB65" sqref="BB65"/>
+      <selection pane="bottomRight" activeCell="AN66" sqref="AN66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13764,7 +13764,7 @@
         <v>81</v>
       </c>
       <c r="AN65" s="121" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="AO65" s="111" t="s">
         <v>218</v>

--- a/initializationData/GliderMission.xlsx
+++ b/initializationData/GliderMission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laytonc\Documents\GitHub\gliderMetadata\initializationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71DD7517-61B5-4DF9-8DB2-1A18297228CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F667AA0-50B2-4118-ACB0-1F774E9803F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="591">
   <si>
     <t>Deployment date</t>
   </si>
@@ -1642,9 +1642,6 @@
     <t>GLI2023_SEA022_91</t>
   </si>
   <si>
-    <t>20221221</t>
-  </si>
-  <si>
     <t>20230411</t>
   </si>
   <si>
@@ -1687,6 +1684,18 @@
     <t>GLI2023_SEA032_79</t>
   </si>
   <si>
+    <t>GLI2023_SEA022_93</t>
+  </si>
+  <si>
+    <t>3.5.3-r dataSplitSurf</t>
+  </si>
+  <si>
+    <t>20211222</t>
+  </si>
+  <si>
+    <t>20220219</t>
+  </si>
+  <si>
     <t>20230508</t>
   </si>
   <si>
@@ -1801,7 +1810,22 @@
     <t>200206 missing</t>
   </si>
   <si>
+    <t>Sigma-T/Teather RHIB</t>
+  </si>
+  <si>
     <t>3.4.0-r</t>
+  </si>
+  <si>
+    <t>First mission with nav firmware 3.5.3 where data file now split at surface and not 10m from surface, with auto ballast improvement option. Lots of comm issues at deployment. Did some drifts where Ecopuck did not work properly. Also did some test with new firmware commands (dive 606 to 617) Im not sure I understand what they are doing. back and forth in emerald basin on the way back, more drifts to test ecopuck and dives at 10 and 30 degrees for Alseamar related to ecopuck. Very low battery... bottoming at the end to wait for better weather. Low voltage alarm. recovered from the RHIB of the Teather in heavy weather. No duet data recorded because of a human error.</t>
+  </si>
+  <si>
+    <t>20230711</t>
+  </si>
+  <si>
+    <t>GL1-GL2-GL3-GL7-GL3-GL2-GL1-GL2-GL1-TRI</t>
+  </si>
+  <si>
+    <t>200206 no data</t>
   </si>
 </sst>
 </file>
@@ -1890,7 +1914,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1933,18 +1957,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2113,7 +2125,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2381,40 +2393,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2423,13 +2401,13 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2464,54 +2442,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -2860,13 +2791,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP83"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AJ48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="BD51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN66" sqref="AN66"/>
+      <selection pane="bottomRight" activeCell="BM65" sqref="BM65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3030,8 +2961,8 @@
       <c r="L2" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="M2" s="122" t="s">
-        <v>549</v>
+      <c r="M2" s="109" t="s">
+        <v>552</v>
       </c>
       <c r="N2" s="71" t="s">
         <v>7</v>
@@ -8782,7 +8713,7 @@
       <c r="L37" s="57">
         <v>-63.425199999999997</v>
       </c>
-      <c r="M37" s="123"/>
+      <c r="M37" s="110"/>
       <c r="N37" s="37">
         <v>42.54</v>
       </c>
@@ -9468,7 +9399,7 @@
       <c r="L41" s="57">
         <v>-52.982300000000002</v>
       </c>
-      <c r="M41" s="123"/>
+      <c r="M41" s="110"/>
       <c r="N41" s="37">
         <v>48.68</v>
       </c>
@@ -12762,7 +12693,7 @@
         <v>399</v>
       </c>
       <c r="BP59" s="21" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="60" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -12948,7 +12879,7 @@
         <v>208</v>
       </c>
       <c r="BP60" s="21" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="61" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -13048,7 +12979,7 @@
         <v>20220331</v>
       </c>
       <c r="AJ61" s="37" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="AK61" s="37" t="s">
         <v>496</v>
@@ -13106,7 +13037,7 @@
       <c r="BJ61" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="BK61" s="118">
+      <c r="BK61" s="106">
         <v>200206</v>
       </c>
       <c r="BL61" s="3"/>
@@ -13123,301 +13054,301 @@
         <v>511</v>
       </c>
     </row>
-    <row r="62" spans="1:68" s="138" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="138">
+    <row r="62" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="23">
         <v>2</v>
       </c>
-      <c r="B62" s="144">
+      <c r="B62" s="48">
         <v>20220908</v>
       </c>
-      <c r="C62" s="140" t="s">
+      <c r="C62" s="34" t="s">
         <v>517</v>
       </c>
-      <c r="D62" s="141" t="s">
+      <c r="D62" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="141">
+      <c r="E62" s="35">
         <v>88</v>
       </c>
-      <c r="F62" s="141">
+      <c r="F62" s="35">
         <v>4800993</v>
       </c>
-      <c r="G62" s="141" t="s">
+      <c r="G62" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H62" s="142" t="s">
+      <c r="H62" s="37" t="s">
         <v>520</v>
       </c>
-      <c r="I62" s="139">
+      <c r="I62" s="3">
         <v>29</v>
       </c>
-      <c r="J62" s="139">
+      <c r="J62" s="3">
         <v>25.3</v>
       </c>
-      <c r="K62" s="141">
+      <c r="K62" s="35">
         <v>44.377899999999997</v>
       </c>
-      <c r="L62" s="141">
+      <c r="L62" s="35">
         <v>-63.333599999999997</v>
       </c>
-      <c r="M62" s="139"/>
-      <c r="N62" s="142">
+      <c r="M62" s="3"/>
+      <c r="N62" s="37">
         <v>42.47</v>
       </c>
-      <c r="O62" s="142">
+      <c r="O62" s="37">
         <v>-63.35</v>
       </c>
-      <c r="P62" s="142">
+      <c r="P62" s="37">
         <v>44.38</v>
       </c>
-      <c r="Q62" s="142">
+      <c r="Q62" s="37">
         <v>-61.43</v>
       </c>
-      <c r="R62" s="139" t="s">
+      <c r="R62" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="S62" s="139">
+      <c r="S62" s="3">
         <v>21</v>
       </c>
-      <c r="T62" s="139">
+      <c r="T62" s="3">
         <v>597</v>
       </c>
-      <c r="U62" s="139">
+      <c r="U62" s="3">
         <v>1098</v>
       </c>
-      <c r="V62" s="139">
+      <c r="V62" s="3">
         <v>1091</v>
       </c>
-      <c r="W62" s="142" t="s">
+      <c r="W62" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="X62" s="142" t="s">
+      <c r="X62" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="Y62" s="151" t="s">
+      <c r="Y62" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="Z62" s="142" t="s">
+      <c r="Z62" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="AA62" s="142"/>
-      <c r="AB62" s="142"/>
-      <c r="AC62" s="142"/>
-      <c r="AD62" s="142"/>
-      <c r="AE62" s="139">
+      <c r="AA62" s="37"/>
+      <c r="AB62" s="37"/>
+      <c r="AC62" s="37"/>
+      <c r="AD62" s="37"/>
+      <c r="AE62" s="3">
         <v>0</v>
       </c>
-      <c r="AF62" s="139">
+      <c r="AF62" s="3">
         <v>0</v>
       </c>
-      <c r="AG62" s="139">
+      <c r="AG62" s="3">
         <v>0</v>
       </c>
-      <c r="AH62" s="139">
+      <c r="AH62" s="3">
         <v>1021.9</v>
       </c>
-      <c r="AI62" s="142">
+      <c r="AI62" s="37">
         <v>20220902</v>
       </c>
-      <c r="AJ62" s="142" t="s">
-        <v>582</v>
-      </c>
-      <c r="AK62" s="142" t="s">
+      <c r="AJ62" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="AK62" s="37" t="s">
         <v>514</v>
       </c>
-      <c r="AL62" s="141">
+      <c r="AL62" s="35">
         <v>30</v>
       </c>
-      <c r="AM62" s="140" t="s">
+      <c r="AM62" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="AN62" s="143" t="s">
+      <c r="AN62" s="38" t="s">
         <v>428</v>
       </c>
-      <c r="AO62" s="143" t="s">
+      <c r="AO62" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="AP62" s="140" t="s">
+      <c r="AP62" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="AQ62" s="140" t="s">
+      <c r="AQ62" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="AR62" s="144">
+      <c r="AR62" s="48">
         <v>20210105</v>
       </c>
-      <c r="AS62" s="143"/>
-      <c r="AT62" s="143"/>
-      <c r="AU62" s="143"/>
-      <c r="AV62" s="140" t="s">
+      <c r="AS62" s="38"/>
+      <c r="AT62" s="38"/>
+      <c r="AU62" s="38"/>
+      <c r="AV62" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="AW62" s="145">
+      <c r="AW62" s="39">
         <v>42723</v>
       </c>
-      <c r="AX62" s="146" t="s">
+      <c r="AX62" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="AY62" s="143"/>
-      <c r="AZ62" s="143"/>
-      <c r="BA62" s="143"/>
-      <c r="BB62" s="143"/>
-      <c r="BC62" s="143"/>
-      <c r="BD62" s="143"/>
-      <c r="BE62" s="143"/>
-      <c r="BF62" s="143"/>
-      <c r="BG62" s="147" t="s">
+      <c r="AY62" s="38"/>
+      <c r="AZ62" s="38"/>
+      <c r="BA62" s="38"/>
+      <c r="BB62" s="38"/>
+      <c r="BC62" s="38"/>
+      <c r="BD62" s="38"/>
+      <c r="BE62" s="38"/>
+      <c r="BF62" s="38"/>
+      <c r="BG62" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="BH62" s="148" t="s">
+      <c r="BH62" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="BI62" s="146" t="s">
+      <c r="BI62" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="BJ62" s="143" t="s">
+      <c r="BJ62" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="BK62" s="150" t="s">
-        <v>581</v>
-      </c>
-      <c r="BL62" s="150"/>
-      <c r="BM62" s="141" t="s">
+      <c r="BK62" s="104" t="s">
+        <v>584</v>
+      </c>
+      <c r="BL62" s="104"/>
+      <c r="BM62" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BN62" s="139" t="s">
+      <c r="BN62" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="BO62" s="142" t="s">
+      <c r="BO62" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BP62" s="149" t="s">
-        <v>577</v>
+      <c r="BP62" s="43" t="s">
+        <v>580</v>
       </c>
     </row>
-    <row r="63" spans="1:68" s="107" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="107">
+    <row r="63" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="23">
         <v>3</v>
       </c>
-      <c r="B63" s="105">
+      <c r="B63" s="3">
         <v>20220915</v>
       </c>
-      <c r="C63" s="108" t="s">
+      <c r="C63" s="34" t="s">
         <v>519</v>
       </c>
-      <c r="D63" s="109" t="s">
+      <c r="D63" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E63" s="109">
+      <c r="E63" s="35">
         <v>73</v>
       </c>
       <c r="F63" s="35">
         <v>4800937</v>
       </c>
-      <c r="G63" s="109" t="s">
+      <c r="G63" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="106" t="s">
+      <c r="H63" s="37" t="s">
         <v>516</v>
       </c>
-      <c r="I63" s="110">
+      <c r="I63" s="48">
         <v>29.1</v>
       </c>
-      <c r="J63" s="105">
+      <c r="J63" s="3">
         <v>25.5</v>
       </c>
-      <c r="K63" s="109">
+      <c r="K63" s="35">
         <v>48.732999999999997</v>
       </c>
-      <c r="L63" s="109">
+      <c r="L63" s="35">
         <v>-52.953499999999998</v>
       </c>
-      <c r="M63" s="105"/>
-      <c r="N63" s="106">
+      <c r="M63" s="3"/>
+      <c r="N63" s="37">
         <v>47.76</v>
       </c>
-      <c r="O63" s="106">
+      <c r="O63" s="37">
         <v>-53.69</v>
       </c>
-      <c r="P63" s="106">
+      <c r="P63" s="37">
         <v>49.97</v>
       </c>
-      <c r="Q63" s="106">
+      <c r="Q63" s="37">
         <v>-50.76</v>
       </c>
-      <c r="R63" s="105" t="s">
-        <v>573</v>
-      </c>
-      <c r="S63" s="105">
+      <c r="R63" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="S63" s="3">
         <v>20</v>
       </c>
-      <c r="T63" s="105">
+      <c r="T63" s="3">
         <v>599</v>
       </c>
-      <c r="U63" s="105">
+      <c r="U63" s="3">
         <v>527</v>
       </c>
-      <c r="V63" s="105">
+      <c r="V63" s="3">
         <v>1054</v>
       </c>
-      <c r="W63" s="106" t="s">
+      <c r="W63" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="X63" s="106">
+      <c r="X63" s="37">
         <v>1</v>
       </c>
-      <c r="Y63" s="106" t="s">
+      <c r="Y63" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="Z63" s="106" t="s">
+      <c r="Z63" s="37" t="s">
         <v>188</v>
       </c>
       <c r="AA63" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="AB63" s="106"/>
-      <c r="AC63" s="106"/>
+      <c r="AB63" s="37"/>
+      <c r="AC63" s="37"/>
       <c r="AD63" s="37" t="s">
         <v>410</v>
       </c>
-      <c r="AE63" s="105">
+      <c r="AE63" s="3">
         <v>0</v>
       </c>
-      <c r="AF63" s="105">
+      <c r="AF63" s="3">
         <v>0</v>
       </c>
-      <c r="AG63" s="105">
+      <c r="AG63" s="3">
         <v>0</v>
       </c>
-      <c r="AH63" s="105">
+      <c r="AH63" s="3">
         <v>1024</v>
       </c>
-      <c r="AI63" s="106">
+      <c r="AI63" s="37">
         <v>20220506</v>
       </c>
-      <c r="AJ63" s="106" t="s">
-        <v>582</v>
-      </c>
-      <c r="AK63" s="106" t="s">
+      <c r="AJ63" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="AK63" s="37" t="s">
         <v>514</v>
       </c>
-      <c r="AL63" s="109">
+      <c r="AL63" s="35">
         <v>42</v>
       </c>
-      <c r="AM63" s="108" t="s">
+      <c r="AM63" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="AN63" s="111" t="s">
+      <c r="AN63" s="38" t="s">
         <v>504</v>
       </c>
-      <c r="AO63" s="111" t="s">
+      <c r="AO63" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AP63" s="108" t="s">
+      <c r="AP63" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="AQ63" s="108"/>
-      <c r="AR63" s="111"/>
+      <c r="AQ63" s="34"/>
+      <c r="AR63" s="38"/>
       <c r="AS63" s="38" t="s">
         <v>87</v>
       </c>
@@ -13433,398 +13364,398 @@
       <c r="AW63" s="39">
         <v>42859</v>
       </c>
-      <c r="AX63" s="111" t="s">
+      <c r="AX63" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AY63" s="111"/>
-      <c r="AZ63" s="111"/>
-      <c r="BA63" s="111"/>
-      <c r="BB63" s="111"/>
-      <c r="BC63" s="111"/>
-      <c r="BD63" s="111" t="s">
+      <c r="AY63" s="38"/>
+      <c r="AZ63" s="38"/>
+      <c r="BA63" s="38"/>
+      <c r="BB63" s="38"/>
+      <c r="BC63" s="38"/>
+      <c r="BD63" s="38" t="s">
         <v>415</v>
       </c>
-      <c r="BE63" s="113" t="s">
+      <c r="BE63" s="40" t="s">
         <v>416</v>
       </c>
-      <c r="BF63" s="111" t="s">
+      <c r="BF63" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="BG63" s="114" t="s">
+      <c r="BG63" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="BH63" s="115" t="s">
+      <c r="BH63" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="BI63" s="113" t="s">
+      <c r="BI63" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="BJ63" s="111" t="s">
-        <v>290</v>
-      </c>
-      <c r="BK63" s="111"/>
-      <c r="BL63" s="105"/>
-      <c r="BM63" s="109" t="s">
+      <c r="BJ63" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="BK63" s="38"/>
+      <c r="BL63" s="3"/>
+      <c r="BM63" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="BN63" s="109" t="s">
+      <c r="BN63" s="35" t="s">
         <v>515</v>
       </c>
-      <c r="BO63" s="106" t="s">
+      <c r="BO63" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="BP63" s="116"/>
+      <c r="BP63" s="43"/>
     </row>
-    <row r="64" spans="1:68" s="107" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="107">
+    <row r="64" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="23">
         <v>4</v>
       </c>
-      <c r="B64" s="108" t="s">
+      <c r="B64" s="34" t="s">
         <v>525</v>
       </c>
-      <c r="C64" s="108" t="s">
+      <c r="C64" s="34" t="s">
         <v>527</v>
       </c>
-      <c r="D64" s="109" t="s">
+      <c r="D64" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="109">
+      <c r="E64" s="35">
         <v>69</v>
       </c>
-      <c r="F64" s="109">
+      <c r="F64" s="35">
         <v>4800926</v>
       </c>
-      <c r="G64" s="109" t="s">
+      <c r="G64" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H64" s="106" t="s">
+      <c r="H64" s="37" t="s">
         <v>526</v>
       </c>
-      <c r="I64" s="105">
+      <c r="I64" s="3">
         <v>29.2</v>
       </c>
-      <c r="J64" s="105">
+      <c r="J64" s="3">
         <v>25.1</v>
       </c>
-      <c r="K64" s="109">
+      <c r="K64" s="35">
         <v>44.519300000000001</v>
       </c>
-      <c r="L64" s="109">
+      <c r="L64" s="35">
         <v>-63.410800000000002</v>
       </c>
-      <c r="M64" s="105"/>
-      <c r="N64" s="106">
+      <c r="M64" s="3"/>
+      <c r="N64" s="37">
         <v>43.03</v>
       </c>
-      <c r="O64" s="106">
+      <c r="O64" s="37">
         <v>-63.43</v>
       </c>
-      <c r="P64" s="106">
+      <c r="P64" s="37">
         <v>44.55</v>
       </c>
-      <c r="Q64" s="106">
+      <c r="Q64" s="37">
         <v>-61.98</v>
       </c>
-      <c r="R64" s="105" t="s">
-        <v>574</v>
-      </c>
-      <c r="S64" s="105">
+      <c r="R64" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="S64" s="3">
         <v>19</v>
       </c>
-      <c r="T64" s="105">
+      <c r="T64" s="3">
         <v>452</v>
       </c>
-      <c r="U64" s="105">
+      <c r="U64" s="3">
         <v>1238</v>
       </c>
-      <c r="V64" s="105">
+      <c r="V64" s="3">
         <v>2476</v>
       </c>
-      <c r="W64" s="106" t="s">
+      <c r="W64" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="X64" s="106">
+      <c r="X64" s="37">
         <v>1</v>
       </c>
-      <c r="Y64" s="106" t="s">
+      <c r="Y64" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="Z64" s="106" t="s">
+      <c r="Z64" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="AA64" s="106"/>
-      <c r="AB64" s="106"/>
-      <c r="AC64" s="106" t="s">
-        <v>538</v>
-      </c>
-      <c r="AD64" s="106"/>
-      <c r="AE64" s="105">
+      <c r="AA64" s="37"/>
+      <c r="AB64" s="37"/>
+      <c r="AC64" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="AD64" s="37"/>
+      <c r="AE64" s="3">
         <v>0</v>
       </c>
-      <c r="AF64" s="105">
+      <c r="AF64" s="3">
         <v>0</v>
       </c>
-      <c r="AG64" s="105">
+      <c r="AG64" s="3">
         <v>0</v>
       </c>
-      <c r="AH64" s="105">
+      <c r="AH64" s="3">
         <v>1024.9000000000001</v>
       </c>
-      <c r="AI64" s="106">
+      <c r="AI64" s="37">
         <v>20230208</v>
       </c>
-      <c r="AJ64" s="106" t="s">
+      <c r="AJ64" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="AK64" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="AL64" s="35">
+        <v>29</v>
+      </c>
+      <c r="AM64" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN64" s="38" t="s">
+        <v>521</v>
+      </c>
+      <c r="AO64" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP64" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ64" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR64" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="AS64" s="38"/>
+      <c r="AT64" s="38"/>
+      <c r="AU64" s="38"/>
+      <c r="AV64" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW64" s="39">
+        <v>42711</v>
+      </c>
+      <c r="AX64" s="40" t="s">
+        <v>535</v>
+      </c>
+      <c r="AY64" s="38"/>
+      <c r="AZ64" s="38"/>
+      <c r="BA64" s="38" t="s">
+        <v>522</v>
+      </c>
+      <c r="BB64" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="BC64" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="BD64" s="40"/>
+      <c r="BE64" s="40"/>
+      <c r="BF64" s="40"/>
+      <c r="BG64" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="BH64" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="BI64" s="105">
+        <v>201383</v>
+      </c>
+      <c r="BJ64" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="BK64" s="104">
+        <v>200206</v>
+      </c>
+      <c r="BL64" s="104"/>
+      <c r="BM64" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN64" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="BO64" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="BP64" s="43" t="s">
         <v>582</v>
       </c>
-      <c r="AK64" s="106" t="s">
-        <v>535</v>
-      </c>
-      <c r="AL64" s="109">
-        <v>29</v>
-      </c>
-      <c r="AM64" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN64" s="111" t="s">
-        <v>521</v>
-      </c>
-      <c r="AO64" s="111" t="s">
+    </row>
+    <row r="65" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="23">
+        <v>5</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>530</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>529</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="35">
+        <v>91</v>
+      </c>
+      <c r="F65" s="35">
+        <v>4800993</v>
+      </c>
+      <c r="G65" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="I65" s="3">
+        <v>29.2</v>
+      </c>
+      <c r="J65" s="3">
+        <v>24.6</v>
+      </c>
+      <c r="K65" s="35">
+        <v>44.378799999999998</v>
+      </c>
+      <c r="L65" s="35">
+        <v>-63.358800000000002</v>
+      </c>
+      <c r="M65" s="3"/>
+      <c r="N65" s="37">
+        <v>42.46</v>
+      </c>
+      <c r="O65" s="37">
+        <v>-63.4</v>
+      </c>
+      <c r="P65" s="37">
+        <v>44.53</v>
+      </c>
+      <c r="Q65" s="37">
+        <v>-61.4</v>
+      </c>
+      <c r="R65" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="S65" s="3">
+        <v>25</v>
+      </c>
+      <c r="T65" s="3">
+        <v>666</v>
+      </c>
+      <c r="U65" s="3">
+        <v>1181</v>
+      </c>
+      <c r="V65" s="3">
+        <v>1872</v>
+      </c>
+      <c r="W65" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="X65" s="37">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z65" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA65" s="37"/>
+      <c r="AB65" s="37"/>
+      <c r="AC65" s="37"/>
+      <c r="AD65" s="37"/>
+      <c r="AE65" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="3">
+        <v>1024.9000000000001</v>
+      </c>
+      <c r="AI65" s="37">
+        <v>20230308</v>
+      </c>
+      <c r="AJ65" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="AK65" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="AL65" s="35">
+        <v>30</v>
+      </c>
+      <c r="AM65" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN65" s="38" t="s">
+        <v>546</v>
+      </c>
+      <c r="AO65" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="AP64" s="108" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ64" s="108" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR64" s="111" t="s">
-        <v>537</v>
-      </c>
-      <c r="AS64" s="111"/>
-      <c r="AT64" s="111"/>
-      <c r="AU64" s="111"/>
-      <c r="AV64" s="108" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW64" s="112">
-        <v>42711</v>
-      </c>
-      <c r="AX64" s="113" t="s">
-        <v>168</v>
-      </c>
-      <c r="AY64" s="111"/>
-      <c r="AZ64" s="111"/>
-      <c r="BA64" s="111" t="s">
-        <v>522</v>
-      </c>
-      <c r="BB64" s="111" t="s">
-        <v>523</v>
-      </c>
-      <c r="BC64" s="111" t="s">
-        <v>481</v>
-      </c>
-      <c r="BD64" s="113"/>
-      <c r="BE64" s="113"/>
-      <c r="BF64" s="113"/>
-      <c r="BG64" s="114" t="s">
-        <v>235</v>
-      </c>
-      <c r="BH64" s="115" t="s">
-        <v>174</v>
-      </c>
-      <c r="BI64" s="154">
-        <v>201383</v>
-      </c>
-      <c r="BJ64" s="105" t="s">
-        <v>524</v>
-      </c>
-      <c r="BK64" s="118">
-        <v>200206</v>
-      </c>
-      <c r="BL64" s="118"/>
-      <c r="BM64" s="105" t="s">
-        <v>212</v>
-      </c>
-      <c r="BN64" s="105" t="s">
-        <v>515</v>
-      </c>
-      <c r="BO64" s="106" t="s">
-        <v>203</v>
-      </c>
-      <c r="BP64" s="116" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="65" spans="1:68" s="107" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="107">
-        <v>5</v>
-      </c>
-      <c r="B65" s="108" t="s">
-        <v>531</v>
-      </c>
-      <c r="C65" s="108" t="s">
-        <v>530</v>
-      </c>
-      <c r="D65" s="109" t="s">
-        <v>44</v>
-      </c>
-      <c r="E65" s="109">
-        <v>91</v>
-      </c>
-      <c r="F65" s="109">
-        <v>4800993</v>
-      </c>
-      <c r="G65" s="109" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="106" t="s">
-        <v>528</v>
-      </c>
-      <c r="I65" s="105">
-        <v>29.2</v>
-      </c>
-      <c r="J65" s="105">
-        <v>24.6</v>
-      </c>
-      <c r="K65" s="109">
-        <v>44.378799999999998</v>
-      </c>
-      <c r="L65" s="109">
-        <v>-63.358800000000002</v>
-      </c>
-      <c r="M65" s="105"/>
-      <c r="N65" s="106">
-        <v>42.46</v>
-      </c>
-      <c r="O65" s="106">
-        <v>-63.4</v>
-      </c>
-      <c r="P65" s="106">
-        <v>44.53</v>
-      </c>
-      <c r="Q65" s="106">
-        <v>-61.4</v>
-      </c>
-      <c r="R65" s="105" t="s">
-        <v>575</v>
-      </c>
-      <c r="S65" s="105">
-        <v>25</v>
-      </c>
-      <c r="T65" s="105">
-        <v>666</v>
-      </c>
-      <c r="U65" s="105">
-        <v>1181</v>
-      </c>
-      <c r="V65" s="105">
-        <v>1872</v>
-      </c>
-      <c r="W65" s="106" t="s">
-        <v>36</v>
-      </c>
-      <c r="X65" s="106">
-        <v>1</v>
-      </c>
-      <c r="Y65" s="106" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z65" s="106" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA65" s="106"/>
-      <c r="AB65" s="106"/>
-      <c r="AC65" s="106"/>
-      <c r="AD65" s="106"/>
-      <c r="AE65" s="105">
-        <v>2</v>
-      </c>
-      <c r="AF65" s="105">
-        <v>0</v>
-      </c>
-      <c r="AG65" s="105">
-        <v>0</v>
-      </c>
-      <c r="AH65" s="105">
-        <v>1024.9000000000001</v>
-      </c>
-      <c r="AI65" s="106">
-        <v>20230308</v>
-      </c>
-      <c r="AJ65" s="106" t="s">
-        <v>582</v>
-      </c>
-      <c r="AK65" s="106" t="s">
-        <v>535</v>
-      </c>
-      <c r="AL65" s="109">
-        <v>30</v>
-      </c>
-      <c r="AM65" s="108" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN65" s="121" t="s">
-        <v>537</v>
-      </c>
-      <c r="AO65" s="111" t="s">
-        <v>218</v>
-      </c>
-      <c r="AP65" s="108" t="s">
+      <c r="AP65" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="AQ65" s="108" t="s">
+      <c r="AQ65" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="AR65" s="121" t="s">
-        <v>529</v>
-      </c>
-      <c r="AS65" s="111"/>
-      <c r="AT65" s="111"/>
-      <c r="AU65" s="111"/>
-      <c r="AV65" s="108" t="s">
+      <c r="AR65" s="38" t="s">
+        <v>545</v>
+      </c>
+      <c r="AS65" s="38"/>
+      <c r="AT65" s="38"/>
+      <c r="AU65" s="38"/>
+      <c r="AV65" s="34" t="s">
         <v>80</v>
       </c>
       <c r="AW65" s="39">
         <v>42723</v>
       </c>
-      <c r="AX65" s="113" t="s">
-        <v>481</v>
-      </c>
-      <c r="AY65" s="111"/>
-      <c r="AZ65" s="111"/>
-      <c r="BA65" s="111"/>
-      <c r="BB65" s="111"/>
-      <c r="BC65" s="111"/>
-      <c r="BD65" s="113"/>
-      <c r="BE65" s="113"/>
-      <c r="BF65" s="113"/>
-      <c r="BG65" s="114" t="s">
+      <c r="AX65" s="40" t="s">
+        <v>535</v>
+      </c>
+      <c r="AY65" s="38"/>
+      <c r="AZ65" s="38"/>
+      <c r="BA65" s="38"/>
+      <c r="BB65" s="38"/>
+      <c r="BC65" s="38"/>
+      <c r="BD65" s="40"/>
+      <c r="BE65" s="40"/>
+      <c r="BF65" s="40"/>
+      <c r="BG65" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="BH65" s="115" t="s">
+      <c r="BH65" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="BI65" s="152">
+      <c r="BI65" s="105">
         <v>162640</v>
       </c>
-      <c r="BJ65" s="105" t="s">
+      <c r="BJ65" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="BK65" s="105">
+      <c r="BK65" s="3">
         <v>201189</v>
       </c>
-      <c r="BL65" s="118"/>
-      <c r="BM65" s="105" t="s">
+      <c r="BL65" s="104"/>
+      <c r="BM65" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="BN65" s="105" t="s">
+      <c r="BN65" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="BO65" s="106" t="s">
+      <c r="BO65" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="BP65" s="116" t="s">
-        <v>580</v>
+      <c r="BP65" s="43" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="66" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13832,10 +13763,10 @@
         <v>1</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>24</v>
@@ -13850,7 +13781,7 @@
         <v>15</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I66" s="2">
         <v>29.2</v>
@@ -13878,7 +13809,7 @@
         <v>-61.43</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="S66" s="2">
         <v>27</v>
@@ -13908,7 +13839,7 @@
       <c r="AA66" s="18"/>
       <c r="AB66" s="18"/>
       <c r="AC66" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AD66" s="18"/>
       <c r="AE66" s="2">
@@ -13927,10 +13858,10 @@
         <v>20230330</v>
       </c>
       <c r="AJ66" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="AK66" s="18" t="s">
         <v>534</v>
-      </c>
-      <c r="AK66" s="18" t="s">
-        <v>535</v>
       </c>
       <c r="AL66" s="14">
         <v>29</v>
@@ -13951,7 +13882,7 @@
         <v>72</v>
       </c>
       <c r="AR66" s="22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AS66" s="22"/>
       <c r="AT66" s="22"/>
@@ -13963,7 +13894,7 @@
         <v>42711</v>
       </c>
       <c r="AX66" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AY66" s="22"/>
       <c r="AZ66" s="22"/>
@@ -13985,17 +13916,17 @@
       <c r="BH66" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="BI66" s="155">
+      <c r="BI66" s="50">
         <v>201383</v>
       </c>
       <c r="BJ66" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="BK66" s="119">
+      <c r="BK66" s="107">
         <v>200206</v>
       </c>
-      <c r="BL66" s="119" t="s">
-        <v>572</v>
+      <c r="BL66" s="107" t="s">
+        <v>575</v>
       </c>
       <c r="BM66" s="2" t="s">
         <v>212</v>
@@ -14007,7 +13938,7 @@
         <v>203</v>
       </c>
       <c r="BP66" s="21" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="67" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14015,10 +13946,10 @@
         <v>2</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>53</v>
@@ -14033,7 +13964,7 @@
         <v>15</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I67" s="2">
         <v>29.2</v>
@@ -14061,7 +13992,7 @@
         <v>-61.49</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="S67" s="2">
         <v>21</v>
@@ -14108,10 +14039,10 @@
         <v>20230510</v>
       </c>
       <c r="AJ67" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AK67" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AL67" s="14">
         <v>32</v>
@@ -14120,7 +14051,7 @@
         <v>76</v>
       </c>
       <c r="AN67" s="22" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AO67" s="22" t="s">
         <v>218</v>
@@ -14132,7 +14063,7 @@
         <v>78</v>
       </c>
       <c r="AR67" s="22" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AS67" s="22"/>
       <c r="AT67" s="22"/>
@@ -14144,7 +14075,7 @@
         <v>42711</v>
       </c>
       <c r="AX67" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AY67" s="22"/>
       <c r="AZ67" s="22"/>
@@ -14169,8 +14100,8 @@
       <c r="BK67" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="BL67" s="119" t="s">
-        <v>548</v>
+      <c r="BL67" s="107" t="s">
+        <v>551</v>
       </c>
       <c r="BM67" s="2" t="s">
         <v>212</v>
@@ -14182,82 +14113,188 @@
         <v>203</v>
       </c>
       <c r="BP67" s="21" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
-    <row r="68" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="120" t="s">
-        <v>99</v>
-      </c>
-      <c r="C68" s="34"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="37"/>
-      <c r="X68" s="37"/>
-      <c r="Y68" s="37"/>
-      <c r="Z68" s="37"/>
-      <c r="AA68" s="37"/>
-      <c r="AB68" s="37"/>
-      <c r="AC68" s="37"/>
-      <c r="AD68" s="37"/>
-      <c r="AE68" s="3"/>
-      <c r="AF68" s="3"/>
-      <c r="AG68" s="3"/>
-      <c r="AH68" s="3"/>
-      <c r="AI68" s="37"/>
-      <c r="AJ68" s="37"/>
-      <c r="AK68" s="37"/>
-      <c r="AL68" s="35"/>
-      <c r="AM68" s="34"/>
-      <c r="AN68" s="38"/>
-      <c r="AO68" s="38"/>
-      <c r="AP68" s="34"/>
-      <c r="AQ68" s="34"/>
-      <c r="AR68" s="38"/>
-      <c r="AS68" s="38"/>
-      <c r="AT68" s="38"/>
-      <c r="AU68" s="38"/>
-      <c r="AV68" s="34"/>
-      <c r="AW68" s="38"/>
-      <c r="AX68" s="38"/>
-      <c r="AY68" s="38"/>
-      <c r="AZ68" s="38"/>
-      <c r="BA68" s="38"/>
-      <c r="BB68" s="38"/>
-      <c r="BC68" s="38"/>
-      <c r="BD68" s="38"/>
-      <c r="BE68" s="38"/>
-      <c r="BF68" s="38"/>
-      <c r="BG68" s="34"/>
-      <c r="BH68" s="117"/>
-      <c r="BI68" s="153"/>
-      <c r="BJ68" s="104"/>
-      <c r="BK68" s="104"/>
-      <c r="BL68" s="104"/>
-      <c r="BM68" s="104"/>
-      <c r="BN68" s="104"/>
-      <c r="BO68" s="37"/>
-      <c r="BP68" s="43"/>
+    <row r="68" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
+        <v>3</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="14">
+        <v>93</v>
+      </c>
+      <c r="F68" s="14">
+        <v>4800993</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="I68" s="2">
+        <v>29.2</v>
+      </c>
+      <c r="J68" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="K68" s="14">
+        <v>44.377699999999997</v>
+      </c>
+      <c r="L68" s="14">
+        <v>-63.333500000000001</v>
+      </c>
+      <c r="M68" s="111">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="N68" s="18">
+        <v>42.45</v>
+      </c>
+      <c r="O68" s="18">
+        <v>-63.37</v>
+      </c>
+      <c r="P68" s="18">
+        <v>44.41</v>
+      </c>
+      <c r="Q68" s="18">
+        <v>-61.43</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="S68" s="2">
+        <v>28</v>
+      </c>
+      <c r="T68" s="2">
+        <v>736</v>
+      </c>
+      <c r="U68" s="2">
+        <v>1158</v>
+      </c>
+      <c r="V68" s="2">
+        <f>952*2</f>
+        <v>1904</v>
+      </c>
+      <c r="W68" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="X68" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z68" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA68" s="18"/>
+      <c r="AB68" s="18"/>
+      <c r="AC68" s="18"/>
+      <c r="AD68" s="18"/>
+      <c r="AE68" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF68" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG68" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH68" s="2">
+        <v>1023.75</v>
+      </c>
+      <c r="AI68" s="18">
+        <v>20230531</v>
+      </c>
+      <c r="AJ68" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="AK68" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="AL68" s="14">
+        <v>30</v>
+      </c>
+      <c r="AM68" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN68" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="AO68" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP68" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ68" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR68" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="AS68" s="22"/>
+      <c r="AT68" s="22"/>
+      <c r="AU68" s="22"/>
+      <c r="AV68" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW68" s="39">
+        <v>42723</v>
+      </c>
+      <c r="AX68" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="AY68" s="22"/>
+      <c r="AZ68" s="22"/>
+      <c r="BA68" s="22"/>
+      <c r="BB68" s="22"/>
+      <c r="BC68" s="22"/>
+      <c r="BD68" s="22"/>
+      <c r="BE68" s="22"/>
+      <c r="BF68" s="22"/>
+      <c r="BG68" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="BH68" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="BI68" s="50">
+        <v>201383</v>
+      </c>
+      <c r="BJ68" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="BK68" s="107" t="s">
+        <v>590</v>
+      </c>
+      <c r="BL68" s="107"/>
+      <c r="BM68" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN68" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="BO68" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="BP68" s="21" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="69" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="34"/>
+      <c r="B69" s="108" t="s">
+        <v>99</v>
+      </c>
       <c r="C69" s="34"/>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -14315,8 +14352,8 @@
       <c r="BE69" s="38"/>
       <c r="BF69" s="38"/>
       <c r="BG69" s="34"/>
-      <c r="BH69" s="117"/>
-      <c r="BI69" s="153"/>
+      <c r="BH69" s="105"/>
+      <c r="BI69" s="126"/>
       <c r="BJ69" s="104"/>
       <c r="BK69" s="104"/>
       <c r="BL69" s="104"/>
@@ -14325,129 +14362,198 @@
       <c r="BO69" s="37"/>
       <c r="BP69" s="43"/>
     </row>
-    <row r="76" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="BI76" s="100" t="s">
-        <v>492</v>
-      </c>
-      <c r="BJ76" s="38"/>
-      <c r="BK76" s="38"/>
-      <c r="BL76" s="3"/>
-      <c r="BM76" s="35"/>
-      <c r="BN76" s="35"/>
+    <row r="70" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="37"/>
+      <c r="X70" s="37"/>
+      <c r="Y70" s="37"/>
+      <c r="Z70" s="37"/>
+      <c r="AA70" s="37"/>
+      <c r="AB70" s="37"/>
+      <c r="AC70" s="37"/>
+      <c r="AD70" s="37"/>
+      <c r="AE70" s="3"/>
+      <c r="AF70" s="3"/>
+      <c r="AG70" s="3"/>
+      <c r="AH70" s="3"/>
+      <c r="AI70" s="37"/>
+      <c r="AJ70" s="37"/>
+      <c r="AK70" s="37"/>
+      <c r="AL70" s="35"/>
+      <c r="AM70" s="34"/>
+      <c r="AN70" s="38"/>
+      <c r="AO70" s="38"/>
+      <c r="AP70" s="34"/>
+      <c r="AQ70" s="34"/>
+      <c r="AR70" s="38"/>
+      <c r="AS70" s="38"/>
+      <c r="AT70" s="38"/>
+      <c r="AU70" s="38"/>
+      <c r="AV70" s="34"/>
+      <c r="AW70" s="38"/>
+      <c r="AX70" s="38"/>
+      <c r="AY70" s="38"/>
+      <c r="AZ70" s="38"/>
+      <c r="BA70" s="38"/>
+      <c r="BB70" s="38"/>
+      <c r="BC70" s="38"/>
+      <c r="BD70" s="38"/>
+      <c r="BE70" s="38"/>
+      <c r="BF70" s="38"/>
+      <c r="BG70" s="34"/>
+      <c r="BH70" s="105"/>
+      <c r="BI70" s="126"/>
+      <c r="BJ70" s="104"/>
+      <c r="BK70" s="104"/>
+      <c r="BL70" s="104"/>
+      <c r="BM70" s="104"/>
+      <c r="BN70" s="104"/>
+      <c r="BO70" s="37"/>
+      <c r="BP70" s="43"/>
     </row>
     <row r="77" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="BI77" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="BJ77" s="62" t="s">
-        <v>330</v>
-      </c>
-      <c r="BK77" s="38" t="s">
-        <v>481</v>
-      </c>
-      <c r="BL77" s="3">
-        <v>3.53</v>
-      </c>
-      <c r="BM77" s="35">
-        <v>84</v>
-      </c>
+      <c r="BI77" s="100" t="s">
+        <v>492</v>
+      </c>
+      <c r="BJ77" s="38"/>
+      <c r="BK77" s="38"/>
+      <c r="BL77" s="3"/>
+      <c r="BM77" s="35"/>
       <c r="BN77" s="35"/>
     </row>
     <row r="78" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="BI78" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="BJ78" s="102" t="s">
-        <v>281</v>
-      </c>
-      <c r="BK78" s="40" t="s">
-        <v>482</v>
+      <c r="BI78" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ78" s="62" t="s">
+        <v>330</v>
+      </c>
+      <c r="BK78" s="38" t="s">
+        <v>481</v>
       </c>
       <c r="BL78" s="3">
-        <v>3.28</v>
+        <v>3.53</v>
       </c>
       <c r="BM78" s="35">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="BN78" s="35"/>
     </row>
     <row r="79" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="BI79" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="BJ79" s="62" t="s">
-        <v>329</v>
-      </c>
-      <c r="BK79" s="38" t="s">
-        <v>481</v>
+      <c r="BI79" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="BJ79" s="102" t="s">
+        <v>281</v>
+      </c>
+      <c r="BK79" s="40" t="s">
+        <v>482</v>
       </c>
       <c r="BL79" s="3">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="BM79" s="35">
-        <v>85</v>
-      </c>
-      <c r="BN79" s="35" t="s">
-        <v>493</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="BN79" s="35"/>
     </row>
     <row r="80" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="BI80" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="BJ80" s="60" t="s">
-        <v>328</v>
-      </c>
-      <c r="BK80" s="46" t="s">
-        <v>491</v>
-      </c>
-      <c r="BL80" s="48">
-        <v>3.16</v>
-      </c>
-      <c r="BM80" s="29">
-        <v>25</v>
-      </c>
-      <c r="BN80" s="29"/>
+      <c r="BI80" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ80" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="BK80" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="BL80" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="BM80" s="35">
+        <v>85</v>
+      </c>
+      <c r="BN80" s="35" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="81" spans="61:66" x14ac:dyDescent="0.3">
-      <c r="BI81" s="98" t="s">
-        <v>282</v>
-      </c>
-      <c r="BJ81" s="99" t="s">
-        <v>290</v>
+      <c r="BI81" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ81" s="60" t="s">
+        <v>328</v>
       </c>
       <c r="BK81" s="46" t="s">
-        <v>457</v>
+        <v>491</v>
       </c>
       <c r="BL81" s="48">
-        <v>2.64</v>
+        <v>3.16</v>
       </c>
       <c r="BM81" s="29">
-        <v>43</v>
-      </c>
-      <c r="BN81" s="101" t="s">
-        <v>494</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="BN81" s="29"/>
     </row>
     <row r="82" spans="61:66" x14ac:dyDescent="0.3">
-      <c r="BI82" s="46" t="s">
-        <v>327</v>
-      </c>
-      <c r="BJ82" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="BK82" s="46"/>
-      <c r="BL82" s="48"/>
-      <c r="BM82" s="29"/>
-      <c r="BN82" s="29"/>
+      <c r="BI82" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="BJ82" s="99" t="s">
+        <v>290</v>
+      </c>
+      <c r="BK82" s="46" t="s">
+        <v>457</v>
+      </c>
+      <c r="BL82" s="48">
+        <v>2.64</v>
+      </c>
+      <c r="BM82" s="29">
+        <v>43</v>
+      </c>
+      <c r="BN82" s="101" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="83" spans="61:66" x14ac:dyDescent="0.3">
-      <c r="BI83" s="46"/>
-      <c r="BJ83" s="46"/>
+      <c r="BI83" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="BJ83" s="59" t="s">
+        <v>119</v>
+      </c>
       <c r="BK83" s="46"/>
       <c r="BL83" s="48"/>
       <c r="BM83" s="29"/>
       <c r="BN83" s="29"/>
+    </row>
+    <row r="84" spans="61:66" x14ac:dyDescent="0.3">
+      <c r="BI84" s="46"/>
+      <c r="BJ84" s="46"/>
+      <c r="BK84" s="46"/>
+      <c r="BL84" s="48"/>
+      <c r="BM84" s="29"/>
+      <c r="BN84" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14474,45 +14580,45 @@
   <sheetData>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:5" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="130" t="s">
-        <v>551</v>
-      </c>
-      <c r="B4" s="131" t="s">
-        <v>550</v>
-      </c>
-      <c r="C4" s="131" t="s">
-        <v>571</v>
-      </c>
-      <c r="D4" s="131" t="s">
+      <c r="A4" s="118" t="s">
         <v>554</v>
       </c>
-      <c r="E4" s="132" t="s">
-        <v>552</v>
+      <c r="B4" s="119" t="s">
+        <v>553</v>
+      </c>
+      <c r="C4" s="119" t="s">
+        <v>574</v>
+      </c>
+      <c r="D4" s="119" t="s">
+        <v>557</v>
+      </c>
+      <c r="E4" s="120" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="128" t="s">
+      <c r="B5" s="116" t="s">
+        <v>559</v>
+      </c>
+      <c r="C5" s="121">
+        <v>40</v>
+      </c>
+      <c r="D5" s="121">
+        <v>0</v>
+      </c>
+      <c r="E5" s="117" t="s">
         <v>556</v>
-      </c>
-      <c r="C5" s="133">
-        <v>40</v>
-      </c>
-      <c r="D5" s="133">
-        <v>0</v>
-      </c>
-      <c r="E5" s="129" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="125" t="s">
-        <v>555</v>
+      <c r="B6" s="113" t="s">
+        <v>558</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -14521,24 +14627,24 @@
         <v>0</v>
       </c>
       <c r="E6" s="104" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="135" t="s">
-        <v>555</v>
-      </c>
-      <c r="C7" s="137">
+      <c r="B7" s="123" t="s">
+        <v>558</v>
+      </c>
+      <c r="C7" s="125">
         <v>10</v>
       </c>
-      <c r="D7" s="137">
+      <c r="D7" s="125">
         <v>0</v>
       </c>
-      <c r="E7" s="136" t="s">
-        <v>567</v>
+      <c r="E7" s="124" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -14546,7 +14652,7 @@
         <v>180</v>
       </c>
       <c r="B8" s="104" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C8" s="3">
         <v>85</v>
@@ -14555,49 +14661,49 @@
         <v>0</v>
       </c>
       <c r="E8" s="104" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="122" t="s">
         <v>241</v>
       </c>
-      <c r="B9" s="135" t="s">
-        <v>559</v>
-      </c>
-      <c r="C9" s="137">
+      <c r="B9" s="123" t="s">
+        <v>562</v>
+      </c>
+      <c r="C9" s="125">
         <v>15</v>
       </c>
-      <c r="D9" s="137" t="s">
-        <v>560</v>
-      </c>
-      <c r="E9" s="136" t="s">
-        <v>558</v>
+      <c r="D9" s="125" t="s">
+        <v>563</v>
+      </c>
+      <c r="E9" s="124" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="122" t="s">
         <v>313</v>
       </c>
-      <c r="B10" s="135" t="s">
-        <v>561</v>
-      </c>
-      <c r="C10" s="137">
+      <c r="B10" s="123" t="s">
+        <v>564</v>
+      </c>
+      <c r="C10" s="125">
         <v>7</v>
       </c>
-      <c r="D10" s="137">
+      <c r="D10" s="125">
         <v>0</v>
       </c>
-      <c r="E10" s="136" t="s">
-        <v>569</v>
+      <c r="E10" s="124" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>423</v>
       </c>
-      <c r="B11" s="126" t="s">
-        <v>562</v>
+      <c r="B11" s="114" t="s">
+        <v>565</v>
       </c>
       <c r="C11" s="3">
         <v>110</v>
@@ -14606,28 +14712,28 @@
         <v>0</v>
       </c>
       <c r="E11" s="104" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>501</v>
       </c>
-      <c r="B12" s="125" t="s">
-        <v>563</v>
+      <c r="B12" s="113" t="s">
+        <v>566</v>
       </c>
       <c r="C12" s="3">
         <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="124"/>
+      <c r="B14" s="112"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/initializationData/GliderMission.xlsx
+++ b/initializationData/GliderMission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laytonc\Documents\GitHub\gliderMetadata\initializationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794E2A4C-8DFD-447F-9B17-89DE42814051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CBB68DA-8F96-436C-93BD-93BE884F1A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26115" yWindow="1965" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33330" yWindow="3540" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="707">
   <si>
     <t>Deployment date</t>
   </si>
@@ -1430,9 +1430,6 @@
   </si>
   <si>
     <t>20230314</t>
-  </si>
-  <si>
-    <t>19-Dec-16</t>
   </si>
   <si>
     <t>20230411</t>
@@ -3175,10 +3172,10 @@
   <dimension ref="A1:CX90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="BP71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AQ35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BP85" sqref="BP85"/>
+      <selection pane="bottomRight" activeCell="AW75" sqref="AW75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3346,7 +3343,7 @@
         <v>207</v>
       </c>
       <c r="M2" s="98" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N2" s="66" t="s">
         <v>7</v>
@@ -3499,7 +3496,7 @@
         <v>225</v>
       </c>
       <c r="BL2" s="70" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="BM2" s="32" t="s">
         <v>41</v>
@@ -3511,7 +3508,7 @@
         <v>196</v>
       </c>
       <c r="BP2" s="75" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="BQ2" s="76" t="s">
         <v>12</v>
@@ -3540,7 +3537,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I3" s="13">
         <v>29.2</v>
@@ -3712,7 +3709,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I4" s="2">
         <v>29.2</v>
@@ -3884,7 +3881,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I5" s="3">
         <v>29.2</v>
@@ -4058,7 +4055,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I6" s="3">
         <v>29.2</v>
@@ -4231,7 +4228,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I7" s="3">
         <v>29.2</v>
@@ -4405,7 +4402,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I8" s="3">
         <v>29.2</v>
@@ -4577,7 +4574,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I9" s="3">
         <v>29.3</v>
@@ -4749,7 +4746,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I10" s="3">
         <v>29.2</v>
@@ -4921,7 +4918,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>62</v>
@@ -5093,7 +5090,7 @@
         <v>15</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>62</v>
@@ -5269,7 +5266,7 @@
         <v>129</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I13" s="3">
         <v>29.2</v>
@@ -5443,7 +5440,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I14" s="3">
         <v>29.1</v>
@@ -5615,7 +5612,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I15" s="3">
         <v>29.2</v>
@@ -5791,7 +5788,7 @@
         <v>15</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I16" s="3">
         <v>29.2</v>
@@ -5965,7 +5962,7 @@
         <v>15</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I17" s="3">
         <v>29.2</v>
@@ -6138,7 +6135,7 @@
         <v>15</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I18" s="2">
         <v>29.2</v>
@@ -6311,7 +6308,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I19" s="2">
         <v>29.1</v>
@@ -6478,7 +6475,7 @@
         <v>15</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I20" s="2">
         <v>29.3</v>
@@ -6651,7 +6648,7 @@
         <v>15</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I21" s="2">
         <v>29.2</v>
@@ -6825,7 +6822,7 @@
         <v>15</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I22" s="2">
         <v>29.2</v>
@@ -6999,7 +6996,7 @@
         <v>15</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I23" s="2">
         <v>29.2</v>
@@ -7173,7 +7170,7 @@
         <v>157</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I24" s="55">
         <v>29</v>
@@ -7345,7 +7342,7 @@
         <v>15</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I25" s="2">
         <v>29.2</v>
@@ -7516,7 +7513,7 @@
         <v>15</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I26" s="2">
         <v>29.2</v>
@@ -7691,7 +7688,7 @@
         <v>129</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I27" s="2">
         <v>29.2</v>
@@ -7862,7 +7859,7 @@
         <v>15</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I28" s="2">
         <v>29.2</v>
@@ -8036,7 +8033,7 @@
         <v>214</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I29" s="2">
         <v>29.2</v>
@@ -8195,7 +8192,7 @@
         <v>15</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I30" s="2">
         <v>29.1</v>
@@ -8369,7 +8366,7 @@
         <v>15</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I31" s="2">
         <v>29.2</v>
@@ -8542,7 +8539,7 @@
         <v>15</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I32" s="2">
         <v>29</v>
@@ -8868,7 +8865,7 @@
         <v>15</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I35" s="3">
         <v>29.1</v>
@@ -9042,7 +9039,7 @@
         <v>15</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I36" s="3">
         <v>29.3</v>
@@ -9217,7 +9214,7 @@
         <v>214</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I37" s="3">
         <v>29.2</v>
@@ -9380,7 +9377,7 @@
         <v>129</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I38" s="3">
         <v>28.5</v>
@@ -9556,7 +9553,7 @@
         <v>129</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I39" s="3">
         <v>29.1</v>
@@ -9732,7 +9729,7 @@
         <v>129</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I40" s="3">
         <v>29.1</v>
@@ -9908,7 +9905,7 @@
         <v>15</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I41" s="3">
         <v>29.1</v>
@@ -10091,7 +10088,7 @@
         <v>15</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I42" s="3">
         <v>29.2</v>
@@ -10264,7 +10261,7 @@
         <v>15</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I43" s="3">
         <v>29.1</v>
@@ -10435,7 +10432,7 @@
         <v>15</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I44" s="3">
         <v>29.1</v>
@@ -10584,7 +10581,7 @@
         <v>361</v>
       </c>
       <c r="BQ44" s="43" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="45" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -10610,7 +10607,7 @@
         <v>15</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I45" s="2">
         <v>29.1</v>
@@ -10783,7 +10780,7 @@
         <v>15</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I46" s="2">
         <v>29.1</v>
@@ -10957,7 +10954,7 @@
         <v>15</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I47" s="2">
         <v>29</v>
@@ -11130,7 +11127,7 @@
         <v>214</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I48" s="2">
         <v>29.2</v>
@@ -11303,7 +11300,7 @@
         <v>129</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I49" s="2">
         <v>28.9</v>
@@ -11487,7 +11484,7 @@
         <v>15</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I50" s="2">
         <v>29.1</v>
@@ -11660,7 +11657,7 @@
         <v>214</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I51" s="2">
         <v>29.2</v>
@@ -11833,7 +11830,7 @@
         <v>129</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I52" s="2">
         <v>28.8</v>
@@ -12017,7 +12014,7 @@
         <v>129</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I53" s="2">
         <v>28.9</v>
@@ -12200,7 +12197,7 @@
         <v>15</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I54" s="2">
         <v>29.1</v>
@@ -12375,7 +12372,7 @@
         <v>214</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I55" s="2">
         <v>29.2</v>
@@ -12550,7 +12547,7 @@
         <v>129</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I56" s="2">
         <v>28.9</v>
@@ -12738,7 +12735,7 @@
         <v>15</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I57" s="2">
         <v>29.1</v>
@@ -13059,7 +13056,7 @@
         <v>357</v>
       </c>
       <c r="BQ58" s="21" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="59" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -13085,7 +13082,7 @@
         <v>15</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I59" s="2">
         <v>29.1</v>
@@ -13270,7 +13267,7 @@
         <v>15</v>
       </c>
       <c r="H60" s="37" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I60" s="3">
         <v>29.1</v>
@@ -13344,7 +13341,7 @@
         <v>20220331</v>
       </c>
       <c r="AJ60" s="37" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AK60" s="37" t="s">
         <v>433</v>
@@ -13443,7 +13440,7 @@
         <v>15</v>
       </c>
       <c r="H61" s="37" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I61" s="3">
         <v>29</v>
@@ -13517,7 +13514,7 @@
         <v>20220902</v>
       </c>
       <c r="AJ61" s="37" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AK61" s="37" t="s">
         <v>448</v>
@@ -13576,7 +13573,7 @@
         <v>289</v>
       </c>
       <c r="BK61" s="95" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="BL61" s="95"/>
       <c r="BM61" s="95"/>
@@ -13590,7 +13587,7 @@
         <v>200</v>
       </c>
       <c r="BQ61" s="43" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="62" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -13616,7 +13613,7 @@
         <v>129</v>
       </c>
       <c r="H62" s="37" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I62" s="48">
         <v>29.1</v>
@@ -13644,7 +13641,7 @@
         <v>-50.76</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="S62" s="3">
         <v>20</v>
@@ -13694,7 +13691,7 @@
         <v>20220506</v>
       </c>
       <c r="AJ62" s="37" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AK62" s="37" t="s">
         <v>448</v>
@@ -13773,7 +13770,7 @@
         <v>211</v>
       </c>
       <c r="BQ62" s="43" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="63" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -13799,7 +13796,7 @@
         <v>15</v>
       </c>
       <c r="H63" s="37" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I63" s="3">
         <v>29.2</v>
@@ -13827,7 +13824,7 @@
         <v>-61.98</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="S63" s="3">
         <v>19</v>
@@ -13856,7 +13853,7 @@
       <c r="AA63" s="37"/>
       <c r="AB63" s="37"/>
       <c r="AC63" s="37" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AD63" s="37"/>
       <c r="AE63" s="3">
@@ -13875,10 +13872,10 @@
         <v>20230208</v>
       </c>
       <c r="AJ63" s="37" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AK63" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AL63" s="35">
         <v>29</v>
@@ -13911,7 +13908,7 @@
         <v>42711</v>
       </c>
       <c r="AX63" s="40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AY63" s="38"/>
       <c r="AZ63" s="38"/>
@@ -13954,7 +13951,7 @@
         <v>200</v>
       </c>
       <c r="BQ63" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="64" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -13962,10 +13959,10 @@
         <v>5</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D64" s="35" t="s">
         <v>44</v>
@@ -13980,7 +13977,7 @@
         <v>15</v>
       </c>
       <c r="H64" s="37" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I64" s="3">
         <v>29.2</v>
@@ -14008,7 +14005,7 @@
         <v>-61.4</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="S64" s="3">
         <v>25</v>
@@ -14054,10 +14051,10 @@
         <v>20230308</v>
       </c>
       <c r="AJ64" s="37" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AK64" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AL64" s="35">
         <v>30</v>
@@ -14066,7 +14063,7 @@
         <v>81</v>
       </c>
       <c r="AN64" s="38" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO64" s="38" t="s">
         <v>215</v>
@@ -14078,7 +14075,7 @@
         <v>83</v>
       </c>
       <c r="AR64" s="38" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AS64" s="38"/>
       <c r="AT64" s="38"/>
@@ -14086,11 +14083,11 @@
       <c r="AV64" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="AW64" s="38" t="s">
-        <v>459</v>
+      <c r="AW64" s="39">
+        <v>42723</v>
       </c>
       <c r="AX64" s="40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AY64" s="38"/>
       <c r="AZ64" s="38"/>
@@ -14127,7 +14124,7 @@
         <v>205</v>
       </c>
       <c r="BQ64" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="65" spans="1:102" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -14135,10 +14132,10 @@
         <v>1</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>24</v>
@@ -14153,7 +14150,7 @@
         <v>15</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I65" s="2">
         <v>29.2</v>
@@ -14181,7 +14178,7 @@
         <v>-61.43</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="S65" s="2">
         <v>27</v>
@@ -14211,7 +14208,7 @@
       <c r="AA65" s="18"/>
       <c r="AB65" s="18"/>
       <c r="AC65" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AD65" s="18"/>
       <c r="AE65" s="2">
@@ -14230,10 +14227,10 @@
         <v>20230330</v>
       </c>
       <c r="AJ65" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="AK65" s="18" t="s">
         <v>463</v>
-      </c>
-      <c r="AK65" s="18" t="s">
-        <v>464</v>
       </c>
       <c r="AL65" s="14">
         <v>29</v>
@@ -14266,7 +14263,7 @@
         <v>42711</v>
       </c>
       <c r="AX65" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AY65" s="22"/>
       <c r="AZ65" s="22"/>
@@ -14299,7 +14296,7 @@
       </c>
       <c r="BL65" s="97"/>
       <c r="BM65" s="97" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BN65" s="2" t="s">
         <v>209</v>
@@ -14311,7 +14308,7 @@
         <v>200</v>
       </c>
       <c r="BQ65" s="21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="66" spans="1:102" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -14319,10 +14316,10 @@
         <v>2</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>53</v>
@@ -14337,7 +14334,7 @@
         <v>15</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I66" s="2">
         <v>29.2</v>
@@ -14365,7 +14362,7 @@
         <v>-61.49</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S66" s="2">
         <v>21</v>
@@ -14412,10 +14409,10 @@
         <v>20230510</v>
       </c>
       <c r="AJ66" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AK66" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AL66" s="14">
         <v>32</v>
@@ -14424,7 +14421,7 @@
         <v>76</v>
       </c>
       <c r="AN66" s="22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AO66" s="22" t="s">
         <v>215</v>
@@ -14436,7 +14433,7 @@
         <v>78</v>
       </c>
       <c r="AR66" s="22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AS66" s="22"/>
       <c r="AT66" s="22"/>
@@ -14448,7 +14445,7 @@
         <v>42711</v>
       </c>
       <c r="AX66" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AY66" s="22"/>
       <c r="AZ66" s="22"/>
@@ -14475,7 +14472,7 @@
       </c>
       <c r="BL66" s="22"/>
       <c r="BM66" s="97" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BN66" s="2" t="s">
         <v>209</v>
@@ -14487,7 +14484,7 @@
         <v>200</v>
       </c>
       <c r="BQ66" s="21" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="67" spans="1:102" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -14495,10 +14492,10 @@
         <v>3</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>44</v>
@@ -14513,7 +14510,7 @@
         <v>15</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I67" s="2">
         <v>29.2</v>
@@ -14543,7 +14540,7 @@
         <v>-61.43</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="S67" s="2">
         <v>28</v>
@@ -14590,10 +14587,10 @@
         <v>20230531</v>
       </c>
       <c r="AJ67" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AK67" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AL67" s="14">
         <v>30</v>
@@ -14602,7 +14599,7 @@
         <v>81</v>
       </c>
       <c r="AN67" s="22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO67" s="22" t="s">
         <v>215</v>
@@ -14614,7 +14611,7 @@
         <v>83</v>
       </c>
       <c r="AR67" s="22" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AS67" s="22"/>
       <c r="AT67" s="22"/>
@@ -14622,11 +14619,11 @@
       <c r="AV67" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="AW67" s="22" t="s">
-        <v>459</v>
+      <c r="AW67" s="39">
+        <v>42723</v>
       </c>
       <c r="AX67" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AY67" s="22"/>
       <c r="AZ67" s="22"/>
@@ -14649,7 +14646,7 @@
         <v>456</v>
       </c>
       <c r="BK67" s="97" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="BL67" s="97"/>
       <c r="BM67" s="97"/>
@@ -14660,10 +14657,10 @@
         <v>208</v>
       </c>
       <c r="BP67" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="BQ67" s="21" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="68" spans="1:102" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -14671,10 +14668,10 @@
         <v>4</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>35</v>
@@ -14689,7 +14686,7 @@
         <v>129</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I68" s="2">
         <v>29.2</v>
@@ -14719,7 +14716,7 @@
         <v>-50.16</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="S68" s="2">
         <v>27</v>
@@ -14770,10 +14767,10 @@
         <v>20230228</v>
       </c>
       <c r="AJ68" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AK68" s="18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AL68" s="14">
         <v>42</v>
@@ -14808,7 +14805,7 @@
         <v>42859</v>
       </c>
       <c r="AX68" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AY68" s="22"/>
       <c r="AZ68" s="22"/>
@@ -14846,10 +14843,10 @@
         <v>208</v>
       </c>
       <c r="BP68" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="BQ68" s="21" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="69" spans="1:102" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -14857,10 +14854,10 @@
         <v>5</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>13</v>
@@ -14875,7 +14872,7 @@
         <v>15</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I69" s="2">
         <v>29.1</v>
@@ -14950,10 +14947,10 @@
         <v>20230705</v>
       </c>
       <c r="AJ69" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK69" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AL69" s="14">
         <v>33</v>
@@ -14986,7 +14983,7 @@
         <v>42691</v>
       </c>
       <c r="AX69" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AY69" s="22"/>
       <c r="AZ69" s="22"/>
@@ -15013,7 +15010,7 @@
       </c>
       <c r="BL69" s="22"/>
       <c r="BM69" s="97" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="BN69" s="2" t="s">
         <v>209</v>
@@ -15025,7 +15022,7 @@
         <v>200</v>
       </c>
       <c r="BQ69" s="21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="70" spans="1:102" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -15051,7 +15048,7 @@
         <v>15</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I70" s="2">
         <v>29.1</v>
@@ -15081,7 +15078,7 @@
         <v>-61.4</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S70" s="2">
         <v>20</v>
@@ -15111,7 +15108,7 @@
       <c r="AA70" s="18"/>
       <c r="AB70" s="18"/>
       <c r="AC70" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AD70" s="18"/>
       <c r="AE70" s="2">
@@ -15130,10 +15127,10 @@
         <v>20230918</v>
       </c>
       <c r="AJ70" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AK70" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AL70" s="14">
         <v>29</v>
@@ -15166,7 +15163,7 @@
         <v>42711</v>
       </c>
       <c r="AX70" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AY70" s="22"/>
       <c r="AZ70" s="22"/>
@@ -15174,7 +15171,7 @@
         <v>454</v>
       </c>
       <c r="BB70" s="22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="BC70" s="22" t="s">
         <v>423</v>
@@ -15189,10 +15186,10 @@
         <v>172</v>
       </c>
       <c r="BI70" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="BJ70" s="22" t="s">
         <v>519</v>
-      </c>
-      <c r="BJ70" s="22" t="s">
-        <v>520</v>
       </c>
       <c r="BK70" s="92" t="s">
         <v>137</v>
@@ -15209,7 +15206,7 @@
         <v>200</v>
       </c>
       <c r="BQ70" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="71" spans="1:102" s="48" customFormat="1" x14ac:dyDescent="0.25">
@@ -15235,7 +15232,7 @@
         <v>15</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I71" s="2">
         <v>29.1</v>
@@ -15265,7 +15262,7 @@
         <v>-61.44</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="S71" s="2">
         <v>23</v>
@@ -15295,7 +15292,7 @@
       <c r="AA71" s="18"/>
       <c r="AB71" s="18"/>
       <c r="AC71" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AD71" s="18"/>
       <c r="AE71" s="2">
@@ -15314,10 +15311,10 @@
         <v>20240131</v>
       </c>
       <c r="AJ71" s="18" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AK71" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AL71" s="14">
         <v>29</v>
@@ -15350,7 +15347,7 @@
         <v>42711</v>
       </c>
       <c r="AX71" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AY71" s="22"/>
       <c r="AZ71" s="22"/>
@@ -15358,7 +15355,7 @@
         <v>454</v>
       </c>
       <c r="BB71" s="22" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="BC71" s="22" t="s">
         <v>423</v>
@@ -15373,10 +15370,10 @@
         <v>172</v>
       </c>
       <c r="BI71" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="BJ71" s="22" t="s">
         <v>519</v>
-      </c>
-      <c r="BJ71" s="22" t="s">
-        <v>520</v>
       </c>
       <c r="BK71" s="22" t="s">
         <v>137</v>
@@ -15393,7 +15390,7 @@
         <v>200</v>
       </c>
       <c r="BQ71" s="21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="BR71" s="88"/>
       <c r="BS71" s="88"/>
@@ -15452,7 +15449,7 @@
         <v>15</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I72" s="2">
         <v>29.1</v>
@@ -15482,7 +15479,7 @@
         <v>-61.43</v>
       </c>
       <c r="R72" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="S72" s="2">
         <v>26</v>
@@ -15528,10 +15525,10 @@
         <v>20240306</v>
       </c>
       <c r="AJ72" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AK72" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AL72" s="14">
         <v>32</v>
@@ -15540,7 +15537,7 @@
         <v>81</v>
       </c>
       <c r="AN72" s="22" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AO72" s="22" t="s">
         <v>215</v>
@@ -15552,7 +15549,7 @@
         <v>83</v>
       </c>
       <c r="AR72" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AS72" s="22"/>
       <c r="AT72" s="22"/>
@@ -15564,7 +15561,7 @@
         <v>42711</v>
       </c>
       <c r="AX72" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AY72" s="22"/>
       <c r="AZ72" s="22"/>
@@ -15601,7 +15598,7 @@
         <v>200</v>
       </c>
       <c r="BQ72" s="21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="BR72" s="88"/>
       <c r="BS72" s="88"/>
@@ -15660,7 +15657,7 @@
         <v>15</v>
       </c>
       <c r="H73" s="37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I73" s="3">
         <v>29.1</v>
@@ -15690,7 +15687,7 @@
         <v>-61.42</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="S73" s="3">
         <v>20</v>
@@ -15737,10 +15734,10 @@
         <v>20240322</v>
       </c>
       <c r="AJ73" s="37" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AK73" s="37" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AL73" s="35">
         <v>33</v>
@@ -15749,7 +15746,7 @@
         <v>76</v>
       </c>
       <c r="AN73" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AO73" s="38" t="s">
         <v>215</v>
@@ -15761,7 +15758,7 @@
         <v>78</v>
       </c>
       <c r="AR73" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AS73" s="38"/>
       <c r="AT73" s="38"/>
@@ -15773,7 +15770,7 @@
         <v>42691</v>
       </c>
       <c r="AX73" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AY73" s="38"/>
       <c r="AZ73" s="38"/>
@@ -15790,20 +15787,20 @@
         <v>172</v>
       </c>
       <c r="BI73" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="BJ73" s="38" t="s">
         <v>519</v>
-      </c>
-      <c r="BJ73" s="38" t="s">
-        <v>520</v>
       </c>
       <c r="BK73" s="38" t="s">
         <v>137</v>
       </c>
       <c r="BL73" s="38"/>
       <c r="BM73" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="BN73" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="BO73" s="3" t="s">
         <v>208</v>
@@ -15812,7 +15809,7 @@
         <v>200</v>
       </c>
       <c r="BQ73" s="43" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="74" spans="1:102" s="48" customFormat="1" x14ac:dyDescent="0.25">
@@ -15838,7 +15835,7 @@
         <v>15</v>
       </c>
       <c r="H74" s="37" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I74" s="3">
         <v>29.2</v>
@@ -15915,10 +15912,10 @@
         <v>20240322</v>
       </c>
       <c r="AJ74" s="37" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AK74" s="37" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AL74" s="35">
         <v>33</v>
@@ -15927,7 +15924,7 @@
         <v>76</v>
       </c>
       <c r="AN74" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AO74" s="38" t="s">
         <v>215</v>
@@ -15939,7 +15936,7 @@
         <v>78</v>
       </c>
       <c r="AR74" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AS74" s="38"/>
       <c r="AT74" s="38"/>
@@ -15951,7 +15948,7 @@
         <v>42691</v>
       </c>
       <c r="AX74" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AY74" s="38"/>
       <c r="AZ74" s="38"/>
@@ -15968,10 +15965,10 @@
         <v>172</v>
       </c>
       <c r="BI74" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="BJ74" s="38" t="s">
         <v>519</v>
-      </c>
-      <c r="BJ74" s="38" t="s">
-        <v>520</v>
       </c>
       <c r="BK74" s="38" t="s">
         <v>137</v>
@@ -15979,7 +15976,7 @@
       <c r="BL74" s="38"/>
       <c r="BM74" s="3"/>
       <c r="BN74" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="BO74" s="3" t="s">
         <v>208</v>
@@ -15988,7 +15985,7 @@
         <v>200</v>
       </c>
       <c r="BQ74" s="43" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="75" spans="1:102" s="48" customFormat="1" x14ac:dyDescent="0.25">
@@ -16014,7 +16011,7 @@
         <v>129</v>
       </c>
       <c r="H75" s="37" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I75" s="3">
         <v>29.1</v>
@@ -16044,7 +16041,7 @@
         <v>-51.84</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S75" s="3">
         <v>11</v>
@@ -16093,10 +16090,10 @@
         <v>20240403</v>
       </c>
       <c r="AJ75" s="37" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AK75" s="37" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AL75" s="35">
         <v>30</v>
@@ -16125,11 +16122,11 @@
       <c r="AV75" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="AW75" s="38" t="s">
-        <v>459</v>
+      <c r="AW75" s="39">
+        <v>42723</v>
       </c>
       <c r="AX75" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AY75" s="38"/>
       <c r="AZ75" s="38"/>
@@ -16155,7 +16152,7 @@
         <v>95</v>
       </c>
       <c r="BJ75" s="38" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="BK75" s="38"/>
       <c r="BL75" s="38"/>
@@ -16167,10 +16164,10 @@
         <v>208</v>
       </c>
       <c r="BP75" s="37" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="BQ75" s="43" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="76" spans="1:102" s="48" customFormat="1" x14ac:dyDescent="0.25">
@@ -16196,7 +16193,7 @@
         <v>15</v>
       </c>
       <c r="H76" s="37" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I76" s="3">
         <v>29.1</v>
@@ -16273,10 +16270,10 @@
         <v>20240322</v>
       </c>
       <c r="AJ76" s="37" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AK76" s="37" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AL76" s="35">
         <v>33</v>
@@ -16285,7 +16282,7 @@
         <v>76</v>
       </c>
       <c r="AN76" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AO76" s="38" t="s">
         <v>215</v>
@@ -16297,7 +16294,7 @@
         <v>78</v>
       </c>
       <c r="AR76" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AS76" s="38"/>
       <c r="AT76" s="38"/>
@@ -16309,7 +16306,7 @@
         <v>42691</v>
       </c>
       <c r="AX76" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AY76" s="38"/>
       <c r="AZ76" s="38"/>
@@ -16329,7 +16326,7 @@
         <v>117</v>
       </c>
       <c r="BJ76" s="38" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="BK76" s="38" t="s">
         <v>137</v>
@@ -16337,7 +16334,7 @@
       <c r="BL76" s="38"/>
       <c r="BM76" s="3"/>
       <c r="BN76" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="BO76" s="3" t="s">
         <v>208</v>
@@ -16694,14 +16691,14 @@
       <c r="BH81" s="140"/>
       <c r="BI81" s="38"/>
       <c r="BJ81" s="38" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="BK81" s="38" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="BL81" s="38"/>
       <c r="BM81" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BN81" s="120"/>
       <c r="BO81" s="35"/>
@@ -16776,11 +16773,11 @@
         <v>290</v>
       </c>
       <c r="BK82" s="38" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="BL82" s="38"/>
       <c r="BM82" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="BN82" s="120"/>
       <c r="BO82" s="35"/>
@@ -16817,15 +16814,15 @@
         <v>81</v>
       </c>
       <c r="AN83" s="142" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AO83" s="143"/>
       <c r="AP83" s="144"/>
       <c r="AQ83" s="141" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AR83" s="142" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AS83" s="78"/>
       <c r="AT83" s="78"/>
@@ -16847,7 +16844,7 @@
         <v>95</v>
       </c>
       <c r="BJ83" s="38" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="BK83" s="38"/>
       <c r="BL83" s="38"/>
@@ -16887,15 +16884,15 @@
         <v>69</v>
       </c>
       <c r="AN84" s="26" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AO84" s="78"/>
       <c r="AP84" s="117"/>
       <c r="AQ84" s="27" t="s">
+        <v>693</v>
+      </c>
+      <c r="AR84" s="26" t="s">
         <v>694</v>
-      </c>
-      <c r="AR84" s="26" t="s">
-        <v>695</v>
       </c>
       <c r="AS84" s="78"/>
       <c r="AT84" s="78"/>
@@ -16917,7 +16914,7 @@
         <v>117</v>
       </c>
       <c r="BJ84" s="38" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="BK84" s="38"/>
       <c r="BL84" s="38"/>
@@ -16982,14 +16979,14 @@
         <v>456</v>
       </c>
       <c r="BK85" s="133" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="BL85" s="133"/>
       <c r="BM85" s="134" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="BN85" s="135" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="BO85" s="29"/>
       <c r="BP85" s="77"/>
@@ -17044,17 +17041,17 @@
       <c r="BG86" s="117"/>
       <c r="BH86" s="118"/>
       <c r="BI86" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="BJ86" s="38" t="s">
         <v>519</v>
       </c>
-      <c r="BJ86" s="38" t="s">
-        <v>520</v>
-      </c>
       <c r="BK86" s="38" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="BL86" s="38"/>
       <c r="BM86" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="BN86" s="29"/>
       <c r="BO86" s="93"/>
@@ -17321,19 +17318,19 @@
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:5" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="107" t="s">
+        <v>480</v>
+      </c>
+      <c r="B4" s="108" t="s">
+        <v>479</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>500</v>
+      </c>
+      <c r="D4" s="108" t="s">
+        <v>483</v>
+      </c>
+      <c r="E4" s="109" t="s">
         <v>481</v>
-      </c>
-      <c r="B4" s="108" t="s">
-        <v>480</v>
-      </c>
-      <c r="C4" s="108" t="s">
-        <v>501</v>
-      </c>
-      <c r="D4" s="108" t="s">
-        <v>484</v>
-      </c>
-      <c r="E4" s="109" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -17341,7 +17338,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C5" s="110">
         <v>40</v>
@@ -17350,7 +17347,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="106" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -17358,7 +17355,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -17367,7 +17364,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="95" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -17375,7 +17372,7 @@
         <v>123</v>
       </c>
       <c r="B7" s="112" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C7" s="114">
         <v>10</v>
@@ -17384,7 +17381,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="113" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -17392,7 +17389,7 @@
         <v>178</v>
       </c>
       <c r="B8" s="95" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C8" s="3">
         <v>85</v>
@@ -17401,7 +17398,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="95" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -17409,16 +17406,16 @@
         <v>238</v>
       </c>
       <c r="B9" s="112" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C9" s="114">
         <v>15</v>
       </c>
       <c r="D9" s="114" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E9" s="113" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -17426,7 +17423,7 @@
         <v>276</v>
       </c>
       <c r="B10" s="112" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C10" s="114">
         <v>7</v>
@@ -17435,7 +17432,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="113" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -17443,7 +17440,7 @@
         <v>377</v>
       </c>
       <c r="B11" s="103" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C11" s="3">
         <v>110</v>
@@ -17452,7 +17449,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -17460,16 +17457,16 @@
         <v>438</v>
       </c>
       <c r="B12" s="102" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C12" s="3">
         <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E12" s="95" t="s">
         <v>494</v>
-      </c>
-      <c r="E12" s="95" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -17500,19 +17497,19 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="128" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1" s="129" t="s">
         <v>548</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="D1" s="129" t="s">
         <v>549</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="E1" s="129" t="s">
         <v>550</v>
       </c>
-      <c r="E1" s="129" t="s">
+      <c r="F1" s="130" t="s">
         <v>551</v>
-      </c>
-      <c r="F1" s="130" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -17529,7 +17526,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="127" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -17546,7 +17543,7 @@
         <v>43</v>
       </c>
       <c r="F3" s="125" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -17563,7 +17560,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="125" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -17580,7 +17577,7 @@
         <v>49</v>
       </c>
       <c r="F5" s="125" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -17597,7 +17594,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="125" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -17614,7 +17611,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="125" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -17631,7 +17628,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="125" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -17648,7 +17645,7 @@
         <v>54</v>
       </c>
       <c r="F9" s="125" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -17665,7 +17662,7 @@
         <v>32</v>
       </c>
       <c r="F10" s="125" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -17682,7 +17679,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -17699,7 +17696,7 @@
         <v>34</v>
       </c>
       <c r="F12" s="125" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -17716,7 +17713,7 @@
         <v>39</v>
       </c>
       <c r="F13" s="125" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -17740,7 +17737,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="125" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -17757,7 +17754,7 @@
         <v>49</v>
       </c>
       <c r="F16" s="125" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -17774,7 +17771,7 @@
         <v>58</v>
       </c>
       <c r="F17" s="127" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -17791,7 +17788,7 @@
         <v>51</v>
       </c>
       <c r="F18" s="125" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -17808,7 +17805,7 @@
         <v>60</v>
       </c>
       <c r="F19" s="127" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -17825,7 +17822,7 @@
         <v>38</v>
       </c>
       <c r="F20" s="125" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -17842,7 +17839,7 @@
         <v>35</v>
       </c>
       <c r="F21" s="125" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -17859,7 +17856,7 @@
         <v>44</v>
       </c>
       <c r="F22" s="125" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -17876,7 +17873,7 @@
         <v>46</v>
       </c>
       <c r="F23" s="125" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -17893,7 +17890,7 @@
         <v>40</v>
       </c>
       <c r="F24" s="125" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -17910,7 +17907,7 @@
         <v>54</v>
       </c>
       <c r="F25" s="125" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -17927,7 +17924,7 @@
         <v>48</v>
       </c>
       <c r="F26" s="125" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -17944,7 +17941,7 @@
         <v>43</v>
       </c>
       <c r="F27" s="125" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -17961,7 +17958,7 @@
         <v>72</v>
       </c>
       <c r="F28" s="127" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -17978,7 +17975,7 @@
         <v>43</v>
       </c>
       <c r="F29" s="125" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -17995,7 +17992,7 @@
         <v>45</v>
       </c>
       <c r="F30" s="125" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -18019,7 +18016,7 @@
         <v>76</v>
       </c>
       <c r="F32" s="127" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -18036,7 +18033,7 @@
         <v>53</v>
       </c>
       <c r="F33" s="125" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -18053,7 +18050,7 @@
         <v>78</v>
       </c>
       <c r="F34" s="127" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -18070,7 +18067,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="125" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -18087,7 +18084,7 @@
         <v>46</v>
       </c>
       <c r="F36" s="125" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -18104,7 +18101,7 @@
         <v>58</v>
       </c>
       <c r="F37" s="125" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -18121,7 +18118,7 @@
         <v>60</v>
       </c>
       <c r="F38" s="125" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -18138,7 +18135,7 @@
         <v>61</v>
       </c>
       <c r="F39" s="125" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -18155,7 +18152,7 @@
         <v>84</v>
       </c>
       <c r="F40" s="127" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -18172,7 +18169,7 @@
         <v>51</v>
       </c>
       <c r="F41" s="125" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -18196,7 +18193,7 @@
         <v>57</v>
       </c>
       <c r="F43" s="125" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -18213,7 +18210,7 @@
         <v>64</v>
       </c>
       <c r="F44" s="125" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -18230,7 +18227,7 @@
         <v>59</v>
       </c>
       <c r="F45" s="125" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -18247,7 +18244,7 @@
         <v>94</v>
       </c>
       <c r="F46" s="127" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
@@ -18264,7 +18261,7 @@
         <v>66</v>
       </c>
       <c r="F47" s="125" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -18281,7 +18278,7 @@
         <v>60</v>
       </c>
       <c r="F48" s="125" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -18298,7 +18295,7 @@
         <v>63</v>
       </c>
       <c r="F49" s="125" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -18315,7 +18312,7 @@
         <v>68</v>
       </c>
       <c r="F50" s="125" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -18332,7 +18329,7 @@
         <v>62</v>
       </c>
       <c r="F51" s="125" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -18349,7 +18346,7 @@
         <v>65</v>
       </c>
       <c r="F52" s="125" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
@@ -18366,7 +18363,7 @@
         <v>67</v>
       </c>
       <c r="F53" s="125" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
@@ -18383,7 +18380,7 @@
         <v>70</v>
       </c>
       <c r="F54" s="125" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -18400,7 +18397,7 @@
         <v>65</v>
       </c>
       <c r="F55" s="125" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
@@ -18417,7 +18414,7 @@
         <v>69</v>
       </c>
       <c r="F56" s="125" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
@@ -18434,7 +18431,7 @@
         <v>97</v>
       </c>
       <c r="F57" s="127" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
@@ -18458,7 +18455,7 @@
         <v>105</v>
       </c>
       <c r="F59" s="127" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -18475,7 +18472,7 @@
         <v>72</v>
       </c>
       <c r="F60" s="125" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
@@ -18492,7 +18489,7 @@
         <v>81</v>
       </c>
       <c r="F61" s="125" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
@@ -18509,7 +18506,7 @@
         <v>88</v>
       </c>
       <c r="F62" s="125" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
@@ -18526,7 +18523,7 @@
         <v>73</v>
       </c>
       <c r="F63" s="125" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/initializationData/GliderMission.xlsx
+++ b/initializationData/GliderMission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laytonc\Documents\GitHub\gliderMetadata\initializationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CBB68DA-8F96-436C-93BD-93BE884F1A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8DEFEDF-5BC7-47B9-B7FB-453EBEE2E871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33330" yWindow="3540" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31770" yWindow="1785" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="706">
   <si>
     <t>Deployment date</t>
   </si>
@@ -503,9 +503,6 @@
   </si>
   <si>
     <t>20190807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBL </t>
   </si>
   <si>
     <t xml:space="preserve"> v2.6.0-r heading</t>
@@ -3172,10 +3169,10 @@
   <dimension ref="A1:CX90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AQ35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AW75" sqref="AW75"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3251,10 +3248,10 @@
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="94" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E1" s="91" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
@@ -3322,13 +3319,13 @@
         <v>3</v>
       </c>
       <c r="F2" s="65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G2" s="65" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="66" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I2" s="31" t="s">
         <v>4</v>
@@ -3337,13 +3334,13 @@
         <v>5</v>
       </c>
       <c r="K2" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="L2" s="67" t="s">
-        <v>207</v>
-      </c>
       <c r="M2" s="98" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N2" s="66" t="s">
         <v>7</v>
@@ -3379,7 +3376,7 @@
         <v>40</v>
       </c>
       <c r="Y2" s="68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Z2" s="68" t="s">
         <v>112</v>
@@ -3388,13 +3385,13 @@
         <v>115</v>
       </c>
       <c r="AB2" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AC2" s="68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AD2" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AE2" s="32" t="s">
         <v>55</v>
@@ -3421,70 +3418,70 @@
         <v>121</v>
       </c>
       <c r="AM2" s="71" t="s">
+        <v>306</v>
+      </c>
+      <c r="AN2" s="70" t="s">
+        <v>317</v>
+      </c>
+      <c r="AO2" s="70" t="s">
+        <v>310</v>
+      </c>
+      <c r="AP2" s="71" t="s">
         <v>307</v>
       </c>
-      <c r="AN2" s="70" t="s">
-        <v>318</v>
-      </c>
-      <c r="AO2" s="70" t="s">
-        <v>311</v>
-      </c>
-      <c r="AP2" s="71" t="s">
+      <c r="AQ2" s="71" t="s">
+        <v>309</v>
+      </c>
+      <c r="AR2" s="70" t="s">
         <v>308</v>
       </c>
-      <c r="AQ2" s="71" t="s">
-        <v>310</v>
-      </c>
-      <c r="AR2" s="70" t="s">
-        <v>309</v>
-      </c>
       <c r="AS2" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT2" s="70" t="s">
         <v>313</v>
       </c>
-      <c r="AT2" s="70" t="s">
-        <v>314</v>
-      </c>
       <c r="AU2" s="70" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AV2" s="71" t="s">
         <v>68</v>
       </c>
       <c r="AW2" s="70" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AX2" s="72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AY2" s="70" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AZ2" s="70" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BA2" s="70" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BB2" s="70" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BC2" s="70" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BD2" s="70" t="s">
+        <v>366</v>
+      </c>
+      <c r="BE2" s="70" t="s">
         <v>367</v>
       </c>
-      <c r="BE2" s="70" t="s">
+      <c r="BF2" s="70" t="s">
         <v>368</v>
       </c>
-      <c r="BF2" s="70" t="s">
-        <v>369</v>
-      </c>
       <c r="BG2" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="BH2" s="33" t="s">
         <v>169</v>
-      </c>
-      <c r="BH2" s="33" t="s">
-        <v>170</v>
       </c>
       <c r="BI2" s="70" t="s">
         <v>92</v>
@@ -3493,22 +3490,22 @@
         <v>93</v>
       </c>
       <c r="BK2" s="70" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BL2" s="70" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="BM2" s="32" t="s">
         <v>41</v>
       </c>
       <c r="BN2" s="74" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO2" s="74" t="s">
         <v>195</v>
       </c>
-      <c r="BO2" s="74" t="s">
-        <v>196</v>
-      </c>
       <c r="BP2" s="75" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="BQ2" s="76" t="s">
         <v>12</v>
@@ -3537,7 +3534,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I3" s="13">
         <v>29.2</v>
@@ -3624,10 +3621,10 @@
         <v>69</v>
       </c>
       <c r="AN3" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AO3" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AP3" s="10" t="s">
         <v>70</v>
@@ -3636,7 +3633,7 @@
         <v>71</v>
       </c>
       <c r="AR3" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AS3" s="15"/>
       <c r="AT3" s="15"/>
@@ -3648,7 +3645,7 @@
         <v>42691</v>
       </c>
       <c r="AX3" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY3" s="15"/>
       <c r="AZ3" s="15"/>
@@ -3659,10 +3656,10 @@
       <c r="BE3" s="15"/>
       <c r="BF3" s="15"/>
       <c r="BG3" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH3" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BI3" s="15" t="s">
         <v>95</v>
@@ -3674,16 +3671,16 @@
       <c r="BL3" s="15"/>
       <c r="BM3" s="13"/>
       <c r="BN3" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO3" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP3" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ3" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:69" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3709,7 +3706,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I4" s="2">
         <v>29.2</v>
@@ -3796,10 +3793,10 @@
         <v>69</v>
       </c>
       <c r="AN4" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AO4" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AP4" s="10" t="s">
         <v>70</v>
@@ -3808,7 +3805,7 @@
         <v>71</v>
       </c>
       <c r="AR4" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AS4" s="15"/>
       <c r="AT4" s="15"/>
@@ -3820,7 +3817,7 @@
         <v>42691</v>
       </c>
       <c r="AX4" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY4" s="15"/>
       <c r="AZ4" s="15"/>
@@ -3831,10 +3828,10 @@
       <c r="BE4" s="15"/>
       <c r="BF4" s="15"/>
       <c r="BG4" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH4" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BI4" s="15" t="s">
         <v>95</v>
@@ -3846,16 +3843,16 @@
       <c r="BL4" s="15"/>
       <c r="BM4" s="2"/>
       <c r="BN4" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO4" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP4" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BQ4" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -3881,7 +3878,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I5" s="3">
         <v>29.2</v>
@@ -3968,10 +3965,10 @@
         <v>75</v>
       </c>
       <c r="AN5" s="40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AO5" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AP5" s="34" t="s">
         <v>73</v>
@@ -3980,7 +3977,7 @@
         <v>72</v>
       </c>
       <c r="AR5" s="40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AS5" s="40"/>
       <c r="AT5" s="40"/>
@@ -3992,7 +3989,7 @@
         <v>42711</v>
       </c>
       <c r="AX5" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY5" s="40"/>
       <c r="AZ5" s="40"/>
@@ -4003,10 +4000,10 @@
       <c r="BE5" s="40"/>
       <c r="BF5" s="40"/>
       <c r="BG5" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH5" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI5" s="40" t="s">
         <v>95</v>
@@ -4020,13 +4017,13 @@
         <v>42</v>
       </c>
       <c r="BN5" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO5" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP5" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ5" s="43" t="s">
         <v>28</v>
@@ -4055,7 +4052,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I6" s="3">
         <v>29.2</v>
@@ -4143,10 +4140,10 @@
         <v>69</v>
       </c>
       <c r="AN6" s="40" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AO6" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AP6" s="41" t="s">
         <v>70</v>
@@ -4155,7 +4152,7 @@
         <v>71</v>
       </c>
       <c r="AR6" s="40" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AS6" s="40"/>
       <c r="AT6" s="40"/>
@@ -4167,7 +4164,7 @@
         <v>42691</v>
       </c>
       <c r="AX6" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY6" s="40"/>
       <c r="AZ6" s="40"/>
@@ -4178,10 +4175,10 @@
       <c r="BE6" s="40"/>
       <c r="BF6" s="40"/>
       <c r="BG6" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH6" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI6" s="40" t="s">
         <v>95</v>
@@ -4193,16 +4190,16 @@
       <c r="BL6" s="40"/>
       <c r="BM6" s="3"/>
       <c r="BN6" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO6" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP6" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ6" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -4228,7 +4225,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I7" s="3">
         <v>29.2</v>
@@ -4315,10 +4312,10 @@
         <v>75</v>
       </c>
       <c r="AN7" s="40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AO7" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AP7" s="34" t="s">
         <v>73</v>
@@ -4327,7 +4324,7 @@
         <v>72</v>
       </c>
       <c r="AR7" s="40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AS7" s="40"/>
       <c r="AT7" s="40"/>
@@ -4339,7 +4336,7 @@
         <v>42711</v>
       </c>
       <c r="AX7" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY7" s="40"/>
       <c r="AZ7" s="40"/>
@@ -4350,10 +4347,10 @@
       <c r="BE7" s="40"/>
       <c r="BF7" s="40"/>
       <c r="BG7" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH7" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI7" s="40" t="s">
         <v>95</v>
@@ -4367,16 +4364,16 @@
         <v>43</v>
       </c>
       <c r="BN7" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO7" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP7" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ7" s="43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -4402,7 +4399,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I8" s="3">
         <v>29.2</v>
@@ -4489,10 +4486,10 @@
         <v>76</v>
       </c>
       <c r="AN8" s="40" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AO8" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AP8" s="34" t="s">
         <v>77</v>
@@ -4501,7 +4498,7 @@
         <v>78</v>
       </c>
       <c r="AR8" s="40" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AS8" s="40"/>
       <c r="AT8" s="40"/>
@@ -4513,7 +4510,7 @@
         <v>42711</v>
       </c>
       <c r="AX8" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY8" s="40"/>
       <c r="AZ8" s="40"/>
@@ -4524,10 +4521,10 @@
       <c r="BE8" s="40"/>
       <c r="BF8" s="40"/>
       <c r="BG8" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH8" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI8" s="40" t="s">
         <v>96</v>
@@ -4539,16 +4536,16 @@
       <c r="BL8" s="40"/>
       <c r="BM8" s="3"/>
       <c r="BN8" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO8" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP8" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ8" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -4574,7 +4571,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I9" s="3">
         <v>29.3</v>
@@ -4661,10 +4658,10 @@
         <v>81</v>
       </c>
       <c r="AN9" s="38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AO9" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AP9" s="34" t="s">
         <v>82</v>
@@ -4673,7 +4670,7 @@
         <v>83</v>
       </c>
       <c r="AR9" s="38" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AS9" s="38"/>
       <c r="AT9" s="38"/>
@@ -4685,7 +4682,7 @@
         <v>42723</v>
       </c>
       <c r="AX9" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY9" s="38"/>
       <c r="AZ9" s="38"/>
@@ -4696,10 +4693,10 @@
       <c r="BE9" s="40"/>
       <c r="BF9" s="40"/>
       <c r="BG9" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH9" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI9" s="40" t="s">
         <v>95</v>
@@ -4711,13 +4708,13 @@
       <c r="BL9" s="40"/>
       <c r="BM9" s="3"/>
       <c r="BN9" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO9" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP9" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ9" s="43" t="s">
         <v>49</v>
@@ -4746,7 +4743,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I10" s="3">
         <v>29.2</v>
@@ -4833,10 +4830,10 @@
         <v>69</v>
       </c>
       <c r="AN10" s="40" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AO10" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AP10" s="41" t="s">
         <v>70</v>
@@ -4845,7 +4842,7 @@
         <v>71</v>
       </c>
       <c r="AR10" s="40" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AS10" s="40"/>
       <c r="AT10" s="40"/>
@@ -4857,7 +4854,7 @@
         <v>42691</v>
       </c>
       <c r="AX10" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY10" s="40"/>
       <c r="AZ10" s="40"/>
@@ -4868,10 +4865,10 @@
       <c r="BE10" s="40"/>
       <c r="BF10" s="40"/>
       <c r="BG10" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH10" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI10" s="40" t="s">
         <v>96</v>
@@ -4883,16 +4880,16 @@
       <c r="BL10" s="40"/>
       <c r="BM10" s="3"/>
       <c r="BN10" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO10" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP10" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BQ10" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -4918,7 +4915,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>62</v>
@@ -5005,10 +5002,10 @@
         <v>76</v>
       </c>
       <c r="AN11" s="38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AO11" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AP11" s="34" t="s">
         <v>77</v>
@@ -5029,7 +5026,7 @@
         <v>42711</v>
       </c>
       <c r="AX11" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY11" s="38"/>
       <c r="AZ11" s="38"/>
@@ -5040,10 +5037,10 @@
       <c r="BE11" s="40"/>
       <c r="BF11" s="40"/>
       <c r="BG11" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH11" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI11" s="40" t="s">
         <v>96</v>
@@ -5055,13 +5052,13 @@
       <c r="BL11" s="40"/>
       <c r="BM11" s="3"/>
       <c r="BN11" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO11" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP11" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ11" s="51" t="s">
         <v>106</v>
@@ -5090,7 +5087,7 @@
         <v>15</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>62</v>
@@ -5179,10 +5176,10 @@
         <v>84</v>
       </c>
       <c r="AN12" s="38" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AO12" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AP12" s="34" t="s">
         <v>85</v>
@@ -5193,10 +5190,10 @@
         <v>87</v>
       </c>
       <c r="AT12" s="38" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AU12" s="38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AV12" s="34" t="s">
         <v>86</v>
@@ -5205,7 +5202,7 @@
         <v>42859</v>
       </c>
       <c r="AX12" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY12" s="38"/>
       <c r="AZ12" s="38"/>
@@ -5216,10 +5213,10 @@
       <c r="BE12" s="40"/>
       <c r="BF12" s="40"/>
       <c r="BG12" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH12" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI12" s="40" t="s">
         <v>95</v>
@@ -5231,13 +5228,13 @@
       <c r="BL12" s="40"/>
       <c r="BM12" s="3"/>
       <c r="BN12" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO12" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP12" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ12" s="51" t="s">
         <v>107</v>
@@ -5266,7 +5263,7 @@
         <v>129</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I13" s="3">
         <v>29.2</v>
@@ -5353,10 +5350,10 @@
         <v>81</v>
       </c>
       <c r="AN13" s="38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AO13" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AP13" s="34" t="s">
         <v>82</v>
@@ -5365,7 +5362,7 @@
         <v>83</v>
       </c>
       <c r="AR13" s="38" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AS13" s="38"/>
       <c r="AT13" s="38"/>
@@ -5377,7 +5374,7 @@
         <v>42723</v>
       </c>
       <c r="AX13" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY13" s="38"/>
       <c r="AZ13" s="38"/>
@@ -5388,10 +5385,10 @@
       <c r="BE13" s="40"/>
       <c r="BF13" s="40"/>
       <c r="BG13" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH13" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI13" s="38" t="s">
         <v>98</v>
@@ -5405,16 +5402,16 @@
         <v>67</v>
       </c>
       <c r="BN13" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO13" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP13" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BQ13" s="52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -5440,7 +5437,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I14" s="3">
         <v>29.1</v>
@@ -5527,10 +5524,10 @@
         <v>75</v>
       </c>
       <c r="AN14" s="38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AO14" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AP14" s="34" t="s">
         <v>73</v>
@@ -5539,7 +5536,7 @@
         <v>72</v>
       </c>
       <c r="AR14" s="38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AS14" s="38"/>
       <c r="AT14" s="38"/>
@@ -5551,7 +5548,7 @@
         <v>42711</v>
       </c>
       <c r="AX14" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY14" s="38"/>
       <c r="AZ14" s="38"/>
@@ -5562,10 +5559,10 @@
       <c r="BE14" s="40"/>
       <c r="BF14" s="40"/>
       <c r="BG14" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH14" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI14" s="40" t="s">
         <v>96</v>
@@ -5577,13 +5574,13 @@
       <c r="BL14" s="40"/>
       <c r="BM14" s="3"/>
       <c r="BN14" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO14" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP14" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ14" s="43" t="s">
         <v>91</v>
@@ -5612,7 +5609,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I15" s="3">
         <v>29.2</v>
@@ -5701,10 +5698,10 @@
         <v>84</v>
       </c>
       <c r="AN15" s="38" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AO15" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AP15" s="34" t="s">
         <v>85</v>
@@ -5715,10 +5712,10 @@
         <v>87</v>
       </c>
       <c r="AT15" s="38" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AU15" s="38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AV15" s="34" t="s">
         <v>86</v>
@@ -5727,7 +5724,7 @@
         <v>42859</v>
       </c>
       <c r="AX15" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY15" s="38"/>
       <c r="AZ15" s="38"/>
@@ -5738,10 +5735,10 @@
       <c r="BE15" s="40"/>
       <c r="BF15" s="40"/>
       <c r="BG15" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH15" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI15" s="40" t="s">
         <v>96</v>
@@ -5753,16 +5750,16 @@
       <c r="BL15" s="40"/>
       <c r="BM15" s="3"/>
       <c r="BN15" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO15" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP15" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ15" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:69" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5788,7 +5785,7 @@
         <v>15</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I16" s="3">
         <v>29.2</v>
@@ -5875,10 +5872,10 @@
         <v>75</v>
       </c>
       <c r="AN16" s="38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AO16" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AP16" s="34" t="s">
         <v>73</v>
@@ -5887,7 +5884,7 @@
         <v>72</v>
       </c>
       <c r="AR16" s="38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AS16" s="38"/>
       <c r="AT16" s="38"/>
@@ -5899,7 +5896,7 @@
         <v>42711</v>
       </c>
       <c r="AX16" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY16" s="38"/>
       <c r="AZ16" s="38"/>
@@ -5910,10 +5907,10 @@
       <c r="BE16" s="40"/>
       <c r="BF16" s="40"/>
       <c r="BG16" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH16" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI16" s="38" t="s">
         <v>98</v>
@@ -5927,16 +5924,16 @@
       <c r="BL16" s="38"/>
       <c r="BM16" s="3"/>
       <c r="BN16" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO16" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP16" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ16" s="43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:69" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5962,7 +5959,7 @@
         <v>15</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I17" s="3">
         <v>29.2</v>
@@ -6048,10 +6045,10 @@
         <v>69</v>
       </c>
       <c r="AN17" s="40" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AO17" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AP17" s="41" t="s">
         <v>70</v>
@@ -6060,7 +6057,7 @@
         <v>71</v>
       </c>
       <c r="AR17" s="40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AS17" s="40"/>
       <c r="AT17" s="40"/>
@@ -6072,7 +6069,7 @@
         <v>42691</v>
       </c>
       <c r="AX17" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY17" s="40"/>
       <c r="AZ17" s="40"/>
@@ -6083,10 +6080,10 @@
       <c r="BE17" s="40"/>
       <c r="BF17" s="40"/>
       <c r="BG17" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH17" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI17" s="40" t="s">
         <v>95</v>
@@ -6100,13 +6097,13 @@
       <c r="BL17" s="38"/>
       <c r="BM17" s="3"/>
       <c r="BN17" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO17" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP17" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ17" s="43" t="s">
         <v>125</v>
@@ -6135,7 +6132,7 @@
         <v>15</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I18" s="2">
         <v>29.2</v>
@@ -6221,10 +6218,10 @@
         <v>75</v>
       </c>
       <c r="AN18" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AO18" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AP18" s="20" t="s">
         <v>73</v>
@@ -6233,7 +6230,7 @@
         <v>72</v>
       </c>
       <c r="AR18" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AS18" s="22"/>
       <c r="AT18" s="22"/>
@@ -6245,7 +6242,7 @@
         <v>42711</v>
       </c>
       <c r="AX18" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY18" s="22"/>
       <c r="AZ18" s="22"/>
@@ -6256,10 +6253,10 @@
       <c r="BE18" s="15"/>
       <c r="BF18" s="15"/>
       <c r="BG18" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH18" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI18" s="22" t="s">
         <v>98</v>
@@ -6273,13 +6270,13 @@
         <v>120</v>
       </c>
       <c r="BN18" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO18" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP18" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ18" s="21" t="s">
         <v>128</v>
@@ -6308,7 +6305,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I19" s="2">
         <v>29.1</v>
@@ -6390,10 +6387,10 @@
         <v>69</v>
       </c>
       <c r="AN19" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AO19" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP19" s="10" t="s">
         <v>70</v>
@@ -6402,7 +6399,7 @@
         <v>71</v>
       </c>
       <c r="AR19" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AS19" s="15"/>
       <c r="AT19" s="15"/>
@@ -6414,7 +6411,7 @@
         <v>42691</v>
       </c>
       <c r="AX19" s="53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY19" s="15"/>
       <c r="AZ19" s="15"/>
@@ -6425,10 +6422,10 @@
       <c r="BE19" s="15"/>
       <c r="BF19" s="15"/>
       <c r="BG19" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH19" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI19" s="54" t="s">
         <v>117</v>
@@ -6440,13 +6437,13 @@
       <c r="BL19" s="22"/>
       <c r="BM19" s="2"/>
       <c r="BN19" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="BO19" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="BO19" s="14" t="s">
-        <v>210</v>
-      </c>
       <c r="BP19" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ19" s="21" t="s">
         <v>133</v>
@@ -6475,7 +6472,7 @@
         <v>15</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I20" s="2">
         <v>29.3</v>
@@ -6561,10 +6558,10 @@
         <v>81</v>
       </c>
       <c r="AN20" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AO20" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP20" s="20" t="s">
         <v>82</v>
@@ -6573,7 +6570,7 @@
         <v>83</v>
       </c>
       <c r="AR20" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AS20" s="22"/>
       <c r="AT20" s="22"/>
@@ -6585,7 +6582,7 @@
         <v>42723</v>
       </c>
       <c r="AX20" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY20" s="22"/>
       <c r="AZ20" s="22"/>
@@ -6596,10 +6593,10 @@
       <c r="BE20" s="15"/>
       <c r="BF20" s="15"/>
       <c r="BG20" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH20" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI20" s="22" t="s">
         <v>98</v>
@@ -6613,16 +6610,16 @@
       <c r="BL20" s="22"/>
       <c r="BM20" s="2"/>
       <c r="BN20" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO20" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP20" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ20" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -6648,7 +6645,7 @@
         <v>15</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I21" s="2">
         <v>29.2</v>
@@ -6735,10 +6732,10 @@
         <v>76</v>
       </c>
       <c r="AN21" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AO21" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AP21" s="20" t="s">
         <v>77</v>
@@ -6759,7 +6756,7 @@
         <v>42711</v>
       </c>
       <c r="AX21" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY21" s="22"/>
       <c r="AZ21" s="22"/>
@@ -6770,10 +6767,10 @@
       <c r="BE21" s="15"/>
       <c r="BF21" s="15"/>
       <c r="BG21" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH21" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI21" s="22" t="s">
         <v>98</v>
@@ -6787,16 +6784,16 @@
       <c r="BL21" s="22"/>
       <c r="BM21" s="2"/>
       <c r="BN21" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO21" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP21" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ21" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -6822,7 +6819,7 @@
         <v>15</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I22" s="2">
         <v>29.2</v>
@@ -6909,10 +6906,10 @@
         <v>81</v>
       </c>
       <c r="AN22" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AO22" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP22" s="20" t="s">
         <v>82</v>
@@ -6921,7 +6918,7 @@
         <v>83</v>
       </c>
       <c r="AR22" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AS22" s="22"/>
       <c r="AT22" s="22"/>
@@ -6933,7 +6930,7 @@
         <v>42723</v>
       </c>
       <c r="AX22" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY22" s="22"/>
       <c r="AZ22" s="22"/>
@@ -6944,10 +6941,10 @@
       <c r="BE22" s="15"/>
       <c r="BF22" s="15"/>
       <c r="BG22" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH22" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI22" s="22" t="s">
         <v>98</v>
@@ -6961,13 +6958,13 @@
       <c r="BL22" s="22"/>
       <c r="BM22" s="2"/>
       <c r="BN22" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO22" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP22" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ22" s="21" t="s">
         <v>154</v>
@@ -6981,7 +6978,7 @@
         <v>155</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>44</v>
@@ -6996,7 +6993,7 @@
         <v>15</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I23" s="2">
         <v>29.2</v>
@@ -7024,7 +7021,7 @@
         <v>-61.39</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S23" s="2">
         <v>20</v>
@@ -7071,7 +7068,7 @@
         <v>20181016</v>
       </c>
       <c r="AJ23" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AK23" s="18" t="s">
         <v>147</v>
@@ -7083,10 +7080,10 @@
         <v>81</v>
       </c>
       <c r="AN23" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AO23" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP23" s="20" t="s">
         <v>82</v>
@@ -7095,7 +7092,7 @@
         <v>83</v>
       </c>
       <c r="AR23" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AS23" s="22"/>
       <c r="AT23" s="22"/>
@@ -7107,7 +7104,7 @@
         <v>42723</v>
       </c>
       <c r="AX23" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY23" s="22"/>
       <c r="AZ23" s="22"/>
@@ -7118,10 +7115,10 @@
       <c r="BE23" s="15"/>
       <c r="BF23" s="15"/>
       <c r="BG23" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH23" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI23" s="22" t="s">
         <v>98</v>
@@ -7135,16 +7132,16 @@
       <c r="BL23" s="22"/>
       <c r="BM23" s="2"/>
       <c r="BN23" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO23" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP23" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BQ23" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -7155,7 +7152,7 @@
         <v>156</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>35</v>
@@ -7167,10 +7164,10 @@
         <v>4800994</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I24" s="55">
         <v>29</v>
@@ -7198,7 +7195,7 @@
         <v>-49.72</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S24" s="2">
         <v>22</v>
@@ -7245,7 +7242,7 @@
         <v>20190509</v>
       </c>
       <c r="AJ24" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK24" s="18" t="s">
         <v>147</v>
@@ -7257,10 +7254,10 @@
         <v>75</v>
       </c>
       <c r="AN24" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AO24" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AP24" s="20" t="s">
         <v>73</v>
@@ -7269,7 +7266,7 @@
         <v>72</v>
       </c>
       <c r="AR24" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AS24" s="22"/>
       <c r="AT24" s="22"/>
@@ -7281,7 +7278,7 @@
         <v>42711</v>
       </c>
       <c r="AX24" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY24" s="22"/>
       <c r="AZ24" s="22"/>
@@ -7292,10 +7289,10 @@
       <c r="BE24" s="15"/>
       <c r="BF24" s="15"/>
       <c r="BG24" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH24" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI24" s="15" t="s">
         <v>95</v>
@@ -7307,16 +7304,16 @@
       <c r="BL24" s="22"/>
       <c r="BM24" s="2"/>
       <c r="BN24" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BO24" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP24" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BQ24" s="50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -7324,10 +7321,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>24</v>
@@ -7342,7 +7339,7 @@
         <v>15</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I25" s="2">
         <v>29.2</v>
@@ -7370,7 +7367,7 @@
         <v>-62.78</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S25" s="2">
         <v>19</v>
@@ -7402,7 +7399,7 @@
       <c r="AC25" s="18"/>
       <c r="AD25" s="18"/>
       <c r="AE25" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF25" s="2">
         <v>1</v>
@@ -7418,7 +7415,7 @@
         <v>20180816</v>
       </c>
       <c r="AJ25" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AK25" s="18" t="s">
         <v>147</v>
@@ -7430,10 +7427,10 @@
         <v>84</v>
       </c>
       <c r="AN25" s="22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AO25" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP25" s="20" t="s">
         <v>85</v>
@@ -7450,7 +7447,7 @@
         <v>42711</v>
       </c>
       <c r="AX25" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY25" s="22"/>
       <c r="AZ25" s="22"/>
@@ -7461,10 +7458,10 @@
       <c r="BE25" s="15"/>
       <c r="BF25" s="15"/>
       <c r="BG25" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH25" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI25" s="54" t="s">
         <v>117</v>
@@ -7478,16 +7475,16 @@
       <c r="BL25" s="22"/>
       <c r="BM25" s="2"/>
       <c r="BN25" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO25" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP25" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BQ25" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -7495,10 +7492,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>44</v>
@@ -7513,7 +7510,7 @@
         <v>15</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I26" s="2">
         <v>29.2</v>
@@ -7541,7 +7538,7 @@
         <v>-61.44</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S26" s="2">
         <v>19</v>
@@ -7589,7 +7586,7 @@
         <v>20181016</v>
       </c>
       <c r="AJ26" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AK26" s="18" t="s">
         <v>147</v>
@@ -7601,10 +7598,10 @@
         <v>81</v>
       </c>
       <c r="AN26" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AO26" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP26" s="20" t="s">
         <v>82</v>
@@ -7613,7 +7610,7 @@
         <v>83</v>
       </c>
       <c r="AR26" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AS26" s="22"/>
       <c r="AT26" s="22"/>
@@ -7625,7 +7622,7 @@
         <v>42723</v>
       </c>
       <c r="AX26" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY26" s="22"/>
       <c r="AZ26" s="22"/>
@@ -7636,10 +7633,10 @@
       <c r="BE26" s="15"/>
       <c r="BF26" s="15"/>
       <c r="BG26" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH26" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI26" s="22" t="s">
         <v>98</v>
@@ -7653,16 +7650,16 @@
       <c r="BL26" s="22"/>
       <c r="BM26" s="2"/>
       <c r="BN26" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO26" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP26" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BQ26" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -7670,10 +7667,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>35</v>
@@ -7688,7 +7685,7 @@
         <v>129</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I27" s="2">
         <v>29.2</v>
@@ -7716,7 +7713,7 @@
         <v>-50.02</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S27" s="2">
         <v>21</v>
@@ -7762,7 +7759,7 @@
         <v>20190509</v>
       </c>
       <c r="AJ27" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK27" s="18" t="s">
         <v>147</v>
@@ -7774,10 +7771,10 @@
         <v>75</v>
       </c>
       <c r="AN27" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AO27" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AP27" s="20" t="s">
         <v>73</v>
@@ -7786,7 +7783,7 @@
         <v>72</v>
       </c>
       <c r="AR27" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AS27" s="22"/>
       <c r="AT27" s="22"/>
@@ -7798,7 +7795,7 @@
         <v>42711</v>
       </c>
       <c r="AX27" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AY27" s="22"/>
       <c r="AZ27" s="22"/>
@@ -7809,10 +7806,10 @@
       <c r="BE27" s="15"/>
       <c r="BF27" s="15"/>
       <c r="BG27" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH27" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI27" s="15" t="s">
         <v>95</v>
@@ -7824,16 +7821,16 @@
       <c r="BL27" s="22"/>
       <c r="BM27" s="2"/>
       <c r="BN27" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BO27" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP27" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BQ27" s="50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -7841,10 +7838,10 @@
         <v>10</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -7859,7 +7856,7 @@
         <v>15</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I28" s="2">
         <v>29.2</v>
@@ -7887,7 +7884,7 @@
         <v>-61.45</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S28" s="2">
         <v>23</v>
@@ -7909,10 +7906,10 @@
         <v>2</v>
       </c>
       <c r="Y28" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z28" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA28" s="18"/>
       <c r="AB28" s="18"/>
@@ -7934,7 +7931,7 @@
         <v>20190906</v>
       </c>
       <c r="AJ28" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AK28" s="18" t="s">
         <v>147</v>
@@ -7946,10 +7943,10 @@
         <v>69</v>
       </c>
       <c r="AN28" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AO28" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP28" s="10" t="s">
         <v>70</v>
@@ -7958,7 +7955,7 @@
         <v>71</v>
       </c>
       <c r="AR28" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AS28" s="15"/>
       <c r="AT28" s="15"/>
@@ -7970,7 +7967,7 @@
         <v>42691</v>
       </c>
       <c r="AX28" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY28" s="15"/>
       <c r="AZ28" s="15"/>
@@ -7981,10 +7978,10 @@
       <c r="BE28" s="15"/>
       <c r="BF28" s="15"/>
       <c r="BG28" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH28" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI28" s="15" t="s">
         <v>98</v>
@@ -7998,16 +7995,16 @@
       <c r="BL28" s="22"/>
       <c r="BM28" s="2"/>
       <c r="BN28" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO28" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP28" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ28" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -8015,10 +8012,10 @@
         <v>11</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>53</v>
@@ -8030,10 +8027,10 @@
         <v>4800937</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I29" s="2">
         <v>29.2</v>
@@ -8061,7 +8058,7 @@
         <v>-62.68</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S29" s="2">
         <v>23</v>
@@ -8073,7 +8070,7 @@
         <v>949</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W29" s="18" t="s">
         <v>36</v>
@@ -8082,10 +8079,10 @@
         <v>1</v>
       </c>
       <c r="Y29" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z29" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA29" s="18"/>
       <c r="AB29" s="18">
@@ -8109,10 +8106,10 @@
         <v>20190906</v>
       </c>
       <c r="AJ29" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AK29" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL29" s="14">
         <v>58</v>
@@ -8130,10 +8127,10 @@
       <c r="AW29" s="16"/>
       <c r="AX29" s="15"/>
       <c r="AY29" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AZ29" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BA29" s="22"/>
       <c r="BB29" s="22"/>
@@ -8142,10 +8139,10 @@
       <c r="BE29" s="15"/>
       <c r="BF29" s="15"/>
       <c r="BG29" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH29" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI29" s="22" t="s">
         <v>117</v>
@@ -8157,16 +8154,16 @@
       <c r="BL29" s="22"/>
       <c r="BM29" s="2"/>
       <c r="BN29" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO29" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP29" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ29" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -8174,10 +8171,10 @@
         <v>12</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>35</v>
@@ -8192,7 +8189,7 @@
         <v>15</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I30" s="2">
         <v>29.1</v>
@@ -8220,7 +8217,7 @@
         <v>-61.47</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S30" s="2">
         <v>21</v>
@@ -8242,10 +8239,10 @@
         <v>2</v>
       </c>
       <c r="Y30" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z30" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA30" s="18"/>
       <c r="AB30" s="18"/>
@@ -8267,7 +8264,7 @@
         <v>20190509</v>
       </c>
       <c r="AJ30" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AK30" s="18" t="s">
         <v>147</v>
@@ -8279,10 +8276,10 @@
         <v>76</v>
       </c>
       <c r="AN30" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AO30" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP30" s="20" t="s">
         <v>77</v>
@@ -8291,7 +8288,7 @@
         <v>78</v>
       </c>
       <c r="AR30" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AS30" s="22"/>
       <c r="AT30" s="22"/>
@@ -8303,7 +8300,7 @@
         <v>42711</v>
       </c>
       <c r="AX30" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY30" s="22"/>
       <c r="AZ30" s="22"/>
@@ -8314,10 +8311,10 @@
       <c r="BE30" s="15"/>
       <c r="BF30" s="15"/>
       <c r="BG30" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH30" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI30" s="15" t="s">
         <v>95</v>
@@ -8331,16 +8328,16 @@
       <c r="BL30" s="22"/>
       <c r="BM30" s="2"/>
       <c r="BN30" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO30" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP30" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ30" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:69" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8348,10 +8345,10 @@
         <v>13</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>13</v>
@@ -8366,7 +8363,7 @@
         <v>15</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I31" s="2">
         <v>29.2</v>
@@ -8394,7 +8391,7 @@
         <v>-61.53</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S31" s="2">
         <v>21</v>
@@ -8409,16 +8406,16 @@
         <v>725</v>
       </c>
       <c r="W31" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X31" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y31" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z31" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA31" s="18"/>
       <c r="AB31" s="18"/>
@@ -8440,10 +8437,10 @@
         <v>20190906</v>
       </c>
       <c r="AJ31" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AK31" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AL31" s="14">
         <v>33</v>
@@ -8452,10 +8449,10 @@
         <v>69</v>
       </c>
       <c r="AN31" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AO31" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP31" s="10" t="s">
         <v>70</v>
@@ -8464,7 +8461,7 @@
         <v>71</v>
       </c>
       <c r="AR31" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AS31" s="15"/>
       <c r="AT31" s="15"/>
@@ -8476,7 +8473,7 @@
         <v>42691</v>
       </c>
       <c r="AX31" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY31" s="15"/>
       <c r="AZ31" s="15"/>
@@ -8487,10 +8484,10 @@
       <c r="BE31" s="15"/>
       <c r="BF31" s="15"/>
       <c r="BG31" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH31" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BI31" s="22" t="s">
         <v>117</v>
@@ -8504,16 +8501,16 @@
       <c r="BL31" s="22"/>
       <c r="BM31" s="2"/>
       <c r="BN31" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO31" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP31" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ31" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:69" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8521,10 +8518,10 @@
         <v>14</v>
       </c>
       <c r="B32" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>44</v>
@@ -8539,7 +8536,7 @@
         <v>15</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I32" s="2">
         <v>29</v>
@@ -8567,7 +8564,7 @@
         <v>-61.93</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S32" s="2">
         <v>16</v>
@@ -8589,19 +8586,19 @@
         <v>1</v>
       </c>
       <c r="Y32" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z32" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA32" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB32" s="18"/>
       <c r="AC32" s="18"/>
       <c r="AD32" s="18"/>
       <c r="AE32" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF32" s="2">
         <v>5</v>
@@ -8616,10 +8613,10 @@
         <v>20200227</v>
       </c>
       <c r="AJ32" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK32" s="18" t="s">
         <v>216</v>
-      </c>
-      <c r="AK32" s="18" t="s">
-        <v>217</v>
       </c>
       <c r="AL32" s="14">
         <v>42</v>
@@ -8628,10 +8625,10 @@
         <v>84</v>
       </c>
       <c r="AN32" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO32" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP32" s="20" t="s">
         <v>85</v>
@@ -8642,10 +8639,10 @@
         <v>87</v>
       </c>
       <c r="AT32" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AU32" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AV32" s="20" t="s">
         <v>86</v>
@@ -8654,7 +8651,7 @@
         <v>42859</v>
       </c>
       <c r="AX32" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY32" s="22"/>
       <c r="AZ32" s="22"/>
@@ -8665,10 +8662,10 @@
       <c r="BE32" s="15"/>
       <c r="BF32" s="15"/>
       <c r="BG32" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH32" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BI32" s="15" t="s">
         <v>95</v>
@@ -8682,21 +8679,21 @@
       <c r="BL32" s="22"/>
       <c r="BM32" s="2"/>
       <c r="BN32" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO32" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP32" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="BQ32" s="21" t="s">
         <v>236</v>
-      </c>
-      <c r="BQ32" s="21" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="47" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
@@ -8770,7 +8767,7 @@
     </row>
     <row r="34" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
@@ -8847,10 +8844,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>13</v>
@@ -8865,7 +8862,7 @@
         <v>15</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I35" s="3">
         <v>29.1</v>
@@ -8893,7 +8890,7 @@
         <v>-61.84</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S35" s="3">
         <v>18</v>
@@ -8909,23 +8906,23 @@
         <v>1186</v>
       </c>
       <c r="W35" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="X35" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="X35" s="37" t="s">
-        <v>260</v>
-      </c>
       <c r="Y35" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z35" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA35" s="37"/>
       <c r="AB35" s="37"/>
       <c r="AC35" s="37"/>
       <c r="AD35" s="37"/>
       <c r="AE35" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF35" s="3">
         <v>7</v>
@@ -8940,10 +8937,10 @@
         <v>20190906</v>
       </c>
       <c r="AJ35" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK35" s="37" t="s">
         <v>216</v>
-      </c>
-      <c r="AK35" s="37" t="s">
-        <v>217</v>
       </c>
       <c r="AL35" s="35">
         <v>33</v>
@@ -8952,10 +8949,10 @@
         <v>69</v>
       </c>
       <c r="AN35" s="38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AO35" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP35" s="41" t="s">
         <v>70</v>
@@ -8964,7 +8961,7 @@
         <v>71</v>
       </c>
       <c r="AR35" s="38" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AS35" s="40"/>
       <c r="AT35" s="40"/>
@@ -8976,7 +8973,7 @@
         <v>42691</v>
       </c>
       <c r="AX35" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY35" s="40"/>
       <c r="AZ35" s="40"/>
@@ -8987,10 +8984,10 @@
       <c r="BE35" s="40"/>
       <c r="BF35" s="40"/>
       <c r="BG35" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH35" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BI35" s="38" t="s">
         <v>98</v>
@@ -9004,16 +9001,16 @@
       <c r="BL35" s="38"/>
       <c r="BM35" s="3"/>
       <c r="BN35" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO35" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP35" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="BQ35" s="43" t="s">
         <v>265</v>
-      </c>
-      <c r="BQ35" s="43" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -9021,10 +9018,10 @@
         <v>2</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>35</v>
@@ -9039,7 +9036,7 @@
         <v>15</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I36" s="3">
         <v>29.3</v>
@@ -9067,7 +9064,7 @@
         <v>-61.43</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S36" s="3">
         <v>21</v>
@@ -9082,23 +9079,23 @@
         <v>924</v>
       </c>
       <c r="W36" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X36" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y36" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z36" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA36" s="37"/>
       <c r="AB36" s="37"/>
       <c r="AC36" s="37"/>
       <c r="AD36" s="37"/>
       <c r="AE36" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF36" s="3">
         <v>5</v>
@@ -9113,10 +9110,10 @@
         <v>20190509</v>
       </c>
       <c r="AJ36" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AK36" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AL36" s="35">
         <v>32</v>
@@ -9125,10 +9122,10 @@
         <v>76</v>
       </c>
       <c r="AN36" s="38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AO36" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP36" s="34" t="s">
         <v>77</v>
@@ -9137,7 +9134,7 @@
         <v>78</v>
       </c>
       <c r="AR36" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AS36" s="38"/>
       <c r="AT36" s="38"/>
@@ -9149,7 +9146,7 @@
         <v>42711</v>
       </c>
       <c r="AX36" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY36" s="38"/>
       <c r="AZ36" s="38"/>
@@ -9160,10 +9157,10 @@
       <c r="BE36" s="40"/>
       <c r="BF36" s="40"/>
       <c r="BG36" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH36" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI36" s="38" t="s">
         <v>98</v>
@@ -9176,19 +9173,19 @@
       </c>
       <c r="BL36" s="38"/>
       <c r="BM36" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BN36" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO36" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP36" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ36" s="43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -9196,10 +9193,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>53</v>
@@ -9211,10 +9208,10 @@
         <v>4800937</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I37" s="3">
         <v>29.2</v>
@@ -9242,7 +9239,7 @@
         <v>-62.81</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S37" s="3">
         <v>21</v>
@@ -9254,7 +9251,7 @@
         <v>1035</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="W37" s="37" t="s">
         <v>36</v>
@@ -9263,10 +9260,10 @@
         <v>1</v>
       </c>
       <c r="Y37" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z37" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA37" s="37"/>
       <c r="AB37" s="37">
@@ -9275,7 +9272,7 @@
       <c r="AC37" s="37"/>
       <c r="AD37" s="37"/>
       <c r="AE37" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF37" s="3">
         <v>3</v>
@@ -9290,10 +9287,10 @@
         <v>20190906</v>
       </c>
       <c r="AJ37" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AK37" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AL37" s="35">
         <v>58</v>
@@ -9311,10 +9308,10 @@
       <c r="AW37" s="39"/>
       <c r="AX37" s="38"/>
       <c r="AY37" s="40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AZ37" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BA37" s="40"/>
       <c r="BB37" s="40"/>
@@ -9323,35 +9320,35 @@
       <c r="BE37" s="40"/>
       <c r="BF37" s="40"/>
       <c r="BG37" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH37" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BI37" s="46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BJ37" s="38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BK37" s="92" t="s">
         <v>138</v>
       </c>
       <c r="BL37" s="38"/>
       <c r="BM37" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BN37" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BO37" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP37" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ37" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -9359,10 +9356,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D38" s="35" t="s">
         <v>44</v>
@@ -9377,7 +9374,7 @@
         <v>129</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I38" s="3">
         <v>28.5</v>
@@ -9405,7 +9402,7 @@
         <v>-50.08</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S38" s="3">
         <v>25</v>
@@ -9427,19 +9424,19 @@
         <v>1</v>
       </c>
       <c r="Y38" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z38" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA38" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB38" s="37"/>
       <c r="AC38" s="37"/>
       <c r="AD38" s="37"/>
       <c r="AE38" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF38" s="3">
         <v>4</v>
@@ -9454,10 +9451,10 @@
         <v>20200227</v>
       </c>
       <c r="AJ38" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK38" s="37" t="s">
         <v>216</v>
-      </c>
-      <c r="AK38" s="37" t="s">
-        <v>217</v>
       </c>
       <c r="AL38" s="35">
         <v>42</v>
@@ -9466,10 +9463,10 @@
         <v>84</v>
       </c>
       <c r="AN38" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO38" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP38" s="34" t="s">
         <v>85</v>
@@ -9480,10 +9477,10 @@
         <v>87</v>
       </c>
       <c r="AT38" s="38" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AU38" s="38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AV38" s="34" t="s">
         <v>86</v>
@@ -9492,7 +9489,7 @@
         <v>42859</v>
       </c>
       <c r="AX38" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY38" s="38"/>
       <c r="AZ38" s="38"/>
@@ -9503,31 +9500,31 @@
       <c r="BE38" s="40"/>
       <c r="BF38" s="40"/>
       <c r="BG38" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH38" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BI38" s="40" t="s">
         <v>96</v>
       </c>
       <c r="BJ38" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BK38" s="38"/>
       <c r="BL38" s="38"/>
       <c r="BM38" s="3"/>
       <c r="BN38" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BO38" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP38" s="37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BQ38" s="43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -9535,10 +9532,10 @@
         <v>5</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D39" s="35" t="s">
         <v>44</v>
@@ -9553,7 +9550,7 @@
         <v>129</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I39" s="3">
         <v>29.1</v>
@@ -9581,7 +9578,7 @@
         <v>-49.29</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S39" s="3">
         <v>26</v>
@@ -9603,19 +9600,19 @@
         <v>1</v>
       </c>
       <c r="Y39" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z39" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA39" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB39" s="37"/>
       <c r="AC39" s="37"/>
       <c r="AD39" s="37"/>
       <c r="AE39" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF39" s="3">
         <v>8</v>
@@ -9630,10 +9627,10 @@
         <v>20200227</v>
       </c>
       <c r="AJ39" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK39" s="37" t="s">
         <v>216</v>
-      </c>
-      <c r="AK39" s="37" t="s">
-        <v>217</v>
       </c>
       <c r="AL39" s="35">
         <v>42</v>
@@ -9642,10 +9639,10 @@
         <v>84</v>
       </c>
       <c r="AN39" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO39" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP39" s="34" t="s">
         <v>85</v>
@@ -9656,10 +9653,10 @@
         <v>87</v>
       </c>
       <c r="AT39" s="38" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AU39" s="38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AV39" s="34" t="s">
         <v>86</v>
@@ -9668,7 +9665,7 @@
         <v>42859</v>
       </c>
       <c r="AX39" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY39" s="38"/>
       <c r="AZ39" s="38"/>
@@ -9679,31 +9676,31 @@
       <c r="BE39" s="40"/>
       <c r="BF39" s="40"/>
       <c r="BG39" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH39" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BI39" s="40" t="s">
         <v>96</v>
       </c>
       <c r="BJ39" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BK39" s="38"/>
       <c r="BL39" s="38"/>
       <c r="BM39" s="3"/>
       <c r="BN39" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BO39" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP39" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BQ39" s="43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -9711,10 +9708,10 @@
         <v>6</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D40" s="35" t="s">
         <v>44</v>
@@ -9729,7 +9726,7 @@
         <v>129</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I40" s="3">
         <v>29.1</v>
@@ -9757,7 +9754,7 @@
         <v>-49.75</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S40" s="3">
         <v>21</v>
@@ -9773,25 +9770,25 @@
         <v>858</v>
       </c>
       <c r="W40" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X40" s="37">
         <v>1</v>
       </c>
       <c r="Y40" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z40" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA40" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB40" s="37"/>
       <c r="AC40" s="37"/>
       <c r="AD40" s="37"/>
       <c r="AE40" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF40" s="3">
         <v>7</v>
@@ -9806,10 +9803,10 @@
         <v>20200227</v>
       </c>
       <c r="AJ40" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK40" s="37" t="s">
         <v>216</v>
-      </c>
-      <c r="AK40" s="37" t="s">
-        <v>217</v>
       </c>
       <c r="AL40" s="35">
         <v>42</v>
@@ -9818,10 +9815,10 @@
         <v>84</v>
       </c>
       <c r="AN40" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO40" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP40" s="34" t="s">
         <v>85</v>
@@ -9832,10 +9829,10 @@
         <v>87</v>
       </c>
       <c r="AT40" s="38" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AU40" s="38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AV40" s="34" t="s">
         <v>86</v>
@@ -9844,7 +9841,7 @@
         <v>42859</v>
       </c>
       <c r="AX40" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY40" s="38"/>
       <c r="AZ40" s="38"/>
@@ -9855,31 +9852,31 @@
       <c r="BE40" s="40"/>
       <c r="BF40" s="40"/>
       <c r="BG40" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH40" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BI40" s="40" t="s">
         <v>96</v>
       </c>
       <c r="BJ40" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BK40" s="38"/>
       <c r="BL40" s="38"/>
       <c r="BM40" s="3"/>
       <c r="BN40" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BO40" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP40" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BQ40" s="43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -9887,10 +9884,10 @@
         <v>7</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D41" s="35" t="s">
         <v>13</v>
@@ -9905,7 +9902,7 @@
         <v>15</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I41" s="3">
         <v>29.1</v>
@@ -9933,7 +9930,7 @@
         <v>-61.69</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S41" s="3">
         <v>18</v>
@@ -9948,21 +9945,21 @@
         <v>742</v>
       </c>
       <c r="W41" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X41" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y41" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z41" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA41" s="37"/>
       <c r="AB41" s="37"/>
       <c r="AC41" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AD41" s="37"/>
       <c r="AE41" s="3">
@@ -9981,10 +9978,10 @@
         <v>20200914</v>
       </c>
       <c r="AJ41" s="37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AK41" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AL41" s="35">
         <v>33</v>
@@ -9993,10 +9990,10 @@
         <v>75</v>
       </c>
       <c r="AN41" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO41" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP41" s="34" t="s">
         <v>73</v>
@@ -10005,7 +10002,7 @@
         <v>72</v>
       </c>
       <c r="AR41" s="38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AS41" s="40"/>
       <c r="AT41" s="40"/>
@@ -10017,52 +10014,52 @@
         <v>42691</v>
       </c>
       <c r="AX41" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY41" s="40"/>
       <c r="AZ41" s="40"/>
       <c r="BA41" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="BB41" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="BB41" s="40" t="s">
-        <v>347</v>
-      </c>
       <c r="BC41" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BD41" s="40"/>
       <c r="BE41" s="40"/>
       <c r="BF41" s="40"/>
       <c r="BG41" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH41" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BI41" s="46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BJ41" s="38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BK41" s="92" t="s">
         <v>137</v>
       </c>
       <c r="BL41" s="38"/>
       <c r="BM41" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BN41" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO41" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP41" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ41" s="43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -10070,10 +10067,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D42" s="35" t="s">
         <v>53</v>
@@ -10088,7 +10085,7 @@
         <v>15</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I42" s="3">
         <v>29.2</v>
@@ -10116,13 +10113,13 @@
         <v>-61.64</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S42" s="3">
         <v>20</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U42" s="3">
         <v>1080</v>
@@ -10131,16 +10128,16 @@
         <v>819</v>
       </c>
       <c r="W42" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X42" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y42" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z42" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA42" s="37"/>
       <c r="AB42" s="37"/>
@@ -10153,7 +10150,7 @@
         <v>2</v>
       </c>
       <c r="AG42" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AH42" s="3">
         <v>1023.5</v>
@@ -10162,10 +10159,10 @@
         <v>20200914</v>
       </c>
       <c r="AJ42" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AK42" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AL42" s="62">
         <v>30</v>
@@ -10174,10 +10171,10 @@
         <v>75</v>
       </c>
       <c r="AN42" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO42" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP42" s="34" t="s">
         <v>73</v>
@@ -10186,7 +10183,7 @@
         <v>72</v>
       </c>
       <c r="AR42" s="38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AS42" s="38"/>
       <c r="AT42" s="38"/>
@@ -10198,7 +10195,7 @@
         <v>42723</v>
       </c>
       <c r="AX42" s="61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY42" s="38"/>
       <c r="AZ42" s="38"/>
@@ -10209,16 +10206,16 @@
       <c r="BE42" s="40"/>
       <c r="BF42" s="40"/>
       <c r="BG42" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH42" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BI42" s="58" t="s">
         <v>117</v>
       </c>
       <c r="BJ42" s="58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BK42" s="92" t="s">
         <v>138</v>
@@ -10226,16 +10223,16 @@
       <c r="BL42" s="38"/>
       <c r="BM42" s="3"/>
       <c r="BN42" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO42" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP42" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ42" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:69" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10243,10 +10240,10 @@
         <v>9</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D43" s="35" t="s">
         <v>24</v>
@@ -10261,7 +10258,7 @@
         <v>15</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I43" s="3">
         <v>29.1</v>
@@ -10289,7 +10286,7 @@
         <v>-61.53</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S43" s="3">
         <v>23</v>
@@ -10307,20 +10304,20 @@
         <v>36</v>
       </c>
       <c r="X43" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y43" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z43" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA43" s="37"/>
       <c r="AB43" s="37"/>
       <c r="AC43" s="37"/>
       <c r="AD43" s="37"/>
       <c r="AE43" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF43" s="3">
         <v>6</v>
@@ -10335,10 +10332,10 @@
         <v>20210112</v>
       </c>
       <c r="AJ43" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AK43" s="37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL43" s="35">
         <v>29</v>
@@ -10347,10 +10344,10 @@
         <v>75</v>
       </c>
       <c r="AN43" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO43" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP43" s="34" t="s">
         <v>73</v>
@@ -10359,7 +10356,7 @@
         <v>72</v>
       </c>
       <c r="AR43" s="38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AS43" s="38"/>
       <c r="AT43" s="38"/>
@@ -10371,7 +10368,7 @@
         <v>42711</v>
       </c>
       <c r="AX43" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY43" s="38"/>
       <c r="AZ43" s="38"/>
@@ -10382,31 +10379,31 @@
       <c r="BE43" s="40"/>
       <c r="BF43" s="40"/>
       <c r="BG43" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH43" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BI43" s="40" t="s">
         <v>96</v>
       </c>
       <c r="BJ43" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BK43" s="38"/>
       <c r="BL43" s="38"/>
       <c r="BM43" s="3"/>
       <c r="BN43" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO43" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP43" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="BQ43" s="43" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44" spans="1:69" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10414,10 +10411,10 @@
         <v>10</v>
       </c>
       <c r="B44" s="83" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D44" s="35" t="s">
         <v>44</v>
@@ -10432,7 +10429,7 @@
         <v>15</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I44" s="3">
         <v>29.1</v>
@@ -10460,7 +10457,7 @@
         <v>-61.52</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S44" s="3">
         <v>21</v>
@@ -10478,22 +10475,22 @@
         <v>36</v>
       </c>
       <c r="X44" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y44" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z44" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA44" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB44" s="37"/>
       <c r="AC44" s="37"/>
       <c r="AD44" s="37"/>
       <c r="AE44" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF44" s="3">
         <v>1</v>
@@ -10508,10 +10505,10 @@
         <v>20210302</v>
       </c>
       <c r="AJ44" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AK44" s="37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL44" s="62">
         <v>42</v>
@@ -10520,10 +10517,10 @@
         <v>84</v>
       </c>
       <c r="AN44" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO44" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP44" s="34" t="s">
         <v>85</v>
@@ -10534,10 +10531,10 @@
         <v>87</v>
       </c>
       <c r="AT44" s="38" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AU44" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV44" s="34" t="s">
         <v>86</v>
@@ -10546,7 +10543,7 @@
         <v>42859</v>
       </c>
       <c r="AX44" s="85" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY44" s="38"/>
       <c r="AZ44" s="38"/>
@@ -10557,31 +10554,31 @@
       <c r="BE44" s="40"/>
       <c r="BF44" s="40"/>
       <c r="BG44" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH44" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BI44" s="40" t="s">
         <v>95</v>
       </c>
       <c r="BJ44" s="38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BK44" s="38"/>
       <c r="BL44" s="38"/>
       <c r="BM44" s="3"/>
       <c r="BN44" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO44" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP44" s="37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="BQ44" s="43" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="45" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -10589,10 +10586,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>24</v>
@@ -10607,7 +10604,7 @@
         <v>15</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I45" s="2">
         <v>29.1</v>
@@ -10635,7 +10632,7 @@
         <v>-61.49</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S45" s="2">
         <v>22</v>
@@ -10653,13 +10650,13 @@
         <v>36</v>
       </c>
       <c r="X45" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y45" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z45" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA45" s="18"/>
       <c r="AB45" s="18"/>
@@ -10681,10 +10678,10 @@
         <v>20210112</v>
       </c>
       <c r="AJ45" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK45" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL45" s="14">
         <v>29</v>
@@ -10693,10 +10690,10 @@
         <v>75</v>
       </c>
       <c r="AN45" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO45" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP45" s="20" t="s">
         <v>73</v>
@@ -10705,7 +10702,7 @@
         <v>72</v>
       </c>
       <c r="AR45" s="22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AS45" s="79"/>
       <c r="AT45" s="79"/>
@@ -10717,7 +10714,7 @@
         <v>42711</v>
       </c>
       <c r="AX45" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY45" s="79"/>
       <c r="AZ45" s="79"/>
@@ -10728,16 +10725,16 @@
       <c r="BE45" s="86"/>
       <c r="BF45" s="86"/>
       <c r="BG45" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH45" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BI45" s="15" t="s">
         <v>96</v>
       </c>
       <c r="BJ45" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BK45" s="92" t="s">
         <v>138</v>
@@ -10745,16 +10742,16 @@
       <c r="BL45" s="22"/>
       <c r="BM45" s="2"/>
       <c r="BN45" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO45" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP45" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ45" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -10762,10 +10759,10 @@
         <v>2</v>
       </c>
       <c r="B46" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="C46" s="20" t="s">
         <v>376</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>377</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>13</v>
@@ -10780,7 +10777,7 @@
         <v>15</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I46" s="2">
         <v>29.1</v>
@@ -10808,7 +10805,7 @@
         <v>-62.67</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="S46" s="2">
         <v>4</v>
@@ -10827,13 +10824,13 @@
         <v>36</v>
       </c>
       <c r="X46" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y46" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z46" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA46" s="18"/>
       <c r="AB46" s="18"/>
@@ -10855,10 +10852,10 @@
         <v>20210420</v>
       </c>
       <c r="AJ46" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AK46" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL46" s="14">
         <v>33</v>
@@ -10867,10 +10864,10 @@
         <v>69</v>
       </c>
       <c r="AN46" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AO46" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP46" s="10" t="s">
         <v>70</v>
@@ -10879,7 +10876,7 @@
         <v>71</v>
       </c>
       <c r="AR46" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AS46" s="22"/>
       <c r="AT46" s="22"/>
@@ -10891,7 +10888,7 @@
         <v>42691</v>
       </c>
       <c r="AX46" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY46" s="79"/>
       <c r="AZ46" s="79"/>
@@ -10902,16 +10899,16 @@
       <c r="BE46" s="15"/>
       <c r="BF46" s="15"/>
       <c r="BG46" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH46" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI46" s="54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BJ46" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BK46" s="92" t="s">
         <v>137</v>
@@ -10919,16 +10916,16 @@
       <c r="BL46" s="22"/>
       <c r="BM46" s="2"/>
       <c r="BN46" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO46" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP46" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="BQ46" s="21" t="s">
         <v>379</v>
-      </c>
-      <c r="BQ46" s="21" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="47" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -10936,10 +10933,10 @@
         <v>3</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>44</v>
@@ -10954,7 +10951,7 @@
         <v>15</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I47" s="2">
         <v>29</v>
@@ -10982,7 +10979,7 @@
         <v>-61.41</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S47" s="2">
         <v>21</v>
@@ -11000,13 +10997,13 @@
         <v>36</v>
       </c>
       <c r="X47" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y47" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z47" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA47" s="18"/>
       <c r="AB47" s="18"/>
@@ -11028,10 +11025,10 @@
         <v>20210420</v>
       </c>
       <c r="AJ47" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AK47" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL47" s="14">
         <v>32</v>
@@ -11040,10 +11037,10 @@
         <v>76</v>
       </c>
       <c r="AN47" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AO47" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP47" s="20" t="s">
         <v>77</v>
@@ -11064,7 +11061,7 @@
         <v>42711</v>
       </c>
       <c r="AX47" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY47" s="79"/>
       <c r="AZ47" s="79"/>
@@ -11075,16 +11072,16 @@
       <c r="BE47" s="15"/>
       <c r="BF47" s="15"/>
       <c r="BG47" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH47" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BI47" s="15" t="s">
         <v>95</v>
       </c>
       <c r="BJ47" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BK47" s="92" t="s">
         <v>138</v>
@@ -11092,16 +11089,16 @@
       <c r="BL47" s="22"/>
       <c r="BM47" s="2"/>
       <c r="BN47" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO47" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP47" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ47" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -11109,10 +11106,10 @@
         <v>4</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>53</v>
@@ -11124,10 +11121,10 @@
         <v>4800937</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I48" s="2">
         <v>29.2</v>
@@ -11155,7 +11152,7 @@
         <v>-62.85</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S48" s="2">
         <v>14</v>
@@ -11167,17 +11164,17 @@
         <v>486</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="W48" s="18" t="s">
         <v>36</v>
       </c>
       <c r="X48" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Y48" s="18"/>
       <c r="Z48" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA48" s="18"/>
       <c r="AB48" s="18">
@@ -11203,10 +11200,10 @@
         <v>20210527</v>
       </c>
       <c r="AJ48" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AK48" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL48" s="14">
         <v>58</v>
@@ -11227,37 +11224,37 @@
         <v>42723</v>
       </c>
       <c r="AX48" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY48" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="AZ48" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="AY48" s="15" t="s">
+      <c r="BA48" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="AZ48" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="BA48" s="15" t="s">
+      <c r="BB48" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="BB48" s="15" t="s">
-        <v>347</v>
-      </c>
       <c r="BC48" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BD48" s="15"/>
       <c r="BE48" s="15"/>
       <c r="BF48" s="15"/>
       <c r="BG48" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH48" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BI48" s="15" t="s">
         <v>96</v>
       </c>
       <c r="BJ48" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BK48" s="92" t="s">
         <v>137</v>
@@ -11265,16 +11262,16 @@
       <c r="BL48" s="22"/>
       <c r="BM48" s="2"/>
       <c r="BN48" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BO48" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP48" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ48" s="21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -11282,10 +11279,10 @@
         <v>5</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>35</v>
@@ -11300,7 +11297,7 @@
         <v>129</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I49" s="2">
         <v>28.9</v>
@@ -11328,7 +11325,7 @@
         <v>-52.69</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="S49" s="2">
         <v>9</v>
@@ -11350,18 +11347,18 @@
         <v>1</v>
       </c>
       <c r="Y49" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z49" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA49" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB49" s="18"/>
       <c r="AC49" s="18"/>
       <c r="AD49" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AE49" s="2">
         <v>0</v>
@@ -11379,10 +11376,10 @@
         <v>20210421</v>
       </c>
       <c r="AJ49" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AK49" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL49" s="14">
         <v>42</v>
@@ -11391,10 +11388,10 @@
         <v>84</v>
       </c>
       <c r="AN49" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO49" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP49" s="20" t="s">
         <v>85</v>
@@ -11405,10 +11402,10 @@
         <v>87</v>
       </c>
       <c r="AT49" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AU49" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV49" s="20" t="s">
         <v>86</v>
@@ -11417,7 +11414,7 @@
         <v>42859</v>
       </c>
       <c r="AX49" s="87" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY49" s="79"/>
       <c r="AZ49" s="79"/>
@@ -11425,40 +11422,40 @@
       <c r="BB49" s="79"/>
       <c r="BC49" s="79"/>
       <c r="BD49" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="BE49" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="BE49" s="15" t="s">
-        <v>371</v>
-      </c>
       <c r="BF49" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BG49" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH49" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI49" s="15" t="s">
         <v>98</v>
       </c>
       <c r="BJ49" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BK49" s="22"/>
       <c r="BL49" s="22"/>
       <c r="BM49" s="2"/>
       <c r="BN49" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BO49" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP49" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="BQ49" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -11466,10 +11463,10 @@
         <v>6</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>44</v>
@@ -11484,7 +11481,7 @@
         <v>15</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I50" s="2">
         <v>29.1</v>
@@ -11512,7 +11509,7 @@
         <v>-61.4</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S50" s="2">
         <v>22</v>
@@ -11530,13 +11527,13 @@
         <v>36</v>
       </c>
       <c r="X50" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y50" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z50" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA50" s="18"/>
       <c r="AB50" s="18"/>
@@ -11552,16 +11549,16 @@
         <v>2</v>
       </c>
       <c r="AH50" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AI50" s="18">
         <v>20210420</v>
       </c>
       <c r="AJ50" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AK50" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL50" s="14">
         <v>32</v>
@@ -11570,10 +11567,10 @@
         <v>76</v>
       </c>
       <c r="AN50" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AO50" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP50" s="20" t="s">
         <v>77</v>
@@ -11594,7 +11591,7 @@
         <v>42711</v>
       </c>
       <c r="AX50" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY50" s="79"/>
       <c r="AZ50" s="79"/>
@@ -11605,16 +11602,16 @@
       <c r="BE50" s="15"/>
       <c r="BF50" s="15"/>
       <c r="BG50" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH50" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BI50" s="15" t="s">
         <v>95</v>
       </c>
       <c r="BJ50" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BK50" s="92" t="s">
         <v>138</v>
@@ -11622,16 +11619,16 @@
       <c r="BL50" s="22"/>
       <c r="BM50" s="2"/>
       <c r="BN50" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO50" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP50" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="BQ50" s="21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -11639,10 +11636,10 @@
         <v>7</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>53</v>
@@ -11654,10 +11651,10 @@
         <v>4800937</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I51" s="2">
         <v>29.2</v>
@@ -11685,7 +11682,7 @@
         <v>-62.68</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="S51" s="2">
         <v>22</v>
@@ -11697,17 +11694,17 @@
         <v>808</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="W51" s="18" t="s">
         <v>36</v>
       </c>
       <c r="X51" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Y51" s="18"/>
       <c r="Z51" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA51" s="18"/>
       <c r="AB51" s="18">
@@ -11727,16 +11724,16 @@
         <v>2</v>
       </c>
       <c r="AH51" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AI51" s="18">
         <v>20210527</v>
       </c>
       <c r="AJ51" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AK51" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AL51" s="14">
         <v>58</v>
@@ -11757,37 +11754,37 @@
         <v>42723</v>
       </c>
       <c r="AX51" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY51" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="AZ51" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="AY51" s="15" t="s">
+      <c r="BA51" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="AZ51" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="BA51" s="15" t="s">
+      <c r="BB51" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="BB51" s="15" t="s">
-        <v>347</v>
-      </c>
       <c r="BC51" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BD51" s="15"/>
       <c r="BE51" s="15"/>
       <c r="BF51" s="15"/>
       <c r="BG51" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH51" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BI51" s="15" t="s">
         <v>96</v>
       </c>
       <c r="BJ51" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BK51" s="92" t="s">
         <v>137</v>
@@ -11795,16 +11792,16 @@
       <c r="BL51" s="22"/>
       <c r="BM51" s="2"/>
       <c r="BN51" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BO51" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP51" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="BQ51" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="52" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -11812,10 +11809,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>35</v>
@@ -11830,7 +11827,7 @@
         <v>129</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I52" s="2">
         <v>28.8</v>
@@ -11858,7 +11855,7 @@
         <v>-50.2</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="S52" s="2">
         <v>20</v>
@@ -11880,18 +11877,18 @@
         <v>1</v>
       </c>
       <c r="Y52" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z52" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA52" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB52" s="18"/>
       <c r="AC52" s="18"/>
       <c r="AD52" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AE52" s="2">
         <v>0</v>
@@ -11909,10 +11906,10 @@
         <v>20210421</v>
       </c>
       <c r="AJ52" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AK52" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL52" s="14">
         <v>42</v>
@@ -11921,10 +11918,10 @@
         <v>84</v>
       </c>
       <c r="AN52" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO52" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP52" s="20" t="s">
         <v>85</v>
@@ -11935,10 +11932,10 @@
         <v>87</v>
       </c>
       <c r="AT52" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AU52" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV52" s="20" t="s">
         <v>86</v>
@@ -11947,7 +11944,7 @@
         <v>42859</v>
       </c>
       <c r="AX52" s="87" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY52" s="15"/>
       <c r="AZ52" s="15"/>
@@ -11955,40 +11952,40 @@
       <c r="BB52" s="15"/>
       <c r="BC52" s="15"/>
       <c r="BD52" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="BE52" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="BE52" s="15" t="s">
-        <v>371</v>
-      </c>
       <c r="BF52" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BG52" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH52" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI52" s="15" t="s">
         <v>98</v>
       </c>
       <c r="BJ52" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BK52" s="22"/>
       <c r="BL52" s="22"/>
       <c r="BM52" s="2"/>
       <c r="BN52" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BO52" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP52" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BQ52" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="53" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -11996,10 +11993,10 @@
         <v>9</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>35</v>
@@ -12014,7 +12011,7 @@
         <v>129</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I53" s="2">
         <v>28.9</v>
@@ -12042,7 +12039,7 @@
         <v>-49.41</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="S53" s="2">
         <v>27</v>
@@ -12060,21 +12057,21 @@
         <v>37</v>
       </c>
       <c r="X53" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y53" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z53" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA53" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB53" s="18"/>
       <c r="AC53" s="18"/>
       <c r="AD53" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AE53" s="2">
         <v>1</v>
@@ -12092,10 +12089,10 @@
         <v>20210421</v>
       </c>
       <c r="AJ53" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AK53" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL53" s="14">
         <v>42</v>
@@ -12104,10 +12101,10 @@
         <v>84</v>
       </c>
       <c r="AN53" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO53" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP53" s="20" t="s">
         <v>85</v>
@@ -12118,10 +12115,10 @@
         <v>87</v>
       </c>
       <c r="AT53" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AU53" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV53" s="20" t="s">
         <v>86</v>
@@ -12130,7 +12127,7 @@
         <v>42859</v>
       </c>
       <c r="AX53" s="87" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY53" s="15"/>
       <c r="AZ53" s="15"/>
@@ -12138,40 +12135,40 @@
       <c r="BB53" s="15"/>
       <c r="BC53" s="15"/>
       <c r="BD53" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="BE53" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="BE53" s="15" t="s">
-        <v>371</v>
-      </c>
       <c r="BF53" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BG53" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH53" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI53" s="15" t="s">
         <v>98</v>
       </c>
       <c r="BJ53" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BK53" s="22"/>
       <c r="BL53" s="22"/>
       <c r="BM53" s="2"/>
       <c r="BN53" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BO53" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP53" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BQ53" s="21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -12179,10 +12176,10 @@
         <v>10</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>44</v>
@@ -12197,7 +12194,7 @@
         <v>15</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I54" s="2">
         <v>29.1</v>
@@ -12225,7 +12222,7 @@
         <v>-61.53</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S54" s="2">
         <v>21</v>
@@ -12243,13 +12240,13 @@
         <v>36</v>
       </c>
       <c r="X54" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y54" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z54" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA54" s="18"/>
       <c r="AB54" s="18"/>
@@ -12265,16 +12262,16 @@
         <v>3</v>
       </c>
       <c r="AH54" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AI54" s="18">
         <v>20210420</v>
       </c>
       <c r="AJ54" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="AK54" s="18" t="s">
         <v>410</v>
-      </c>
-      <c r="AK54" s="18" t="s">
-        <v>411</v>
       </c>
       <c r="AL54" s="14">
         <v>32</v>
@@ -12283,10 +12280,10 @@
         <v>76</v>
       </c>
       <c r="AN54" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AO54" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP54" s="20" t="s">
         <v>77</v>
@@ -12307,7 +12304,7 @@
         <v>42711</v>
       </c>
       <c r="AX54" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY54" s="79"/>
       <c r="AZ54" s="79"/>
@@ -12318,35 +12315,35 @@
       <c r="BE54" s="15"/>
       <c r="BF54" s="15"/>
       <c r="BG54" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH54" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BI54" s="15" t="s">
         <v>95</v>
       </c>
       <c r="BJ54" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BK54" s="92" t="s">
         <v>138</v>
       </c>
       <c r="BL54" s="22"/>
       <c r="BM54" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="BN54" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO54" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP54" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ54" s="21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -12354,10 +12351,10 @@
         <v>11</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>53</v>
@@ -12369,10 +12366,10 @@
         <v>4800937</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I55" s="2">
         <v>29.2</v>
@@ -12400,7 +12397,7 @@
         <v>-62.65</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S55" s="2">
         <v>21</v>
@@ -12412,17 +12409,17 @@
         <v>700</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="W55" s="18" t="s">
         <v>36</v>
       </c>
       <c r="X55" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Y55" s="18"/>
       <c r="Z55" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA55" s="18"/>
       <c r="AB55" s="18">
@@ -12442,16 +12439,16 @@
         <v>2</v>
       </c>
       <c r="AH55" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AI55" s="18">
         <v>20210527</v>
       </c>
       <c r="AJ55" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="AK55" s="18" t="s">
         <v>410</v>
-      </c>
-      <c r="AK55" s="18" t="s">
-        <v>411</v>
       </c>
       <c r="AL55" s="14">
         <v>58</v>
@@ -12472,56 +12469,56 @@
         <v>42723</v>
       </c>
       <c r="AX55" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY55" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="AZ55" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="AY55" s="15" t="s">
+      <c r="BA55" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="AZ55" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="BA55" s="15" t="s">
+      <c r="BB55" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="BB55" s="15" t="s">
-        <v>347</v>
-      </c>
       <c r="BC55" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BD55" s="15"/>
       <c r="BE55" s="15"/>
       <c r="BF55" s="15"/>
       <c r="BG55" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BH55" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BI55" s="15" t="s">
         <v>96</v>
       </c>
       <c r="BJ55" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BK55" s="92" t="s">
         <v>137</v>
       </c>
       <c r="BL55" s="22"/>
       <c r="BM55" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="BN55" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BO55" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP55" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ55" s="21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -12529,10 +12526,10 @@
         <v>12</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>35</v>
@@ -12547,7 +12544,7 @@
         <v>129</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I56" s="2">
         <v>28.9</v>
@@ -12575,7 +12572,7 @@
         <v>-50.21</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="S56" s="2">
         <v>28</v>
@@ -12597,18 +12594,18 @@
         <v>1</v>
       </c>
       <c r="Y56" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z56" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA56" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB56" s="18"/>
       <c r="AC56" s="18"/>
       <c r="AD56" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AE56" s="2">
         <v>0</v>
@@ -12620,16 +12617,16 @@
         <v>0</v>
       </c>
       <c r="AH56" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AI56" s="18">
         <v>20210421</v>
       </c>
       <c r="AJ56" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AK56" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL56" s="14">
         <v>42</v>
@@ -12638,10 +12635,10 @@
         <v>75</v>
       </c>
       <c r="AN56" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO56" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP56" s="20" t="s">
         <v>73</v>
@@ -12650,16 +12647,16 @@
         <v>72</v>
       </c>
       <c r="AR56" s="22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AS56" s="22" t="s">
         <v>87</v>
       </c>
       <c r="AT56" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AU56" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV56" s="20" t="s">
         <v>86</v>
@@ -12668,7 +12665,7 @@
         <v>42859</v>
       </c>
       <c r="AX56" s="87" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY56" s="22"/>
       <c r="AZ56" s="22"/>
@@ -12676,40 +12673,40 @@
       <c r="BB56" s="22"/>
       <c r="BC56" s="22"/>
       <c r="BD56" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="BE56" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="BE56" s="15" t="s">
-        <v>371</v>
-      </c>
       <c r="BF56" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BG56" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH56" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI56" s="15" t="s">
         <v>98</v>
       </c>
       <c r="BJ56" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BK56" s="22"/>
       <c r="BL56" s="22"/>
       <c r="BM56" s="2"/>
       <c r="BN56" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BO56" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP56" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BQ56" s="21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -12717,10 +12714,10 @@
         <v>13</v>
       </c>
       <c r="B57" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C57" s="20" t="s">
         <v>424</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>425</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>13</v>
@@ -12735,7 +12732,7 @@
         <v>15</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I57" s="2">
         <v>29.1</v>
@@ -12763,7 +12760,7 @@
         <v>-63.05</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="S57" s="2">
         <v>5</v>
@@ -12782,13 +12779,13 @@
         <v>36</v>
       </c>
       <c r="X57" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y57" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z57" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA57" s="18"/>
       <c r="AB57" s="18"/>
@@ -12810,10 +12807,10 @@
         <v>20210922</v>
       </c>
       <c r="AJ57" s="18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AK57" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AL57" s="14">
         <v>33</v>
@@ -12822,10 +12819,10 @@
         <v>69</v>
       </c>
       <c r="AN57" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AO57" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP57" s="10" t="s">
         <v>70</v>
@@ -12834,7 +12831,7 @@
         <v>71</v>
       </c>
       <c r="AR57" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AS57" s="22"/>
       <c r="AT57" s="22"/>
@@ -12846,7 +12843,7 @@
         <v>42691</v>
       </c>
       <c r="AX57" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY57" s="15"/>
       <c r="AZ57" s="15"/>
@@ -12857,16 +12854,16 @@
       <c r="BE57" s="15"/>
       <c r="BF57" s="15"/>
       <c r="BG57" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH57" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI57" s="22" t="s">
         <v>117</v>
       </c>
       <c r="BJ57" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BK57" s="92" t="s">
         <v>138</v>
@@ -12874,16 +12871,16 @@
       <c r="BL57" s="22"/>
       <c r="BM57" s="2"/>
       <c r="BN57" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO57" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP57" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ57" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="58" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -12891,10 +12888,10 @@
         <v>14</v>
       </c>
       <c r="B58" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="C58" s="20" t="s">
         <v>437</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>438</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>13</v>
@@ -12909,7 +12906,7 @@
         <v>15</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I58" s="2">
         <v>29.1</v>
@@ -12937,7 +12934,7 @@
         <v>-62.45</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="S58" s="2">
         <v>13</v>
@@ -12955,13 +12952,13 @@
         <v>36</v>
       </c>
       <c r="X58" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y58" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z58" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA58" s="18"/>
       <c r="AB58" s="18"/>
@@ -12983,10 +12980,10 @@
         <v>20220117</v>
       </c>
       <c r="AJ58" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AK58" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL58" s="14">
         <v>29</v>
@@ -12995,10 +12992,10 @@
         <v>69</v>
       </c>
       <c r="AN58" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AO58" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP58" s="10" t="s">
         <v>70</v>
@@ -13007,7 +13004,7 @@
         <v>71</v>
       </c>
       <c r="AR58" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AS58" s="22"/>
       <c r="AT58" s="22"/>
@@ -13019,7 +13016,7 @@
         <v>42711</v>
       </c>
       <c r="AX58" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY58" s="22"/>
       <c r="AZ58" s="22"/>
@@ -13030,16 +13027,16 @@
       <c r="BE58" s="22"/>
       <c r="BF58" s="22"/>
       <c r="BG58" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH58" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI58" s="15" t="s">
         <v>95</v>
       </c>
       <c r="BJ58" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BK58" s="92" t="s">
         <v>138</v>
@@ -13047,16 +13044,16 @@
       <c r="BL58" s="22"/>
       <c r="BM58" s="2"/>
       <c r="BN58" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO58" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP58" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="BQ58" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="59" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -13067,7 +13064,7 @@
         <v>20220303</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>35</v>
@@ -13082,7 +13079,7 @@
         <v>15</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I59" s="2">
         <v>29.1</v>
@@ -13110,7 +13107,7 @@
         <v>-61.72</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="S59" s="2">
         <v>21</v>
@@ -13128,21 +13125,21 @@
         <v>36</v>
       </c>
       <c r="X59" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y59" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z59" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA59" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB59" s="18"/>
       <c r="AC59" s="18"/>
       <c r="AD59" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AE59" s="2">
         <v>2</v>
@@ -13160,10 +13157,10 @@
         <v>20220224</v>
       </c>
       <c r="AJ59" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AK59" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL59" s="14">
         <v>42</v>
@@ -13172,10 +13169,10 @@
         <v>84</v>
       </c>
       <c r="AN59" s="22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AO59" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP59" s="20" t="s">
         <v>85</v>
@@ -13186,10 +13183,10 @@
         <v>87</v>
       </c>
       <c r="AT59" s="22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AU59" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV59" s="20" t="s">
         <v>86</v>
@@ -13198,7 +13195,7 @@
         <v>42859</v>
       </c>
       <c r="AX59" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY59" s="22"/>
       <c r="AZ59" s="22"/>
@@ -13206,25 +13203,25 @@
       <c r="BB59" s="22"/>
       <c r="BC59" s="22"/>
       <c r="BD59" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="BE59" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="BE59" s="15" t="s">
-        <v>371</v>
-      </c>
       <c r="BF59" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BG59" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH59" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI59" s="15" t="s">
         <v>95</v>
       </c>
       <c r="BJ59" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BK59" s="92" t="s">
         <v>137</v>
@@ -13232,16 +13229,16 @@
       <c r="BL59" s="22"/>
       <c r="BM59" s="2"/>
       <c r="BN59" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO59" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP59" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BQ59" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="60" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -13252,7 +13249,7 @@
         <v>20220406</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D60" s="35" t="s">
         <v>44</v>
@@ -13267,7 +13264,7 @@
         <v>15</v>
       </c>
       <c r="H60" s="37" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I60" s="3">
         <v>29.1</v>
@@ -13295,7 +13292,7 @@
         <v>-61.44</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S60" s="3">
         <v>23</v>
@@ -13313,13 +13310,13 @@
         <v>36</v>
       </c>
       <c r="X60" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y60" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z60" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA60" s="37"/>
       <c r="AB60" s="37"/>
@@ -13341,10 +13338,10 @@
         <v>20220331</v>
       </c>
       <c r="AJ60" s="37" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AK60" s="37" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AL60" s="62">
         <v>30</v>
@@ -13353,10 +13350,10 @@
         <v>76</v>
       </c>
       <c r="AN60" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AO60" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP60" s="34" t="s">
         <v>77</v>
@@ -13377,7 +13374,7 @@
         <v>42723</v>
       </c>
       <c r="AX60" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY60" s="38"/>
       <c r="AZ60" s="38"/>
@@ -13388,16 +13385,16 @@
       <c r="BE60" s="40"/>
       <c r="BF60" s="38"/>
       <c r="BG60" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH60" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI60" s="40" t="s">
         <v>95</v>
       </c>
       <c r="BJ60" s="38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BK60" s="131">
         <v>200206</v>
@@ -13405,16 +13402,16 @@
       <c r="BL60" s="95"/>
       <c r="BM60" s="3"/>
       <c r="BN60" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO60" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP60" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ60" s="43" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -13425,7 +13422,7 @@
         <v>20220908</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D61" s="35" t="s">
         <v>44</v>
@@ -13440,7 +13437,7 @@
         <v>15</v>
       </c>
       <c r="H61" s="37" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I61" s="3">
         <v>29</v>
@@ -13468,7 +13465,7 @@
         <v>-61.43</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S61" s="3">
         <v>21</v>
@@ -13486,13 +13483,13 @@
         <v>36</v>
       </c>
       <c r="X61" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y61" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z61" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA61" s="37"/>
       <c r="AB61" s="37"/>
@@ -13514,10 +13511,10 @@
         <v>20220902</v>
       </c>
       <c r="AJ61" s="37" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AK61" s="37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AL61" s="35">
         <v>30</v>
@@ -13526,10 +13523,10 @@
         <v>76</v>
       </c>
       <c r="AN61" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AO61" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP61" s="34" t="s">
         <v>77</v>
@@ -13550,7 +13547,7 @@
         <v>42723</v>
       </c>
       <c r="AX61" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY61" s="38"/>
       <c r="AZ61" s="38"/>
@@ -13561,33 +13558,33 @@
       <c r="BE61" s="38"/>
       <c r="BF61" s="38"/>
       <c r="BG61" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH61" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI61" s="40" t="s">
         <v>95</v>
       </c>
       <c r="BJ61" s="38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BK61" s="95" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="BL61" s="95"/>
       <c r="BM61" s="95"/>
       <c r="BN61" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO61" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="BP61" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ61" s="43" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="62" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -13598,7 +13595,7 @@
         <v>20220915</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D62" s="35" t="s">
         <v>53</v>
@@ -13613,7 +13610,7 @@
         <v>129</v>
       </c>
       <c r="H62" s="37" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I62" s="48">
         <v>29.1</v>
@@ -13641,7 +13638,7 @@
         <v>-50.76</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="S62" s="3">
         <v>20</v>
@@ -13662,18 +13659,18 @@
         <v>1</v>
       </c>
       <c r="Y62" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z62" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA62" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB62" s="37"/>
       <c r="AC62" s="37"/>
       <c r="AD62" s="37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AE62" s="3">
         <v>0</v>
@@ -13691,10 +13688,10 @@
         <v>20220506</v>
       </c>
       <c r="AJ62" s="37" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AK62" s="37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AL62" s="35">
         <v>42</v>
@@ -13703,10 +13700,10 @@
         <v>84</v>
       </c>
       <c r="AN62" s="38" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AO62" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP62" s="34" t="s">
         <v>85</v>
@@ -13717,10 +13714,10 @@
         <v>87</v>
       </c>
       <c r="AT62" s="38" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AU62" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV62" s="34" t="s">
         <v>86</v>
@@ -13729,7 +13726,7 @@
         <v>42859</v>
       </c>
       <c r="AX62" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY62" s="38"/>
       <c r="AZ62" s="38"/>
@@ -13737,40 +13734,40 @@
       <c r="BB62" s="38"/>
       <c r="BC62" s="38"/>
       <c r="BD62" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="BE62" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="BE62" s="40" t="s">
-        <v>371</v>
-      </c>
       <c r="BF62" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BG62" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH62" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI62" s="40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BJ62" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BK62" s="38"/>
       <c r="BL62" s="38"/>
       <c r="BM62" s="3"/>
       <c r="BN62" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BO62" s="35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="BP62" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BQ62" s="43" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="63" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -13778,10 +13775,10 @@
         <v>4</v>
       </c>
       <c r="B63" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="C63" s="34" t="s">
         <v>457</v>
-      </c>
-      <c r="C63" s="34" t="s">
-        <v>458</v>
       </c>
       <c r="D63" s="35" t="s">
         <v>24</v>
@@ -13796,7 +13793,7 @@
         <v>15</v>
       </c>
       <c r="H63" s="37" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I63" s="3">
         <v>29.2</v>
@@ -13824,7 +13821,7 @@
         <v>-61.98</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="S63" s="3">
         <v>19</v>
@@ -13845,15 +13842,15 @@
         <v>1</v>
       </c>
       <c r="Y63" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z63" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA63" s="37"/>
       <c r="AB63" s="37"/>
       <c r="AC63" s="37" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AD63" s="37"/>
       <c r="AE63" s="3">
@@ -13872,10 +13869,10 @@
         <v>20230208</v>
       </c>
       <c r="AJ63" s="37" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AK63" s="37" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AL63" s="35">
         <v>29</v>
@@ -13884,10 +13881,10 @@
         <v>75</v>
       </c>
       <c r="AN63" s="38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AO63" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP63" s="34" t="s">
         <v>73</v>
@@ -13896,7 +13893,7 @@
         <v>72</v>
       </c>
       <c r="AR63" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AS63" s="38"/>
       <c r="AT63" s="38"/>
@@ -13908,33 +13905,33 @@
         <v>42711</v>
       </c>
       <c r="AX63" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AY63" s="38"/>
       <c r="AZ63" s="38"/>
       <c r="BA63" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="BB63" s="38" t="s">
         <v>454</v>
       </c>
-      <c r="BB63" s="38" t="s">
-        <v>455</v>
-      </c>
       <c r="BC63" s="38" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BD63" s="40"/>
       <c r="BE63" s="40"/>
       <c r="BF63" s="40"/>
       <c r="BG63" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH63" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI63" s="96" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BJ63" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BK63" s="131">
         <v>200206</v>
@@ -13942,16 +13939,16 @@
       <c r="BL63" s="95"/>
       <c r="BM63" s="95"/>
       <c r="BN63" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO63" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="BP63" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ63" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="64" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -13959,10 +13956,10 @@
         <v>5</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D64" s="35" t="s">
         <v>44</v>
@@ -13977,7 +13974,7 @@
         <v>15</v>
       </c>
       <c r="H64" s="37" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I64" s="3">
         <v>29.2</v>
@@ -14005,7 +14002,7 @@
         <v>-61.4</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="S64" s="3">
         <v>25</v>
@@ -14026,10 +14023,10 @@
         <v>1</v>
       </c>
       <c r="Y64" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z64" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA64" s="37"/>
       <c r="AB64" s="37"/>
@@ -14051,10 +14048,10 @@
         <v>20230308</v>
       </c>
       <c r="AJ64" s="37" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AK64" s="37" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AL64" s="35">
         <v>30</v>
@@ -14063,10 +14060,10 @@
         <v>81</v>
       </c>
       <c r="AN64" s="38" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AO64" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP64" s="34" t="s">
         <v>82</v>
@@ -14075,7 +14072,7 @@
         <v>83</v>
       </c>
       <c r="AR64" s="38" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AS64" s="38"/>
       <c r="AT64" s="38"/>
@@ -14087,7 +14084,7 @@
         <v>42723</v>
       </c>
       <c r="AX64" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AY64" s="38"/>
       <c r="AZ64" s="38"/>
@@ -14098,16 +14095,16 @@
       <c r="BE64" s="40"/>
       <c r="BF64" s="40"/>
       <c r="BG64" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH64" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI64" s="96">
         <v>162640</v>
       </c>
       <c r="BJ64" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BK64" s="132">
         <v>201189</v>
@@ -14115,16 +14112,16 @@
       <c r="BL64" s="3"/>
       <c r="BM64" s="95"/>
       <c r="BN64" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO64" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="BP64" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BQ64" s="43" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="65" spans="1:102" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -14132,10 +14129,10 @@
         <v>1</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>24</v>
@@ -14150,7 +14147,7 @@
         <v>15</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I65" s="2">
         <v>29.2</v>
@@ -14178,7 +14175,7 @@
         <v>-61.43</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S65" s="2">
         <v>27</v>
@@ -14200,15 +14197,15 @@
         <v>1</v>
       </c>
       <c r="Y65" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z65" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA65" s="18"/>
       <c r="AB65" s="18"/>
       <c r="AC65" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AD65" s="18"/>
       <c r="AE65" s="2">
@@ -14227,10 +14224,10 @@
         <v>20230330</v>
       </c>
       <c r="AJ65" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="AK65" s="18" t="s">
         <v>462</v>
-      </c>
-      <c r="AK65" s="18" t="s">
-        <v>463</v>
       </c>
       <c r="AL65" s="14">
         <v>29</v>
@@ -14239,10 +14236,10 @@
         <v>75</v>
       </c>
       <c r="AN65" s="22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AO65" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP65" s="20" t="s">
         <v>73</v>
@@ -14251,7 +14248,7 @@
         <v>72</v>
       </c>
       <c r="AR65" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AS65" s="22"/>
       <c r="AT65" s="22"/>
@@ -14263,52 +14260,52 @@
         <v>42711</v>
       </c>
       <c r="AX65" s="22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AY65" s="22"/>
       <c r="AZ65" s="22"/>
       <c r="BA65" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="BB65" s="22" t="s">
         <v>454</v>
       </c>
-      <c r="BB65" s="22" t="s">
-        <v>455</v>
-      </c>
       <c r="BC65" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BD65" s="22"/>
       <c r="BE65" s="22"/>
       <c r="BF65" s="22"/>
       <c r="BG65" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH65" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI65" s="49">
         <v>201383</v>
       </c>
       <c r="BJ65" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BK65" s="131">
         <v>200206</v>
       </c>
       <c r="BL65" s="97"/>
       <c r="BM65" s="97" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="BN65" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO65" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="BP65" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ65" s="21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="66" spans="1:102" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -14316,10 +14313,10 @@
         <v>2</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>53</v>
@@ -14334,7 +14331,7 @@
         <v>15</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I66" s="2">
         <v>29.2</v>
@@ -14362,7 +14359,7 @@
         <v>-61.49</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="S66" s="2">
         <v>21</v>
@@ -14384,10 +14381,10 @@
         <v>1</v>
       </c>
       <c r="Y66" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z66" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA66" s="18"/>
       <c r="AB66" s="18"/>
@@ -14409,10 +14406,10 @@
         <v>20230510</v>
       </c>
       <c r="AJ66" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AK66" s="18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AL66" s="14">
         <v>32</v>
@@ -14421,10 +14418,10 @@
         <v>76</v>
       </c>
       <c r="AN66" s="22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AO66" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP66" s="20" t="s">
         <v>77</v>
@@ -14433,7 +14430,7 @@
         <v>78</v>
       </c>
       <c r="AR66" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AS66" s="22"/>
       <c r="AT66" s="22"/>
@@ -14445,7 +14442,7 @@
         <v>42711</v>
       </c>
       <c r="AX66" s="22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AY66" s="22"/>
       <c r="AZ66" s="22"/>
@@ -14456,35 +14453,35 @@
       <c r="BE66" s="22"/>
       <c r="BF66" s="22"/>
       <c r="BG66" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH66" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI66" s="49">
         <v>162640</v>
       </c>
       <c r="BJ66" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BK66" s="92" t="s">
         <v>138</v>
       </c>
       <c r="BL66" s="22"/>
       <c r="BM66" s="97" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="BN66" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO66" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP66" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ66" s="21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="67" spans="1:102" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -14492,10 +14489,10 @@
         <v>3</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>44</v>
@@ -14510,7 +14507,7 @@
         <v>15</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I67" s="2">
         <v>29.2</v>
@@ -14540,7 +14537,7 @@
         <v>-61.43</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="S67" s="2">
         <v>28</v>
@@ -14562,10 +14559,10 @@
         <v>1</v>
       </c>
       <c r="Y67" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z67" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA67" s="18"/>
       <c r="AB67" s="18"/>
@@ -14587,10 +14584,10 @@
         <v>20230531</v>
       </c>
       <c r="AJ67" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AK67" s="18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AL67" s="14">
         <v>30</v>
@@ -14599,10 +14596,10 @@
         <v>81</v>
       </c>
       <c r="AN67" s="22" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AO67" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP67" s="20" t="s">
         <v>82</v>
@@ -14611,7 +14608,7 @@
         <v>83</v>
       </c>
       <c r="AR67" s="22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AS67" s="22"/>
       <c r="AT67" s="22"/>
@@ -14623,7 +14620,7 @@
         <v>42723</v>
       </c>
       <c r="AX67" s="22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AY67" s="22"/>
       <c r="AZ67" s="22"/>
@@ -14634,33 +14631,33 @@
       <c r="BE67" s="22"/>
       <c r="BF67" s="22"/>
       <c r="BG67" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH67" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI67" s="49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BJ67" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BK67" s="97" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="BL67" s="97"/>
       <c r="BM67" s="97"/>
       <c r="BN67" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO67" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP67" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="BQ67" s="21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="68" spans="1:102" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -14668,10 +14665,10 @@
         <v>4</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>35</v>
@@ -14686,7 +14683,7 @@
         <v>129</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I68" s="2">
         <v>29.2</v>
@@ -14716,7 +14713,7 @@
         <v>-50.16</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S68" s="2">
         <v>27</v>
@@ -14738,10 +14735,10 @@
         <v>1</v>
       </c>
       <c r="Y68" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z68" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA68" s="18">
         <v>4</v>
@@ -14749,7 +14746,7 @@
       <c r="AB68" s="18"/>
       <c r="AC68" s="18"/>
       <c r="AD68" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AE68" s="2">
         <v>0</v>
@@ -14767,10 +14764,10 @@
         <v>20230228</v>
       </c>
       <c r="AJ68" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AK68" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AL68" s="14">
         <v>42</v>
@@ -14779,10 +14776,10 @@
         <v>84</v>
       </c>
       <c r="AN68" s="22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AO68" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP68" s="20" t="s">
         <v>85</v>
@@ -14793,10 +14790,10 @@
         <v>87</v>
       </c>
       <c r="AT68" s="22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AU68" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV68" s="20" t="s">
         <v>86</v>
@@ -14805,7 +14802,7 @@
         <v>42859</v>
       </c>
       <c r="AX68" s="22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AY68" s="22"/>
       <c r="AZ68" s="22"/>
@@ -14813,40 +14810,40 @@
       <c r="BB68" s="22"/>
       <c r="BC68" s="22"/>
       <c r="BD68" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="BE68" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="BE68" s="22" t="s">
-        <v>371</v>
-      </c>
       <c r="BF68" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BG68" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH68" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI68" s="49">
         <v>162642</v>
       </c>
       <c r="BJ68" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BK68" s="97"/>
       <c r="BL68" s="97"/>
       <c r="BM68" s="97"/>
       <c r="BN68" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BO68" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP68" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="BQ68" s="21" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="69" spans="1:102" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -14854,10 +14851,10 @@
         <v>5</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>13</v>
@@ -14872,7 +14869,7 @@
         <v>15</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I69" s="2">
         <v>29.1</v>
@@ -14902,7 +14899,7 @@
         <v>-61.46</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S69" s="2">
         <v>20</v>
@@ -14924,10 +14921,10 @@
         <v>1</v>
       </c>
       <c r="Y69" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z69" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA69" s="18"/>
       <c r="AB69" s="18"/>
@@ -14947,10 +14944,10 @@
         <v>20230705</v>
       </c>
       <c r="AJ69" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AK69" s="18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AL69" s="14">
         <v>33</v>
@@ -14959,10 +14956,10 @@
         <v>75</v>
       </c>
       <c r="AN69" s="22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AO69" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP69" s="20" t="s">
         <v>73</v>
@@ -14971,7 +14968,7 @@
         <v>72</v>
       </c>
       <c r="AR69" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AS69" s="22"/>
       <c r="AT69" s="22"/>
@@ -14983,7 +14980,7 @@
         <v>42691</v>
       </c>
       <c r="AX69" s="22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AY69" s="22"/>
       <c r="AZ69" s="22"/>
@@ -14994,35 +14991,35 @@
       <c r="BE69" s="22"/>
       <c r="BF69" s="22"/>
       <c r="BG69" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH69" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI69" s="15" t="s">
         <v>98</v>
       </c>
       <c r="BJ69" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BK69" s="92" t="s">
         <v>138</v>
       </c>
       <c r="BL69" s="22"/>
       <c r="BM69" s="97" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="BN69" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO69" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP69" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ69" s="21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="70" spans="1:102" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -15048,7 +15045,7 @@
         <v>15</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I70" s="2">
         <v>29.1</v>
@@ -15078,7 +15075,7 @@
         <v>-61.4</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="S70" s="2">
         <v>20</v>
@@ -15100,15 +15097,15 @@
         <v>1</v>
       </c>
       <c r="Y70" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z70" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA70" s="18"/>
       <c r="AB70" s="18"/>
       <c r="AC70" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AD70" s="18"/>
       <c r="AE70" s="2">
@@ -15127,10 +15124,10 @@
         <v>20230918</v>
       </c>
       <c r="AJ70" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AK70" s="18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AL70" s="14">
         <v>29</v>
@@ -15139,10 +15136,10 @@
         <v>75</v>
       </c>
       <c r="AN70" s="22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AO70" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP70" s="20" t="s">
         <v>73</v>
@@ -15151,7 +15148,7 @@
         <v>72</v>
       </c>
       <c r="AR70" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AS70" s="22"/>
       <c r="AT70" s="22"/>
@@ -15163,33 +15160,33 @@
         <v>42711</v>
       </c>
       <c r="AX70" s="22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AY70" s="22"/>
       <c r="AZ70" s="22"/>
       <c r="BA70" s="22" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BB70" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BC70" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BD70" s="22"/>
       <c r="BE70" s="22"/>
       <c r="BF70" s="22"/>
       <c r="BG70" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH70" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI70" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="BJ70" s="22" t="s">
         <v>518</v>
-      </c>
-      <c r="BJ70" s="22" t="s">
-        <v>519</v>
       </c>
       <c r="BK70" s="92" t="s">
         <v>137</v>
@@ -15197,16 +15194,16 @@
       <c r="BL70" s="22"/>
       <c r="BM70" s="2"/>
       <c r="BN70" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO70" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP70" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ70" s="21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="71" spans="1:102" s="48" customFormat="1" x14ac:dyDescent="0.25">
@@ -15232,7 +15229,7 @@
         <v>15</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I71" s="2">
         <v>29.1</v>
@@ -15262,7 +15259,7 @@
         <v>-61.44</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="S71" s="2">
         <v>23</v>
@@ -15284,15 +15281,15 @@
         <v>1</v>
       </c>
       <c r="Y71" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z71" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA71" s="18"/>
       <c r="AB71" s="18"/>
       <c r="AC71" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AD71" s="18"/>
       <c r="AE71" s="2">
@@ -15311,10 +15308,10 @@
         <v>20240131</v>
       </c>
       <c r="AJ71" s="18" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AK71" s="18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AL71" s="14">
         <v>29</v>
@@ -15323,10 +15320,10 @@
         <v>75</v>
       </c>
       <c r="AN71" s="22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AO71" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP71" s="20" t="s">
         <v>73</v>
@@ -15335,7 +15332,7 @@
         <v>72</v>
       </c>
       <c r="AR71" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AS71" s="22"/>
       <c r="AT71" s="22"/>
@@ -15347,33 +15344,33 @@
         <v>42711</v>
       </c>
       <c r="AX71" s="22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AY71" s="22"/>
       <c r="AZ71" s="22"/>
       <c r="BA71" s="22" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BB71" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="BC71" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BD71" s="22"/>
       <c r="BE71" s="22"/>
       <c r="BF71" s="22"/>
       <c r="BG71" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH71" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI71" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="BJ71" s="22" t="s">
         <v>518</v>
-      </c>
-      <c r="BJ71" s="22" t="s">
-        <v>519</v>
       </c>
       <c r="BK71" s="22" t="s">
         <v>137</v>
@@ -15381,16 +15378,16 @@
       <c r="BL71" s="22"/>
       <c r="BM71" s="2"/>
       <c r="BN71" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO71" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP71" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ71" s="21" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="BR71" s="88"/>
       <c r="BS71" s="88"/>
@@ -15449,7 +15446,7 @@
         <v>15</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I72" s="2">
         <v>29.1</v>
@@ -15479,7 +15476,7 @@
         <v>-61.43</v>
       </c>
       <c r="R72" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="S72" s="2">
         <v>26</v>
@@ -15500,10 +15497,10 @@
         <v>1</v>
       </c>
       <c r="Y72" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z72" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA72" s="18"/>
       <c r="AB72" s="18"/>
@@ -15525,10 +15522,10 @@
         <v>20240306</v>
       </c>
       <c r="AJ72" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK72" s="18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AL72" s="14">
         <v>32</v>
@@ -15537,10 +15534,10 @@
         <v>81</v>
       </c>
       <c r="AN72" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AO72" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP72" s="20" t="s">
         <v>82</v>
@@ -15549,7 +15546,7 @@
         <v>83</v>
       </c>
       <c r="AR72" s="22" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AS72" s="22"/>
       <c r="AT72" s="22"/>
@@ -15561,7 +15558,7 @@
         <v>42711</v>
       </c>
       <c r="AX72" s="22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AY72" s="22"/>
       <c r="AZ72" s="22"/>
@@ -15572,16 +15569,16 @@
       <c r="BE72" s="22"/>
       <c r="BF72" s="22"/>
       <c r="BG72" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH72" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI72" s="49" t="s">
         <v>98</v>
       </c>
       <c r="BJ72" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BK72" s="22" t="s">
         <v>138</v>
@@ -15589,16 +15586,16 @@
       <c r="BL72" s="22"/>
       <c r="BM72" s="2"/>
       <c r="BN72" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BO72" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP72" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ72" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="BR72" s="88"/>
       <c r="BS72" s="88"/>
@@ -15657,7 +15654,7 @@
         <v>15</v>
       </c>
       <c r="H73" s="37" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I73" s="3">
         <v>29.1</v>
@@ -15687,7 +15684,7 @@
         <v>-61.42</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="S73" s="3">
         <v>20</v>
@@ -15709,10 +15706,10 @@
         <v>1</v>
       </c>
       <c r="Y73" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z73" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA73" s="37"/>
       <c r="AB73" s="37"/>
@@ -15734,10 +15731,10 @@
         <v>20240322</v>
       </c>
       <c r="AJ73" s="37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK73" s="37" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AL73" s="35">
         <v>33</v>
@@ -15746,10 +15743,10 @@
         <v>76</v>
       </c>
       <c r="AN73" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AO73" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP73" s="34" t="s">
         <v>77</v>
@@ -15758,7 +15755,7 @@
         <v>78</v>
       </c>
       <c r="AR73" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AS73" s="38"/>
       <c r="AT73" s="38"/>
@@ -15770,7 +15767,7 @@
         <v>42691</v>
       </c>
       <c r="AX73" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AY73" s="38"/>
       <c r="AZ73" s="38"/>
@@ -15781,35 +15778,35 @@
       <c r="BE73" s="38"/>
       <c r="BF73" s="38"/>
       <c r="BG73" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH73" s="96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI73" s="38" t="s">
+        <v>517</v>
+      </c>
+      <c r="BJ73" s="38" t="s">
         <v>518</v>
-      </c>
-      <c r="BJ73" s="38" t="s">
-        <v>519</v>
       </c>
       <c r="BK73" s="38" t="s">
         <v>137</v>
       </c>
       <c r="BL73" s="38"/>
       <c r="BM73" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="BN73" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="BO73" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP73" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ73" s="43" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="74" spans="1:102" s="48" customFormat="1" x14ac:dyDescent="0.25">
@@ -15835,7 +15832,7 @@
         <v>15</v>
       </c>
       <c r="H74" s="37" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I74" s="3">
         <v>29.2</v>
@@ -15865,7 +15862,7 @@
         <v>-61.41</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S74" s="3">
         <v>21</v>
@@ -15887,10 +15884,10 @@
         <v>1</v>
       </c>
       <c r="Y74" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z74" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA74" s="37"/>
       <c r="AB74" s="37"/>
@@ -15912,10 +15909,10 @@
         <v>20240322</v>
       </c>
       <c r="AJ74" s="37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK74" s="37" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AL74" s="35">
         <v>33</v>
@@ -15924,10 +15921,10 @@
         <v>76</v>
       </c>
       <c r="AN74" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AO74" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP74" s="34" t="s">
         <v>77</v>
@@ -15936,7 +15933,7 @@
         <v>78</v>
       </c>
       <c r="AR74" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AS74" s="38"/>
       <c r="AT74" s="38"/>
@@ -15948,7 +15945,7 @@
         <v>42691</v>
       </c>
       <c r="AX74" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AY74" s="38"/>
       <c r="AZ74" s="38"/>
@@ -15959,16 +15956,16 @@
       <c r="BE74" s="38"/>
       <c r="BF74" s="38"/>
       <c r="BG74" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH74" s="96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI74" s="38" t="s">
+        <v>517</v>
+      </c>
+      <c r="BJ74" s="38" t="s">
         <v>518</v>
-      </c>
-      <c r="BJ74" s="38" t="s">
-        <v>519</v>
       </c>
       <c r="BK74" s="38" t="s">
         <v>137</v>
@@ -15976,16 +15973,16 @@
       <c r="BL74" s="38"/>
       <c r="BM74" s="3"/>
       <c r="BN74" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="BO74" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP74" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ74" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="75" spans="1:102" s="48" customFormat="1" x14ac:dyDescent="0.25">
@@ -16011,7 +16008,7 @@
         <v>129</v>
       </c>
       <c r="H75" s="37" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I75" s="3">
         <v>29.1</v>
@@ -16041,7 +16038,7 @@
         <v>-51.84</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="S75" s="3">
         <v>11</v>
@@ -16063,16 +16060,16 @@
         <v>1</v>
       </c>
       <c r="Y75" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z75" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA75" s="37"/>
       <c r="AB75" s="37"/>
       <c r="AC75" s="37"/>
       <c r="AD75" s="37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AE75" s="3">
         <v>0</v>
@@ -16090,10 +16087,10 @@
         <v>20240403</v>
       </c>
       <c r="AJ75" s="37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK75" s="37" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AL75" s="35">
         <v>30</v>
@@ -16102,10 +16099,10 @@
         <v>75</v>
       </c>
       <c r="AN75" s="38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AO75" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP75" s="34" t="s">
         <v>73</v>
@@ -16114,7 +16111,7 @@
         <v>72</v>
       </c>
       <c r="AR75" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AS75" s="38"/>
       <c r="AT75" s="38"/>
@@ -16126,7 +16123,7 @@
         <v>42723</v>
       </c>
       <c r="AX75" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AY75" s="38"/>
       <c r="AZ75" s="38"/>
@@ -16134,40 +16131,40 @@
       <c r="BB75" s="38"/>
       <c r="BC75" s="38"/>
       <c r="BD75" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="BE75" s="38" t="s">
         <v>370</v>
       </c>
-      <c r="BE75" s="38" t="s">
-        <v>371</v>
-      </c>
       <c r="BF75" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BG75" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH75" s="96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI75" s="38" t="s">
         <v>95</v>
       </c>
       <c r="BJ75" s="38" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="BK75" s="38"/>
       <c r="BL75" s="38"/>
       <c r="BM75" s="3"/>
       <c r="BN75" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BO75" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP75" s="37" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="BQ75" s="43" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="76" spans="1:102" s="48" customFormat="1" x14ac:dyDescent="0.25">
@@ -16193,7 +16190,7 @@
         <v>15</v>
       </c>
       <c r="H76" s="37" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I76" s="3">
         <v>29.1</v>
@@ -16223,7 +16220,7 @@
         <v>-61.44</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S76" s="3">
         <v>22</v>
@@ -16245,10 +16242,10 @@
         <v>1</v>
       </c>
       <c r="Y76" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z76" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA76" s="37"/>
       <c r="AB76" s="37"/>
@@ -16270,10 +16267,10 @@
         <v>20240322</v>
       </c>
       <c r="AJ76" s="37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK76" s="37" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AL76" s="35">
         <v>33</v>
@@ -16282,10 +16279,10 @@
         <v>76</v>
       </c>
       <c r="AN76" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AO76" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AP76" s="34" t="s">
         <v>77</v>
@@ -16294,7 +16291,7 @@
         <v>78</v>
       </c>
       <c r="AR76" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AS76" s="38"/>
       <c r="AT76" s="38"/>
@@ -16306,7 +16303,7 @@
         <v>42691</v>
       </c>
       <c r="AX76" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AY76" s="38"/>
       <c r="AZ76" s="38"/>
@@ -16317,16 +16314,16 @@
       <c r="BE76" s="38"/>
       <c r="BF76" s="38"/>
       <c r="BG76" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BH76" s="96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI76" s="38" t="s">
         <v>117</v>
       </c>
       <c r="BJ76" s="38" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="BK76" s="38" t="s">
         <v>137</v>
@@ -16334,13 +16331,13 @@
       <c r="BL76" s="38"/>
       <c r="BM76" s="3"/>
       <c r="BN76" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="BO76" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP76" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BQ76" s="43"/>
     </row>
@@ -16691,14 +16688,14 @@
       <c r="BH81" s="140"/>
       <c r="BI81" s="38"/>
       <c r="BJ81" s="38" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BK81" s="38" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="BL81" s="38"/>
       <c r="BM81" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="BN81" s="120"/>
       <c r="BO81" s="35"/>
@@ -16770,14 +16767,14 @@
         <v>98</v>
       </c>
       <c r="BJ82" s="38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BK82" s="38" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="BL82" s="38"/>
       <c r="BM82" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="BN82" s="120"/>
       <c r="BO82" s="35"/>
@@ -16814,15 +16811,15 @@
         <v>81</v>
       </c>
       <c r="AN83" s="142" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AO83" s="143"/>
       <c r="AP83" s="144"/>
       <c r="AQ83" s="141" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AR83" s="142" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AS83" s="78"/>
       <c r="AT83" s="78"/>
@@ -16844,7 +16841,7 @@
         <v>95</v>
       </c>
       <c r="BJ83" s="38" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="BK83" s="38"/>
       <c r="BL83" s="38"/>
@@ -16884,15 +16881,15 @@
         <v>69</v>
       </c>
       <c r="AN84" s="26" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AO84" s="78"/>
       <c r="AP84" s="117"/>
       <c r="AQ84" s="27" t="s">
+        <v>692</v>
+      </c>
+      <c r="AR84" s="26" t="s">
         <v>693</v>
-      </c>
-      <c r="AR84" s="26" t="s">
-        <v>694</v>
       </c>
       <c r="AS84" s="78"/>
       <c r="AT84" s="78"/>
@@ -16914,7 +16911,7 @@
         <v>117</v>
       </c>
       <c r="BJ84" s="38" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="BK84" s="38"/>
       <c r="BL84" s="38"/>
@@ -16973,20 +16970,20 @@
       <c r="BG85" s="117"/>
       <c r="BH85" s="118"/>
       <c r="BI85" s="133" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BJ85" s="133" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BK85" s="133" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="BL85" s="133"/>
       <c r="BM85" s="134" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="BN85" s="135" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="BO85" s="29"/>
       <c r="BP85" s="77"/>
@@ -17041,17 +17038,17 @@
       <c r="BG86" s="117"/>
       <c r="BH86" s="118"/>
       <c r="BI86" s="38" t="s">
+        <v>517</v>
+      </c>
+      <c r="BJ86" s="38" t="s">
         <v>518</v>
       </c>
-      <c r="BJ86" s="38" t="s">
-        <v>519</v>
-      </c>
       <c r="BK86" s="38" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="BL86" s="38"/>
       <c r="BM86" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="BN86" s="29"/>
       <c r="BO86" s="93"/>
@@ -17107,7 +17104,7 @@
       <c r="BG87" s="117"/>
       <c r="BH87" s="118"/>
       <c r="BI87" s="38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BJ87" s="38" t="s">
         <v>118</v>
@@ -17318,19 +17315,19 @@
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:5" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="107" t="s">
+        <v>479</v>
+      </c>
+      <c r="B4" s="108" t="s">
+        <v>478</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>499</v>
+      </c>
+      <c r="D4" s="108" t="s">
+        <v>482</v>
+      </c>
+      <c r="E4" s="109" t="s">
         <v>480</v>
-      </c>
-      <c r="B4" s="108" t="s">
-        <v>479</v>
-      </c>
-      <c r="C4" s="108" t="s">
-        <v>500</v>
-      </c>
-      <c r="D4" s="108" t="s">
-        <v>483</v>
-      </c>
-      <c r="E4" s="109" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -17338,7 +17335,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C5" s="110">
         <v>40</v>
@@ -17347,7 +17344,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="106" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -17355,7 +17352,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -17364,7 +17361,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="95" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -17372,7 +17369,7 @@
         <v>123</v>
       </c>
       <c r="B7" s="112" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C7" s="114">
         <v>10</v>
@@ -17381,15 +17378,15 @@
         <v>0</v>
       </c>
       <c r="E7" s="113" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="95" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C8" s="3">
         <v>85</v>
@@ -17398,32 +17395,32 @@
         <v>0</v>
       </c>
       <c r="E8" s="95" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="111" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B9" s="112" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C9" s="114">
         <v>15</v>
       </c>
       <c r="D9" s="114" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E9" s="113" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="111" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B10" s="112" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C10" s="114">
         <v>7</v>
@@ -17432,15 +17429,15 @@
         <v>0</v>
       </c>
       <c r="E10" s="113" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B11" s="103" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C11" s="3">
         <v>110</v>
@@ -17449,24 +17446,24 @@
         <v>0</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B12" s="102" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C12" s="3">
         <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E12" s="95" t="s">
         <v>493</v>
-      </c>
-      <c r="E12" s="95" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -17497,19 +17494,19 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="128" t="s">
+        <v>546</v>
+      </c>
+      <c r="C1" s="129" t="s">
         <v>547</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="D1" s="129" t="s">
         <v>548</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="E1" s="129" t="s">
         <v>549</v>
       </c>
-      <c r="E1" s="129" t="s">
+      <c r="F1" s="130" t="s">
         <v>550</v>
-      </c>
-      <c r="F1" s="130" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -17526,7 +17523,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -17543,7 +17540,7 @@
         <v>43</v>
       </c>
       <c r="F3" s="125" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -17560,7 +17557,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="125" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -17577,7 +17574,7 @@
         <v>49</v>
       </c>
       <c r="F5" s="125" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -17594,7 +17591,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="125" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -17611,7 +17608,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="125" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -17628,7 +17625,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="125" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -17645,7 +17642,7 @@
         <v>54</v>
       </c>
       <c r="F9" s="125" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -17662,7 +17659,7 @@
         <v>32</v>
       </c>
       <c r="F10" s="125" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -17679,7 +17676,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -17696,7 +17693,7 @@
         <v>34</v>
       </c>
       <c r="F12" s="125" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -17713,7 +17710,7 @@
         <v>39</v>
       </c>
       <c r="F13" s="125" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -17737,7 +17734,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="125" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -17754,7 +17751,7 @@
         <v>49</v>
       </c>
       <c r="F16" s="125" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -17771,7 +17768,7 @@
         <v>58</v>
       </c>
       <c r="F17" s="127" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -17788,7 +17785,7 @@
         <v>51</v>
       </c>
       <c r="F18" s="125" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -17805,7 +17802,7 @@
         <v>60</v>
       </c>
       <c r="F19" s="127" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -17822,7 +17819,7 @@
         <v>38</v>
       </c>
       <c r="F20" s="125" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -17839,7 +17836,7 @@
         <v>35</v>
       </c>
       <c r="F21" s="125" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -17856,7 +17853,7 @@
         <v>44</v>
       </c>
       <c r="F22" s="125" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -17864,7 +17861,7 @@
         <v>155</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D23" s="35" t="s">
         <v>44</v>
@@ -17873,7 +17870,7 @@
         <v>46</v>
       </c>
       <c r="F23" s="125" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -17881,7 +17878,7 @@
         <v>156</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" s="35" t="s">
         <v>35</v>
@@ -17890,15 +17887,15 @@
         <v>40</v>
       </c>
       <c r="F24" s="125" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D25" s="35" t="s">
         <v>24</v>
@@ -17907,15 +17904,15 @@
         <v>54</v>
       </c>
       <c r="F25" s="125" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D26" s="35" t="s">
         <v>44</v>
@@ -17924,15 +17921,15 @@
         <v>48</v>
       </c>
       <c r="F26" s="125" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D27" s="35" t="s">
         <v>35</v>
@@ -17941,15 +17938,15 @@
         <v>43</v>
       </c>
       <c r="F27" s="125" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D28" s="35" t="s">
         <v>13</v>
@@ -17958,15 +17955,15 @@
         <v>72</v>
       </c>
       <c r="F28" s="127" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D29" s="35" t="s">
         <v>53</v>
@@ -17975,15 +17972,15 @@
         <v>43</v>
       </c>
       <c r="F29" s="125" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D30" s="35" t="s">
         <v>35</v>
@@ -17992,7 +17989,7 @@
         <v>45</v>
       </c>
       <c r="F30" s="125" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -18004,10 +18001,10 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D32" s="35" t="s">
         <v>13</v>
@@ -18016,15 +18013,15 @@
         <v>76</v>
       </c>
       <c r="F32" s="127" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D33" s="35" t="s">
         <v>44</v>
@@ -18033,15 +18030,15 @@
         <v>53</v>
       </c>
       <c r="F33" s="125" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>13</v>
@@ -18050,15 +18047,15 @@
         <v>78</v>
       </c>
       <c r="F34" s="127" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>35</v>
@@ -18067,15 +18064,15 @@
         <v>50</v>
       </c>
       <c r="F35" s="125" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>53</v>
@@ -18084,15 +18081,15 @@
         <v>46</v>
       </c>
       <c r="F36" s="125" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>44</v>
@@ -18101,15 +18098,15 @@
         <v>58</v>
       </c>
       <c r="F37" s="125" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D38" s="35" t="s">
         <v>44</v>
@@ -18118,15 +18115,15 @@
         <v>60</v>
       </c>
       <c r="F38" s="125" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D39" s="35" t="s">
         <v>44</v>
@@ -18135,15 +18132,15 @@
         <v>61</v>
       </c>
       <c r="F39" s="125" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D40" s="35" t="s">
         <v>13</v>
@@ -18152,15 +18149,15 @@
         <v>84</v>
       </c>
       <c r="F40" s="127" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D41" s="35" t="s">
         <v>53</v>
@@ -18169,7 +18166,7 @@
         <v>51</v>
       </c>
       <c r="F41" s="125" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -18181,10 +18178,10 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D43" s="35" t="s">
         <v>24</v>
@@ -18193,15 +18190,15 @@
         <v>57</v>
       </c>
       <c r="F43" s="125" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D44" s="35" t="s">
         <v>44</v>
@@ -18210,15 +18207,15 @@
         <v>64</v>
       </c>
       <c r="F44" s="125" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D45" s="35" t="s">
         <v>24</v>
@@ -18227,15 +18224,15 @@
         <v>59</v>
       </c>
       <c r="F45" s="125" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="C46" s="34" t="s">
         <v>376</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>377</v>
       </c>
       <c r="D46" s="35" t="s">
         <v>13</v>
@@ -18244,15 +18241,15 @@
         <v>94</v>
       </c>
       <c r="F46" s="127" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="34" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D47" s="35" t="s">
         <v>44</v>
@@ -18261,15 +18258,15 @@
         <v>66</v>
       </c>
       <c r="F47" s="125" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="34" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D48" s="35" t="s">
         <v>53</v>
@@ -18278,15 +18275,15 @@
         <v>60</v>
       </c>
       <c r="F48" s="125" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D49" s="35" t="s">
         <v>35</v>
@@ -18295,15 +18292,15 @@
         <v>63</v>
       </c>
       <c r="F49" s="125" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D50" s="35" t="s">
         <v>44</v>
@@ -18312,15 +18309,15 @@
         <v>68</v>
       </c>
       <c r="F50" s="125" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D51" s="35" t="s">
         <v>53</v>
@@ -18329,15 +18326,15 @@
         <v>62</v>
       </c>
       <c r="F51" s="125" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D52" s="35" t="s">
         <v>35</v>
@@ -18346,15 +18343,15 @@
         <v>65</v>
       </c>
       <c r="F52" s="125" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D53" s="35" t="s">
         <v>35</v>
@@ -18363,15 +18360,15 @@
         <v>67</v>
       </c>
       <c r="F53" s="125" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D54" s="35" t="s">
         <v>44</v>
@@ -18380,15 +18377,15 @@
         <v>70</v>
       </c>
       <c r="F54" s="125" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D55" s="35" t="s">
         <v>53</v>
@@ -18397,15 +18394,15 @@
         <v>65</v>
       </c>
       <c r="F55" s="125" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="34" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D56" s="35" t="s">
         <v>35</v>
@@ -18414,15 +18411,15 @@
         <v>69</v>
       </c>
       <c r="F56" s="125" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="C57" s="34" t="s">
         <v>424</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>425</v>
       </c>
       <c r="D57" s="35" t="s">
         <v>13</v>
@@ -18431,7 +18428,7 @@
         <v>97</v>
       </c>
       <c r="F57" s="127" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
@@ -18443,10 +18440,10 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="C59" s="34" t="s">
         <v>437</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>438</v>
       </c>
       <c r="D59" s="35" t="s">
         <v>13</v>
@@ -18455,7 +18452,7 @@
         <v>105</v>
       </c>
       <c r="F59" s="127" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -18463,7 +18460,7 @@
         <v>20220303</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D60" s="35" t="s">
         <v>35</v>
@@ -18472,7 +18469,7 @@
         <v>72</v>
       </c>
       <c r="F60" s="125" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
@@ -18480,7 +18477,7 @@
         <v>20220406</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D61" s="35" t="s">
         <v>44</v>
@@ -18489,7 +18486,7 @@
         <v>81</v>
       </c>
       <c r="F61" s="125" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
@@ -18497,7 +18494,7 @@
         <v>20220908</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D62" s="35" t="s">
         <v>44</v>
@@ -18506,7 +18503,7 @@
         <v>88</v>
       </c>
       <c r="F62" s="125" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
@@ -18514,7 +18511,7 @@
         <v>20220915</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D63" s="35" t="s">
         <v>53</v>
@@ -18523,7 +18520,7 @@
         <v>73</v>
       </c>
       <c r="F63" s="125" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
